--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D021E-4C4A-403F-BB0E-0C9AE93D24A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A5574-C7EA-49FA-8168-5D7EF407851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="855" activeTab="1" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Result List" sheetId="2" r:id="rId1"/>
@@ -201,14 +201,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -395,6 +388,959 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0'!$E$3:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.4735342427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7615158099999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108152789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1392138890000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87561080390000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34379288029999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.038332633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53732698199999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2396298320000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8036390672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3727211770000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61085451329999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5960398469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5440775309999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49799310800000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1224560979999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.257090168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2996632779999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60514604189999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65561468440000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4151222530000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43076009840000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4208993613</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32921114559999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41500131829999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.69095221569999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66503967610000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73066192539999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5975544653</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.425150366</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73760315359999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72893106190000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67965208099999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73707781299999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68167307239999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5B7-4353-A4D1-253E273782C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1145508463"/>
+        <c:axId val="1145507215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1145508463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145507215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1145507215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145508463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AB061E-8AF0-5AF6-FAE9-93B0847E3753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,11 +1645,11 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A26:A30"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15199,11 +16145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813320CE-017C-4161-A97E-2BD98EB674E5}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15265,16 +16211,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1.6216500000000002E-14</v>
+        <v>2.90076E-16</v>
       </c>
       <c r="E3">
-        <v>0.26587302829999998</v>
+        <v>0.4735342427</v>
       </c>
       <c r="F3" s="1">
-        <v>2.39936551E-2</v>
+        <v>7.3339242000000004E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>5.5531099999999999E-21</v>
+        <v>1.84532E-39</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -15303,16 +16249,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.84775224930000004</v>
+        <v>5.9818848999999997E-3</v>
       </c>
       <c r="E4">
-        <v>0.30193037020000002</v>
+        <v>2.7615158099999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.95683533279999999</v>
+        <v>0.94578568860000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.1351225932</v>
+        <v>1.4567E-41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -15341,16 +16287,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.29366440890000001</v>
+        <v>1.8697984599999998E-2</v>
       </c>
       <c r="E5">
-        <v>0.4159217965</v>
+        <v>0.108152789</v>
       </c>
       <c r="F5" s="1">
-        <v>0.69030115400000003</v>
+        <v>0.83358462330000005</v>
       </c>
       <c r="G5" s="1">
-        <v>9.0861400000000002E-18</v>
+        <v>3.5596200000000003E-27</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -15379,16 +16325,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.74029734550000004</v>
+        <v>0.28159459949999999</v>
       </c>
       <c r="E6">
-        <v>-2.9022473610000001</v>
+        <v>1.1392138890000001</v>
       </c>
       <c r="F6" s="1">
-        <v>0.62704853250000003</v>
+        <v>0.54676232140000003</v>
       </c>
       <c r="G6" s="1">
-        <v>8.7523999999999995E-89</v>
+        <v>3.6716200000000001E-40</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -15417,16 +16363,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.58850606849999998</v>
+        <v>7.7276730000000004E-4</v>
       </c>
       <c r="E7">
-        <v>-0.30387177999999998</v>
+        <v>0.87561080390000001</v>
       </c>
       <c r="F7" s="1">
-        <v>0.73809370699999999</v>
+        <v>0.1098313355</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5238699999999999E-14</v>
+        <v>2.7977799999999999E-49</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -15455,16 +16401,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>6.5579480000000001E-3</v>
+        <v>9.7626000000000003E-5</v>
       </c>
       <c r="E8">
-        <v>0.91632134659999998</v>
+        <v>0.34379288029999999</v>
       </c>
       <c r="F8" s="1">
-        <v>2.9217933299999999E-2</v>
+        <v>0.24285857220000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4.6986500000000001E-32</v>
+        <v>4.9958199999999997E-21</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -15493,16 +16439,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0604598200000001E-2</v>
+        <v>7.0438400000000006E-5</v>
       </c>
       <c r="E9">
-        <v>0.66457575849999995</v>
+        <v>1.038332633</v>
       </c>
       <c r="F9" s="1">
-        <v>0.19368447959999999</v>
+        <v>3.52516971E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>1.2402900000000001E-15</v>
+        <v>8.2376799999999996E-43</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -15531,19 +16477,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>6.7043799999999995E-14</v>
+        <v>1.7316799999999999E-10</v>
       </c>
       <c r="E10">
-        <v>0.27594448620000001</v>
+        <v>0.53732698199999995</v>
       </c>
       <c r="F10" s="1">
-        <v>1.5987360700000001E-2</v>
+        <v>8.6142369999999996E-4</v>
       </c>
       <c r="G10" s="1">
-        <v>3.2921324100000003E-2</v>
+        <v>0.24338391009999999</v>
       </c>
       <c r="H10">
-        <v>0.66705942669999996</v>
+        <v>0.17429296</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -15569,19 +16515,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.10133767539999999</v>
+        <v>0.68646609280000004</v>
       </c>
       <c r="E11">
-        <v>1.463591643</v>
+        <v>1.2396298320000001</v>
       </c>
       <c r="F11" s="1">
-        <v>0.2046806343</v>
+        <v>0.65659291639999995</v>
       </c>
       <c r="G11">
-        <v>8.2271549999999997E-4</v>
+        <v>0.52019031419999995</v>
       </c>
       <c r="H11">
-        <v>0.32537861979999999</v>
+        <v>0.91106328800000003</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -15607,19 +16553,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.83340188049999997</v>
+        <v>0.81729478280000001</v>
       </c>
       <c r="E12">
-        <v>-1.737741886</v>
+        <v>0.8036390672</v>
       </c>
       <c r="F12" s="1">
-        <v>0.68200502709999999</v>
+        <v>0.70010749989999999</v>
       </c>
       <c r="G12">
-        <v>0.46731134699999999</v>
+        <v>0.7029267414</v>
       </c>
       <c r="H12">
-        <v>0.74656796420000004</v>
+        <v>0.80726420489999995</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -15645,19 +16591,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>0.98395078989999996</v>
+        <v>0.76555499449999997</v>
       </c>
       <c r="E13">
-        <v>-0.81205663549999996</v>
+        <v>1.3727211770000001</v>
       </c>
       <c r="F13" s="1">
-        <v>0.77572429200000004</v>
+        <v>0.81338421100000002</v>
       </c>
       <c r="G13">
-        <v>0.70022018180000001</v>
+        <v>0.93344044979999996</v>
       </c>
       <c r="H13">
-        <v>0.92997496430000004</v>
+        <v>0.96371637519999998</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -15683,19 +16629,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>3.6851300000000001E-6</v>
+        <v>1.36255E-5</v>
       </c>
       <c r="E14">
-        <v>0.47486262159999998</v>
+        <v>0.61085451329999996</v>
       </c>
       <c r="F14" s="1">
-        <v>5.8299789900000003E-2</v>
+        <v>6.6693763599999997E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.47814654140000001</v>
+        <v>0.87914248920000004</v>
       </c>
       <c r="H14">
-        <v>6.7408423999999995E-2</v>
+        <v>0.44918000959999999</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -15721,19 +16667,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>3.1226286999999999E-3</v>
+        <v>4.1043100000000002E-13</v>
       </c>
       <c r="E15">
-        <v>0.73723086530000004</v>
+        <v>0.5960398469</v>
       </c>
       <c r="F15" s="1">
-        <v>1.7695887099999998E-2</v>
+        <v>5.8830809999999999E-4</v>
       </c>
       <c r="G15">
-        <v>0.18687083069999999</v>
+        <v>0.81232600690000001</v>
       </c>
       <c r="H15">
-        <v>0.69016854930000004</v>
+        <v>0.239084619</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -15759,19 +16705,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>0.28875200820000002</v>
+        <v>0.53436287189999998</v>
       </c>
       <c r="E16">
-        <v>-3.17949405E-2</v>
+        <v>1.5440775309999999</v>
       </c>
       <c r="F16" s="1">
-        <v>0.96500983299999998</v>
+        <v>0.71645323000000005</v>
       </c>
       <c r="G16">
-        <v>1.26316083E-2</v>
+        <v>0.42830891719999997</v>
       </c>
       <c r="H16">
-        <v>0.28361075689999998</v>
+        <v>0.8296626815</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -15797,22 +16743,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>2.4881692999999998E-3</v>
+        <v>0.99529621950000002</v>
       </c>
       <c r="E17">
-        <v>0.77993205300000001</v>
+        <v>0.49799310800000002</v>
       </c>
       <c r="F17" s="1">
-        <v>7.6647000000000001E-7</v>
+        <v>8.0090000000000007E-6</v>
       </c>
       <c r="G17" s="1">
-        <v>0.84385380870000004</v>
+        <v>0.84240852960000001</v>
       </c>
       <c r="H17">
-        <v>0.1001684714</v>
+        <v>0.30118586219999999</v>
       </c>
       <c r="I17" s="1">
-        <v>0.10370143480000001</v>
+        <v>0.36026193880000001</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -15835,22 +16781,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>7.7155999999999993E-9</v>
+        <v>0.2307545198</v>
       </c>
       <c r="E18">
-        <v>0.34857931460000002</v>
+        <v>2.1224560979999998</v>
       </c>
       <c r="F18" s="1">
-        <v>4.7071468999999996E-3</v>
+        <v>0.4250358769</v>
       </c>
       <c r="G18">
-        <v>0.43722697440000002</v>
+        <v>0.57255193739999999</v>
       </c>
       <c r="H18">
-        <v>0.41957847660000003</v>
+        <v>0.7709668287</v>
       </c>
       <c r="I18" s="1">
-        <v>0.2106515883</v>
+        <v>0.71601313</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -15873,22 +16819,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>1.05009E-11</v>
+        <v>0.2473213188</v>
       </c>
       <c r="E19">
-        <v>0.2580364315</v>
+        <v>1.257090168</v>
       </c>
       <c r="F19" s="1">
-        <v>5.5380898400000003E-2</v>
+        <v>0.13718587669999999</v>
       </c>
       <c r="G19">
-        <v>0.75130542320000004</v>
+        <v>0.70785045040000005</v>
       </c>
       <c r="H19">
-        <v>0.37499856380000002</v>
+        <v>0.95152824380000001</v>
       </c>
       <c r="I19">
-        <v>0.18829512109999999</v>
+        <v>0.67340959469999995</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -15911,22 +16857,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>6.8547023400000004E-2</v>
+        <v>0.99844559060000004</v>
       </c>
       <c r="E20">
-        <v>1.268588227</v>
+        <v>1.2996632779999999</v>
       </c>
       <c r="F20" s="1">
-        <v>0.26301075010000002</v>
+        <v>0.76520162250000001</v>
       </c>
       <c r="G20">
-        <v>0.93004346739999999</v>
+        <v>0.92701794650000002</v>
       </c>
       <c r="H20">
-        <v>0.72455930739999996</v>
+        <v>0.98597741299999997</v>
       </c>
       <c r="I20">
-        <v>0.38732994069999999</v>
+        <v>0.88951443050000001</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -15949,22 +16895,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>7.0945499999999998E-11</v>
+        <v>8.3065400000000001E-9</v>
       </c>
       <c r="E21">
-        <v>0.64256541099999998</v>
+        <v>0.60514604189999999</v>
       </c>
       <c r="F21" s="1">
-        <v>4.1456460000000001E-4</v>
+        <v>4.215356E-4</v>
       </c>
       <c r="G21">
-        <v>0.62302981430000004</v>
+        <v>0.84472791280000004</v>
       </c>
       <c r="H21">
-        <v>0.24868088259999999</v>
+        <v>0.30086531480000001</v>
       </c>
       <c r="I21">
-        <v>0.50533844510000003</v>
+        <v>0.9777362825</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -15986,23 +16932,23 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>0.94602146200000004</v>
+      <c r="D22" s="1">
+        <v>5.15053E-14</v>
       </c>
       <c r="E22">
-        <v>1.079674432</v>
+        <v>0.65561468440000004</v>
       </c>
       <c r="F22" s="1">
-        <v>0.13051485539999999</v>
+        <v>4.5770350000000001E-4</v>
       </c>
       <c r="G22">
-        <v>3.0503418300000001E-2</v>
+        <v>0.82246632050000001</v>
       </c>
       <c r="H22">
-        <v>0.79733364210000002</v>
+        <v>0.9833068801</v>
       </c>
       <c r="I22">
-        <v>0.59261542069999995</v>
+        <v>0.76201230990000002</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -16025,22 +16971,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>5.8185926300000003E-2</v>
+        <v>0.6976444195</v>
       </c>
       <c r="E23">
-        <v>0.56215299149999998</v>
+        <v>1.4151222530000001</v>
       </c>
       <c r="F23" s="1">
-        <v>0.42952323650000002</v>
+        <v>0.82642178909999997</v>
       </c>
       <c r="G23">
-        <v>0.64788866759999997</v>
+        <v>0.7006661085</v>
       </c>
       <c r="H23">
-        <v>0.98348181710000004</v>
+        <v>0.93642093380000002</v>
       </c>
       <c r="I23">
-        <v>0.88311491769999995</v>
+        <v>0.99417467650000002</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -16063,25 +17009,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>6.5142099999999994E-8</v>
+        <v>1.12908E-5</v>
       </c>
       <c r="E24">
-        <v>0.27540873440000002</v>
+        <v>0.43076009840000001</v>
       </c>
       <c r="F24" s="1">
-        <v>1.163824E-4</v>
+        <v>8.7410400000000005E-10</v>
       </c>
       <c r="G24">
-        <v>0.88290859200000005</v>
+        <v>0.82379886349999998</v>
       </c>
       <c r="H24">
-        <v>0.39992767600000001</v>
+        <v>0.79265175030000001</v>
       </c>
       <c r="I24" s="1">
-        <v>0.28050760000000002</v>
+        <v>0.52796281590000005</v>
       </c>
       <c r="J24">
-        <v>0.2956354363</v>
+        <v>0.27234965909999997</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
@@ -16101,25 +17047,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>6.9990299999999998E-6</v>
+        <v>0.843035494</v>
       </c>
       <c r="E25">
-        <v>0.62351795919999997</v>
+        <v>0.4208993613</v>
       </c>
       <c r="F25" s="1">
-        <v>9.7203060000000002E-4</v>
+        <v>8.4321999999999997E-5</v>
       </c>
       <c r="G25">
-        <v>0.33769939090000001</v>
+        <v>0.89631017130000001</v>
       </c>
       <c r="H25">
-        <v>0.94440405390000004</v>
+        <v>0.69622899500000002</v>
       </c>
       <c r="I25">
-        <v>0.12436360690000001</v>
+        <v>0.58624476459999997</v>
       </c>
       <c r="J25">
-        <v>0.1664228032</v>
+        <v>0.19003006610000001</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
@@ -16138,26 +17084,26 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>2.49703E-5</v>
+      <c r="D26" s="1">
+        <v>1.1526400000000001E-7</v>
       </c>
       <c r="E26">
-        <v>0.32981350739999998</v>
+        <v>0.32921114559999998</v>
       </c>
       <c r="F26" s="1">
-        <v>1.08819221E-2</v>
+        <v>4.2927882000000001E-2</v>
       </c>
       <c r="G26">
-        <v>0.63678886450000005</v>
+        <v>0.8255141211</v>
       </c>
       <c r="H26">
-        <v>0.33063765039999998</v>
+        <v>0.97415915399999997</v>
       </c>
       <c r="I26">
-        <v>0.53648079940000004</v>
+        <v>0.85642591130000001</v>
       </c>
       <c r="J26">
-        <v>0.3870277513</v>
+        <v>0.1566695052</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
@@ -16177,25 +17123,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1.1580199999999999E-11</v>
+        <v>1.1084500000000001E-10</v>
       </c>
       <c r="E27">
-        <v>0.72110139220000002</v>
+        <v>0.41500131829999998</v>
       </c>
       <c r="F27" s="1">
-        <v>2.8718180000000002E-4</v>
+        <v>5.3880840999999999E-2</v>
       </c>
       <c r="G27">
-        <v>0.64764236239999995</v>
+        <v>0.74030950910000004</v>
       </c>
       <c r="H27">
-        <v>0.60610618370000002</v>
+        <v>0.32446262590000002</v>
       </c>
       <c r="I27">
-        <v>0.4455470245</v>
+        <v>0.2104352531</v>
       </c>
       <c r="J27">
-        <v>0.39309928900000002</v>
+        <v>0.2164966207</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -16214,26 +17160,26 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>2.8294239999999998E-4</v>
+      <c r="D28" s="1">
+        <v>2.5256999999999998E-6</v>
       </c>
       <c r="E28">
-        <v>0.57999058069999998</v>
+        <v>0.69095221569999998</v>
       </c>
       <c r="F28" s="1">
-        <v>8.7929416699999999E-2</v>
+        <v>6.9375662999999997E-3</v>
       </c>
       <c r="G28">
-        <v>0.75256242220000003</v>
+        <v>0.8028580877</v>
       </c>
       <c r="H28">
-        <v>0.41408367070000002</v>
+        <v>0.62608564290000002</v>
       </c>
       <c r="I28">
-        <v>0.38157061209999998</v>
+        <v>0.57334465899999998</v>
       </c>
       <c r="J28">
-        <v>0.86472617090000004</v>
+        <v>0.72475634109999998</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
@@ -16253,25 +17199,25 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>0.42433026169999999</v>
+        <v>0.1470388071</v>
       </c>
       <c r="E29">
-        <v>0.70828361480000002</v>
+        <v>0.66503967610000003</v>
       </c>
       <c r="F29" s="1">
-        <v>0.34202883429999997</v>
+        <v>0.59340506829999995</v>
       </c>
       <c r="G29">
-        <v>0.68327331700000005</v>
+        <v>0.94824616819999996</v>
       </c>
       <c r="H29">
-        <v>0.70195961210000002</v>
+        <v>0.88784476779999999</v>
       </c>
       <c r="I29">
-        <v>0.91647687310000003</v>
+        <v>0.64092173539999997</v>
       </c>
       <c r="J29">
-        <v>0.82916065729999999</v>
+        <v>0.94627161319999997</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
@@ -16291,25 +17237,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>2.9465330599999999E-2</v>
+        <v>6.7647191000000002E-3</v>
       </c>
       <c r="E30">
-        <v>0.73222099490000003</v>
+        <v>0.73066192539999997</v>
       </c>
       <c r="F30" s="1">
-        <v>6.3180595199999995E-2</v>
+        <v>7.73113E-7</v>
       </c>
       <c r="G30">
-        <v>0.73696445639999997</v>
+        <v>0.71933374719999998</v>
       </c>
       <c r="H30">
-        <v>0.71387549139999995</v>
+        <v>0.64650893819999999</v>
       </c>
       <c r="I30">
-        <v>0.73295791330000004</v>
+        <v>0.79002473500000003</v>
       </c>
       <c r="J30">
-        <v>0.53467046080000002</v>
+        <v>0.44132536</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
@@ -16329,28 +17275,28 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1.19564E-7</v>
+        <v>4.9255499999999998E-6</v>
       </c>
       <c r="E31">
-        <v>0.22103984809999999</v>
+        <v>0.5975544653</v>
       </c>
       <c r="F31" s="1">
-        <v>0.18725008679999999</v>
+        <v>2.5037330000000002E-4</v>
       </c>
       <c r="G31">
-        <v>0.60469283539999996</v>
+        <v>0.2791580233</v>
       </c>
       <c r="H31">
-        <v>0.4095220229</v>
+        <v>0.45501628309999997</v>
       </c>
       <c r="I31" s="1">
-        <v>7.2909055700000003E-2</v>
+        <v>0.3302131056</v>
       </c>
       <c r="J31">
-        <v>0.64732278160000001</v>
+        <v>0.51852930109999995</v>
       </c>
       <c r="K31">
-        <v>0.54336250860000002</v>
+        <v>0.22383730290000001</v>
       </c>
       <c r="L31" t="s">
         <v>1</v>
@@ -16367,28 +17313,28 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>4.104323E-3</v>
+        <v>0.83318491660000005</v>
       </c>
       <c r="E32">
-        <v>0.93484987720000001</v>
+        <v>0.425150366</v>
       </c>
       <c r="F32" s="1">
-        <v>5.10645E-8</v>
+        <v>8.4156029999999998E-4</v>
       </c>
       <c r="G32">
-        <v>0.44513760549999998</v>
+        <v>0.95298708509999996</v>
       </c>
       <c r="H32">
-        <v>0.73433517520000002</v>
+        <v>0.83104246820000005</v>
       </c>
       <c r="I32">
-        <v>0.1273917376</v>
+        <v>0.56923803529999994</v>
       </c>
       <c r="J32">
-        <v>5.59863497E-2</v>
+        <v>0.3023793877</v>
       </c>
       <c r="K32">
-        <v>8.5847984700000005E-2</v>
+        <v>0.96409974409999999</v>
       </c>
       <c r="L32" t="s">
         <v>1</v>
@@ -16405,28 +17351,28 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>1.3717070000000001E-4</v>
+        <v>0.105280525</v>
       </c>
       <c r="E33">
-        <v>0.18182951829999999</v>
+        <v>0.73760315359999995</v>
       </c>
       <c r="F33" s="1">
-        <v>0.2192743291</v>
+        <v>6.0142598000000004E-3</v>
       </c>
       <c r="G33">
-        <v>0.21448284619999999</v>
+        <v>0.60386941350000001</v>
       </c>
       <c r="H33">
-        <v>0.21081985810000001</v>
+        <v>0.30395464449999998</v>
       </c>
       <c r="I33">
-        <v>0.65368382380000001</v>
+        <v>0.49506165340000002</v>
       </c>
       <c r="J33">
-        <v>0.54234209919999998</v>
+        <v>0.74224000339999996</v>
       </c>
       <c r="K33">
-        <v>0.1413682</v>
+        <v>0.55288456320000001</v>
       </c>
       <c r="L33" t="s">
         <v>1</v>
@@ -16443,28 +17389,28 @@
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>4.6140599999999996E-13</v>
+        <v>4.5078050000000003E-4</v>
       </c>
       <c r="E34">
-        <v>0.75206913109999995</v>
+        <v>0.72893106190000001</v>
       </c>
       <c r="F34" s="1">
-        <v>3.26429E-6</v>
+        <v>4.3721699999999998E-5</v>
       </c>
       <c r="G34">
-        <v>0.77935325359999996</v>
+        <v>0.94836285600000003</v>
       </c>
       <c r="H34">
-        <v>0.71813810659999999</v>
+        <v>0.46935316710000002</v>
       </c>
       <c r="I34">
-        <v>0.55984041429999998</v>
+        <v>0.55752393310000004</v>
       </c>
       <c r="J34">
-        <v>0.92518737689999997</v>
+        <v>0.69027115449999998</v>
       </c>
       <c r="K34">
-        <v>0.22356628810000001</v>
+        <v>0.4017121172</v>
       </c>
       <c r="L34" t="s">
         <v>1</v>
@@ -16480,29 +17426,29 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>9.9899210299999999E-2</v>
+      <c r="D35" s="1">
+        <v>2.7022299999999998E-8</v>
       </c>
       <c r="E35">
-        <v>0.56731308540000003</v>
+        <v>0.67965208099999996</v>
       </c>
       <c r="F35" s="1">
-        <v>0.329724458</v>
+        <v>1.0905837599999999E-2</v>
       </c>
       <c r="G35">
-        <v>0.79393319829999998</v>
+        <v>0.94013869689999996</v>
       </c>
       <c r="H35">
-        <v>0.57184653809999997</v>
+        <v>0.55962055690000001</v>
       </c>
       <c r="I35">
-        <v>0.3913383574</v>
+        <v>0.57665398069999996</v>
       </c>
       <c r="J35">
-        <v>0.90052155140000001</v>
+        <v>0.80709576620000001</v>
       </c>
       <c r="K35">
-        <v>0.81861625360000001</v>
+        <v>0.94458367799999998</v>
       </c>
       <c r="L35" t="s">
         <v>1</v>
@@ -16519,28 +17465,28 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>0.62056647529999998</v>
+        <v>0.2293049543</v>
       </c>
       <c r="E36">
-        <v>0.65991979420000002</v>
+        <v>0.73707781299999997</v>
       </c>
       <c r="F36" s="1">
-        <v>0.19392814289999999</v>
+        <v>0.81864181130000002</v>
       </c>
       <c r="G36">
-        <v>0.52729995949999997</v>
+        <v>0.99508350670000001</v>
       </c>
       <c r="H36">
-        <v>0.94343842099999997</v>
+        <v>0.97609779100000005</v>
       </c>
       <c r="I36">
-        <v>0.77930842789999999</v>
+        <v>0.87825044809999997</v>
       </c>
       <c r="J36">
-        <v>0.66771350730000001</v>
+        <v>0.93758046399999995</v>
       </c>
       <c r="K36">
-        <v>0.63685041210000004</v>
+        <v>0.95910563260000004</v>
       </c>
       <c r="L36" t="s">
         <v>1</v>
@@ -16557,28 +17503,28 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>0.99713944499999996</v>
+        <v>5.7133499999999999E-24</v>
       </c>
       <c r="E37">
-        <v>0.89760357280000003</v>
+        <v>0.68167307239999997</v>
       </c>
       <c r="F37" s="1">
-        <v>0.25601635769999997</v>
+        <v>1.0574799999999999E-6</v>
       </c>
       <c r="G37">
-        <v>0.68035727099999999</v>
+        <v>0.63616522590000002</v>
       </c>
       <c r="H37">
-        <v>0.64940393129999996</v>
+        <v>0.57157511839999997</v>
       </c>
       <c r="I37">
-        <v>0.59318400230000001</v>
+        <v>0.78772516820000005</v>
       </c>
       <c r="J37">
-        <v>0.51874666729999996</v>
+        <v>0.60560813260000002</v>
       </c>
       <c r="K37">
-        <v>0.88497120110000005</v>
+        <v>0.53281349180000004</v>
       </c>
       <c r="L37" t="s">
         <v>1</v>
@@ -16593,6 +17539,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25007,10 +25954,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A5574-C7EA-49FA-8168-5D7EF407851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA81F5-0E72-4DF3-8296-768BF201C0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="855" activeTab="1" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Result List" sheetId="2" r:id="rId1"/>
@@ -201,7 +201,21 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2122,7 +2136,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3522,7 +3536,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4923,7 +4937,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,7 +6338,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7725,7 +7739,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9126,7 +9140,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10527,7 +10541,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11929,7 +11943,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13330,7 +13344,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14731,7 +14745,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16132,7 +16146,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37 M3">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16149,7 +16163,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17533,8 +17547,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
-      <formula>0.05</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18935,7 +18949,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20336,7 +20350,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21737,7 +21751,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23138,7 +23152,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24539,7 +24553,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25940,7 +25954,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27341,7 +27355,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28742,7 +28756,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30143,7 +30157,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31544,7 +31558,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32945,7 +32959,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34346,7 +34360,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35747,7 +35761,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA81F5-0E72-4DF3-8296-768BF201C0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBDCD5A-EED9-4CBF-BFE7-4BE6F5567911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
+    <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Result List" sheetId="2" r:id="rId1"/>
@@ -201,21 +201,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -476,109 +462,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.4735342427</c:v>
+                  <c:v>0.82285222130000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7615158099999999E-2</c:v>
+                  <c:v>0.81495445170000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.108152789</c:v>
+                  <c:v>0.54587938120000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1392138890000001</c:v>
+                  <c:v>1.2017277369999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87561080390000001</c:v>
+                  <c:v>0.63135592460000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34379288029999999</c:v>
+                  <c:v>0.47784321149999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.038332633</c:v>
+                  <c:v>0.54876015209999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53732698199999995</c:v>
+                  <c:v>0.73756721530000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2396298320000001</c:v>
+                  <c:v>0.84045151129999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8036390672</c:v>
+                  <c:v>0.72226374059999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3727211770000001</c:v>
+                  <c:v>0.6630921676</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61085451329999996</c:v>
+                  <c:v>0.81510535309999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5960398469</c:v>
+                  <c:v>0.98343283640000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5440775309999999</c:v>
+                  <c:v>0.54295208110000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.49799310800000002</c:v>
+                  <c:v>0.83856033009999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1224560979999998</c:v>
+                  <c:v>0.83145315799999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.257090168</c:v>
+                  <c:v>0.81003978489999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2996632779999999</c:v>
+                  <c:v>0.67782712879999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.60514604189999999</c:v>
+                  <c:v>0.2384948908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.65561468440000004</c:v>
+                  <c:v>0.91980627599999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4151222530000001</c:v>
+                  <c:v>0.45740040300000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.43076009840000001</c:v>
+                  <c:v>1.664490083</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4208993613</c:v>
+                  <c:v>0.88060152179999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.32921114559999998</c:v>
+                  <c:v>0.59138494450000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.41500131829999998</c:v>
+                  <c:v>0.9232678983</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.69095221569999998</c:v>
+                  <c:v>0.70203404589999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.66503967610000003</c:v>
+                  <c:v>0.83148584069999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.73066192539999997</c:v>
+                  <c:v>0.44009586550000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5975544653</c:v>
+                  <c:v>0.91620090799999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.425150366</c:v>
+                  <c:v>1.2524375210000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.73760315359999995</c:v>
+                  <c:v>0.56258009789999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.72893106190000001</c:v>
+                  <c:v>0.48874332469999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.67965208099999996</c:v>
+                  <c:v>0.71572139040000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.73707781299999997</c:v>
+                  <c:v>0.66056988429999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.68167307239999997</c:v>
+                  <c:v>0.47544811679999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,11 +1645,11 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1690,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.91632134659999998</v>
+        <v>0.82285222130000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2136,7 +2122,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3536,7 +3522,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4937,7 +4923,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6338,7 +6324,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7739,7 +7725,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9140,7 +9126,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10541,7 +10527,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11943,7 +11929,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13344,7 +13330,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14745,7 +14731,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16146,7 +16132,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37 M3">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16159,11 +16145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813320CE-017C-4161-A97E-2BD98EB674E5}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16225,16 +16211,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>2.90076E-16</v>
+        <v>4.9393500000000001E-5</v>
       </c>
       <c r="E3">
-        <v>0.4735342427</v>
+        <v>0.82285222130000002</v>
       </c>
       <c r="F3" s="1">
-        <v>7.3339242000000004E-3</v>
+        <v>2.8495165499999999E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>1.84532E-39</v>
+        <v>8.1668199999999998E-19</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -16263,16 +16249,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>5.9818848999999997E-3</v>
+        <v>0.81991492229999996</v>
       </c>
       <c r="E4">
-        <v>2.7615158099999999E-2</v>
+        <v>0.81495445170000003</v>
       </c>
       <c r="F4" s="1">
-        <v>0.94578568860000001</v>
+        <v>0.89161888639999998</v>
       </c>
       <c r="G4" s="1">
-        <v>1.4567E-41</v>
+        <v>0.1685317915</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -16301,16 +16287,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1.8697984599999998E-2</v>
+        <v>0.18720135369999999</v>
       </c>
       <c r="E5">
-        <v>0.108152789</v>
+        <v>0.54587938120000001</v>
       </c>
       <c r="F5" s="1">
-        <v>0.83358462330000005</v>
+        <v>0.54802776040000001</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5596200000000003E-27</v>
+        <v>8.5323999999999995E-12</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -16339,16 +16325,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.28159459949999999</v>
+        <v>0.86812336629999998</v>
       </c>
       <c r="E6">
-        <v>1.1392138890000001</v>
+        <v>1.2017277369999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.54676232140000003</v>
+        <v>0.29856324350000002</v>
       </c>
       <c r="G6" s="1">
-        <v>3.6716200000000001E-40</v>
+        <v>3.1612299999999999E-19</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -16377,16 +16363,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>7.7276730000000004E-4</v>
+        <v>0.53580514499999998</v>
       </c>
       <c r="E7">
-        <v>0.87561080390000001</v>
+        <v>0.63135592460000001</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1098313355</v>
+        <v>0.7263345765</v>
       </c>
       <c r="G7" s="1">
-        <v>2.7977799999999999E-49</v>
+        <v>1.4270330000000001E-4</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -16415,16 +16401,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>9.7626000000000003E-5</v>
+        <v>4.8738006200000003E-2</v>
       </c>
       <c r="E8">
-        <v>0.34379288029999999</v>
+        <v>0.47784321149999998</v>
       </c>
       <c r="F8" s="1">
-        <v>0.24285857220000001</v>
+        <v>0.40691436869999997</v>
       </c>
       <c r="G8" s="1">
-        <v>4.9958199999999997E-21</v>
+        <v>6.04831E-11</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -16453,16 +16439,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>7.0438400000000006E-5</v>
+        <v>8.0648310000000002E-4</v>
       </c>
       <c r="E9">
-        <v>1.038332633</v>
+        <v>0.54876015209999995</v>
       </c>
       <c r="F9" s="1">
-        <v>3.52516971E-2</v>
+        <v>0.13910885749999999</v>
       </c>
       <c r="G9" s="1">
-        <v>8.2376799999999996E-43</v>
+        <v>6.7338500000000005E-10</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -16491,19 +16477,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1.7316799999999999E-10</v>
+        <v>3.0514259999999999E-4</v>
       </c>
       <c r="E10">
-        <v>0.53732698199999995</v>
+        <v>0.73756721530000002</v>
       </c>
       <c r="F10" s="1">
-        <v>8.6142369999999996E-4</v>
+        <v>6.2998586199999998E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.24338391009999999</v>
+        <v>6.2614999999999996E-5</v>
       </c>
       <c r="H10">
-        <v>0.17429296</v>
+        <v>0.36011474409999999</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -16529,19 +16515,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.68646609280000004</v>
+        <v>2.0210168999999999E-3</v>
       </c>
       <c r="E11">
-        <v>1.2396298320000001</v>
+        <v>0.84045151129999995</v>
       </c>
       <c r="F11" s="1">
-        <v>0.65659291639999995</v>
+        <v>8.3703807300000002E-2</v>
       </c>
       <c r="G11">
-        <v>0.52019031419999995</v>
+        <v>0.96019628469999996</v>
       </c>
       <c r="H11">
-        <v>0.91106328800000003</v>
+        <v>0.44154796600000001</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -16567,19 +16553,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.81729478280000001</v>
+        <v>0.1523816607</v>
       </c>
       <c r="E12">
-        <v>0.8036390672</v>
+        <v>0.72226374059999998</v>
       </c>
       <c r="F12" s="1">
-        <v>0.70010749989999999</v>
+        <v>0.45561621839999999</v>
       </c>
       <c r="G12">
-        <v>0.7029267414</v>
+        <v>0.92808013050000004</v>
       </c>
       <c r="H12">
-        <v>0.80726420489999995</v>
+        <v>0.58753058680000003</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -16605,19 +16591,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>0.76555499449999997</v>
+        <v>6.4799904500000005E-2</v>
       </c>
       <c r="E13">
-        <v>1.3727211770000001</v>
+        <v>0.6630921676</v>
       </c>
       <c r="F13" s="1">
-        <v>0.81338421100000002</v>
+        <v>0.24924726920000001</v>
       </c>
       <c r="G13">
-        <v>0.93344044979999996</v>
+        <v>0.74602682549999999</v>
       </c>
       <c r="H13">
-        <v>0.96371637519999998</v>
+        <v>0.25354919539999998</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -16643,19 +16629,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>1.36255E-5</v>
+        <v>0.63574287100000004</v>
       </c>
       <c r="E14">
-        <v>0.61085451329999996</v>
+        <v>0.81510535309999999</v>
       </c>
       <c r="F14" s="1">
-        <v>6.6693763599999997E-2</v>
+        <v>0.41849244390000001</v>
       </c>
       <c r="G14" s="1">
-        <v>0.87914248920000004</v>
+        <v>0.62667170750000001</v>
       </c>
       <c r="H14">
-        <v>0.44918000959999999</v>
+        <v>0.24181743089999999</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -16681,19 +16667,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>4.1043100000000002E-13</v>
+        <v>0.75350689039999996</v>
       </c>
       <c r="E15">
-        <v>0.5960398469</v>
+        <v>0.98343283640000001</v>
       </c>
       <c r="F15" s="1">
-        <v>5.8830809999999999E-4</v>
+        <v>0.65490990989999998</v>
       </c>
       <c r="G15">
-        <v>0.81232600690000001</v>
+        <v>0.85378694600000005</v>
       </c>
       <c r="H15">
-        <v>0.239084619</v>
+        <v>0.1441538815</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -16719,19 +16705,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>0.53436287189999998</v>
+        <v>3.2500699999999999E-5</v>
       </c>
       <c r="E16">
-        <v>1.5440775309999999</v>
+        <v>0.54295208110000004</v>
       </c>
       <c r="F16" s="1">
-        <v>0.71645323000000005</v>
+        <v>6.1453579299999998E-2</v>
       </c>
       <c r="G16">
-        <v>0.42830891719999997</v>
+        <v>0.27934293650000003</v>
       </c>
       <c r="H16">
-        <v>0.8296626815</v>
+        <v>0.19161376490000001</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -16757,22 +16743,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.99529621950000002</v>
+        <v>9.6553487999999996E-3</v>
       </c>
       <c r="E17">
-        <v>0.49799310800000002</v>
+        <v>0.83856033009999997</v>
       </c>
       <c r="F17" s="1">
-        <v>8.0090000000000007E-6</v>
+        <v>0.15896676100000001</v>
       </c>
       <c r="G17" s="1">
-        <v>0.84240852960000001</v>
+        <v>3.76157E-5</v>
       </c>
       <c r="H17">
-        <v>0.30118586219999999</v>
+        <v>0.33236449270000001</v>
       </c>
       <c r="I17" s="1">
-        <v>0.36026193880000001</v>
+        <v>0.60458684460000001</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -16795,22 +16781,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>0.2307545198</v>
+        <v>9.7067716000000005E-3</v>
       </c>
       <c r="E18">
-        <v>2.1224560979999998</v>
+        <v>0.83145315799999997</v>
       </c>
       <c r="F18" s="1">
-        <v>0.4250358769</v>
+        <v>0.18469557919999999</v>
       </c>
       <c r="G18">
-        <v>0.57255193739999999</v>
+        <v>0.82726428080000003</v>
       </c>
       <c r="H18">
-        <v>0.7709668287</v>
+        <v>0.51366122069999998</v>
       </c>
       <c r="I18" s="1">
-        <v>0.71601313</v>
+        <v>0.75239680919999996</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -16833,22 +16819,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.2473213188</v>
+        <v>0.56345065770000002</v>
       </c>
       <c r="E19">
-        <v>1.257090168</v>
+        <v>0.81003978489999995</v>
       </c>
       <c r="F19" s="1">
-        <v>0.13718587669999999</v>
+        <v>0.2245454154</v>
       </c>
       <c r="G19">
-        <v>0.70785045040000005</v>
+        <v>0.61421070929999999</v>
       </c>
       <c r="H19">
-        <v>0.95152824380000001</v>
+        <v>0.34316861809999999</v>
       </c>
       <c r="I19">
-        <v>0.67340959469999995</v>
+        <v>0.5813170942</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -16871,22 +16857,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.99844559060000004</v>
+        <v>0.95233390419999997</v>
       </c>
       <c r="E20">
-        <v>1.2996632779999999</v>
+        <v>0.67782712879999996</v>
       </c>
       <c r="F20" s="1">
-        <v>0.76520162250000001</v>
+        <v>0.81701059659999997</v>
       </c>
       <c r="G20">
-        <v>0.92701794650000002</v>
+        <v>0.90438867460000005</v>
       </c>
       <c r="H20">
-        <v>0.98597741299999997</v>
+        <v>0.15620605579999999</v>
       </c>
       <c r="I20">
-        <v>0.88951443050000001</v>
+        <v>0.83453314410000001</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -16909,22 +16895,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>8.3065400000000001E-9</v>
+        <v>0.58939382009999997</v>
       </c>
       <c r="E21">
-        <v>0.60514604189999999</v>
+        <v>0.2384948908</v>
       </c>
       <c r="F21" s="1">
-        <v>4.215356E-4</v>
+        <v>0.87021833309999996</v>
       </c>
       <c r="G21">
-        <v>0.84472791280000004</v>
+        <v>0.52100133150000005</v>
       </c>
       <c r="H21">
-        <v>0.30086531480000001</v>
+        <v>7.5476922700000004E-2</v>
       </c>
       <c r="I21">
-        <v>0.9777362825</v>
+        <v>0.36153601270000002</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -16947,22 +16933,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>5.15053E-14</v>
+        <v>0.52493811749999997</v>
       </c>
       <c r="E22">
-        <v>0.65561468440000004</v>
+        <v>0.91980627599999998</v>
       </c>
       <c r="F22" s="1">
-        <v>4.5770350000000001E-4</v>
+        <v>0.3727326567</v>
       </c>
       <c r="G22">
-        <v>0.82246632050000001</v>
+        <v>0.74834405680000005</v>
       </c>
       <c r="H22">
-        <v>0.9833068801</v>
+        <v>0.92681629580000002</v>
       </c>
       <c r="I22">
-        <v>0.76201230990000002</v>
+        <v>0.54465253250000001</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -16985,22 +16971,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>0.6976444195</v>
+        <v>4.3941400000000003E-6</v>
       </c>
       <c r="E23">
-        <v>1.4151222530000001</v>
+        <v>0.45740040300000001</v>
       </c>
       <c r="F23" s="1">
-        <v>0.82642178909999997</v>
+        <v>5.5305076799999998E-2</v>
       </c>
       <c r="G23">
-        <v>0.7006661085</v>
+        <v>0.2602351021</v>
       </c>
       <c r="H23">
-        <v>0.93642093380000002</v>
+        <v>0.21428433059999999</v>
       </c>
       <c r="I23">
-        <v>0.99417467650000002</v>
+        <v>0.80953739790000001</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -17023,25 +17009,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>1.12908E-5</v>
+        <v>0.24405694089999999</v>
       </c>
       <c r="E24">
-        <v>0.43076009840000001</v>
+        <v>1.664490083</v>
       </c>
       <c r="F24" s="1">
-        <v>8.7410400000000005E-10</v>
+        <v>0.33736243339999999</v>
       </c>
       <c r="G24">
-        <v>0.82379886349999998</v>
+        <v>2.57534E-5</v>
       </c>
       <c r="H24">
-        <v>0.79265175030000001</v>
+        <v>0.38757762820000002</v>
       </c>
       <c r="I24" s="1">
-        <v>0.52796281590000005</v>
+        <v>0.46318304900000001</v>
       </c>
       <c r="J24">
-        <v>0.27234965909999997</v>
+        <v>0.48873435059999998</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
@@ -17061,25 +17047,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.843035494</v>
+        <v>2.54807739E-2</v>
       </c>
       <c r="E25">
-        <v>0.4208993613</v>
+        <v>0.88060152179999995</v>
       </c>
       <c r="F25" s="1">
-        <v>8.4321999999999997E-5</v>
+        <v>0.17772068060000001</v>
       </c>
       <c r="G25">
-        <v>0.89631017130000001</v>
+        <v>0.9118373917</v>
       </c>
       <c r="H25">
-        <v>0.69622899500000002</v>
+        <v>0.44605035939999998</v>
       </c>
       <c r="I25">
-        <v>0.58624476459999997</v>
+        <v>0.98171149710000005</v>
       </c>
       <c r="J25">
-        <v>0.19003006610000001</v>
+        <v>0.56755115609999995</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
@@ -17099,25 +17085,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>1.1526400000000001E-7</v>
+        <v>0.36347065249999999</v>
       </c>
       <c r="E26">
-        <v>0.32921114559999998</v>
+        <v>0.59138494450000001</v>
       </c>
       <c r="F26" s="1">
-        <v>4.2927882000000001E-2</v>
+        <v>0.76106232200000001</v>
       </c>
       <c r="G26">
-        <v>0.8255141211</v>
+        <v>0.85657161530000003</v>
       </c>
       <c r="H26">
-        <v>0.97415915399999997</v>
+        <v>0.2602993891</v>
       </c>
       <c r="I26">
-        <v>0.85642591130000001</v>
+        <v>0.73413104480000002</v>
       </c>
       <c r="J26">
-        <v>0.1566695052</v>
+        <v>0.93449942100000005</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
@@ -17137,25 +17123,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1.1084500000000001E-10</v>
+        <v>1.6243948300000002E-2</v>
       </c>
       <c r="E27">
-        <v>0.41500131829999998</v>
+        <v>0.9232678983</v>
       </c>
       <c r="F27" s="1">
-        <v>5.3880840999999999E-2</v>
+        <v>0.17924292720000001</v>
       </c>
       <c r="G27">
-        <v>0.74030950910000004</v>
+        <v>0.91960223819999998</v>
       </c>
       <c r="H27">
-        <v>0.32446262590000002</v>
+        <v>0.94653639170000003</v>
       </c>
       <c r="I27">
-        <v>0.2104352531</v>
+        <v>0.91624900610000004</v>
       </c>
       <c r="J27">
-        <v>0.2164966207</v>
+        <v>0.92538720919999995</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -17175,25 +17161,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>2.5256999999999998E-6</v>
+        <v>0.94128437789999997</v>
       </c>
       <c r="E28">
-        <v>0.69095221569999998</v>
+        <v>0.70203404589999996</v>
       </c>
       <c r="F28" s="1">
-        <v>6.9375662999999997E-3</v>
+        <v>0.96854723860000003</v>
       </c>
       <c r="G28">
-        <v>0.8028580877</v>
+        <v>0.96458072139999995</v>
       </c>
       <c r="H28">
-        <v>0.62608564290000002</v>
+        <v>0.95506623850000005</v>
       </c>
       <c r="I28">
-        <v>0.57334465899999998</v>
+        <v>0.96268726780000002</v>
       </c>
       <c r="J28">
-        <v>0.72475634109999998</v>
+        <v>0.56675117630000005</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
@@ -17213,25 +17199,25 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>0.1470388071</v>
+        <v>4.60492443E-2</v>
       </c>
       <c r="E29">
-        <v>0.66503967610000003</v>
+        <v>0.83148584069999998</v>
       </c>
       <c r="F29" s="1">
-        <v>0.59340506829999995</v>
+        <v>0.14702424580000001</v>
       </c>
       <c r="G29">
-        <v>0.94824616819999996</v>
+        <v>0.57217270229999995</v>
       </c>
       <c r="H29">
-        <v>0.88784476779999999</v>
+        <v>0.66273209870000005</v>
       </c>
       <c r="I29">
-        <v>0.64092173539999997</v>
+        <v>0.59256894380000003</v>
       </c>
       <c r="J29">
-        <v>0.94627161319999997</v>
+        <v>0.26692233939999999</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
@@ -17251,25 +17237,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>6.7647191000000002E-3</v>
+        <v>3.86094E-6</v>
       </c>
       <c r="E30">
-        <v>0.73066192539999997</v>
+        <v>0.44009586550000002</v>
       </c>
       <c r="F30" s="1">
-        <v>7.73113E-7</v>
+        <v>5.8800255799999999E-2</v>
       </c>
       <c r="G30">
-        <v>0.71933374719999998</v>
+        <v>0.23676890610000001</v>
       </c>
       <c r="H30">
-        <v>0.64650893819999999</v>
+        <v>0.31836147510000001</v>
       </c>
       <c r="I30">
-        <v>0.79002473500000003</v>
+        <v>0.76726428449999995</v>
       </c>
       <c r="J30">
-        <v>0.44132536</v>
+        <v>0.98246963509999996</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
@@ -17289,28 +17275,28 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>4.9255499999999998E-6</v>
+        <v>5.4082104700000001E-2</v>
       </c>
       <c r="E31">
-        <v>0.5975544653</v>
+        <v>0.91620090799999998</v>
       </c>
       <c r="F31" s="1">
-        <v>2.5037330000000002E-4</v>
+        <v>0.26188879819999999</v>
       </c>
       <c r="G31">
-        <v>0.2791580233</v>
+        <v>7.2698600000000002E-5</v>
       </c>
       <c r="H31">
-        <v>0.45501628309999997</v>
+        <v>0.52895249190000004</v>
       </c>
       <c r="I31" s="1">
-        <v>0.3302131056</v>
+        <v>0.65529791179999997</v>
       </c>
       <c r="J31">
-        <v>0.51852930109999995</v>
+        <v>0.44098066190000001</v>
       </c>
       <c r="K31">
-        <v>0.22383730290000001</v>
+        <v>0.65582265849999999</v>
       </c>
       <c r="L31" t="s">
         <v>1</v>
@@ -17327,28 +17313,28 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.83318491660000005</v>
+        <v>0.16839498689999999</v>
       </c>
       <c r="E32">
-        <v>0.425150366</v>
+        <v>1.2524375210000001</v>
       </c>
       <c r="F32" s="1">
-        <v>8.4156029999999998E-4</v>
+        <v>0.30690863769999999</v>
       </c>
       <c r="G32">
-        <v>0.95298708509999996</v>
+        <v>0.66949245859999995</v>
       </c>
       <c r="H32">
-        <v>0.83104246820000005</v>
+        <v>0.55142506540000003</v>
       </c>
       <c r="I32">
-        <v>0.56923803529999994</v>
+        <v>0.75357494739999997</v>
       </c>
       <c r="J32">
-        <v>0.3023793877</v>
+        <v>0.80799202029999995</v>
       </c>
       <c r="K32">
-        <v>0.96409974409999999</v>
+        <v>0.64379628069999995</v>
       </c>
       <c r="L32" t="s">
         <v>1</v>
@@ -17365,28 +17351,28 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>0.105280525</v>
+        <v>1.5045758500000001E-2</v>
       </c>
       <c r="E33">
-        <v>0.73760315359999995</v>
+        <v>0.56258009789999996</v>
       </c>
       <c r="F33" s="1">
-        <v>6.0142598000000004E-3</v>
+        <v>0.65043930809999995</v>
       </c>
       <c r="G33">
-        <v>0.60386941350000001</v>
+        <v>0.72976036740000005</v>
       </c>
       <c r="H33">
-        <v>0.30395464449999998</v>
+        <v>0.31958726679999999</v>
       </c>
       <c r="I33">
-        <v>0.49506165340000002</v>
+        <v>0.31282658159999999</v>
       </c>
       <c r="J33">
-        <v>0.74224000339999996</v>
+        <v>0.90917030170000002</v>
       </c>
       <c r="K33">
-        <v>0.55288456320000001</v>
+        <v>0.87899635750000005</v>
       </c>
       <c r="L33" t="s">
         <v>1</v>
@@ -17403,28 +17389,28 @@
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>4.5078050000000003E-4</v>
+        <v>1.4923201400000001E-2</v>
       </c>
       <c r="E34">
-        <v>0.72893106190000001</v>
+        <v>0.48874332469999998</v>
       </c>
       <c r="F34" s="1">
-        <v>4.3721699999999998E-5</v>
+        <v>0.59391154440000005</v>
       </c>
       <c r="G34">
-        <v>0.94836285600000003</v>
+        <v>0.75435812179999995</v>
       </c>
       <c r="H34">
-        <v>0.46935316710000002</v>
+        <v>0.85477542569999998</v>
       </c>
       <c r="I34">
-        <v>0.55752393310000004</v>
+        <v>0.74591304989999996</v>
       </c>
       <c r="J34">
-        <v>0.69027115449999998</v>
+        <v>0.74520338890000004</v>
       </c>
       <c r="K34">
-        <v>0.4017121172</v>
+        <v>0.88272618020000004</v>
       </c>
       <c r="L34" t="s">
         <v>1</v>
@@ -17441,28 +17427,28 @@
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>2.7022299999999998E-8</v>
+        <v>0.2448861987</v>
       </c>
       <c r="E35">
-        <v>0.67965208099999996</v>
+        <v>0.71572139040000005</v>
       </c>
       <c r="F35" s="1">
-        <v>1.0905837599999999E-2</v>
+        <v>0.2722246774</v>
       </c>
       <c r="G35">
-        <v>0.94013869689999996</v>
+        <v>0.64198084079999995</v>
       </c>
       <c r="H35">
-        <v>0.55962055690000001</v>
+        <v>0.8359425828</v>
       </c>
       <c r="I35">
-        <v>0.57665398069999996</v>
+        <v>0.72927013750000003</v>
       </c>
       <c r="J35">
-        <v>0.80709576620000001</v>
+        <v>0.72773657810000003</v>
       </c>
       <c r="K35">
-        <v>0.94458367799999998</v>
+        <v>0.82467110089999995</v>
       </c>
       <c r="L35" t="s">
         <v>1</v>
@@ -17479,28 +17465,28 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>0.2293049543</v>
+        <v>5.9683412200000001E-2</v>
       </c>
       <c r="E36">
-        <v>0.73707781299999997</v>
+        <v>0.66056988429999997</v>
       </c>
       <c r="F36" s="1">
-        <v>0.81864181130000002</v>
+        <v>0.15998860610000001</v>
       </c>
       <c r="G36">
-        <v>0.99508350670000001</v>
+        <v>0.76139037789999997</v>
       </c>
       <c r="H36">
-        <v>0.97609779100000005</v>
+        <v>0.40451629729999999</v>
       </c>
       <c r="I36">
-        <v>0.87825044809999997</v>
+        <v>0.4071094469</v>
       </c>
       <c r="J36">
-        <v>0.93758046399999995</v>
+        <v>0.7317177681</v>
       </c>
       <c r="K36">
-        <v>0.95910563260000004</v>
+        <v>0.41582315920000001</v>
       </c>
       <c r="L36" t="s">
         <v>1</v>
@@ -17517,28 +17503,28 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>5.7133499999999999E-24</v>
+        <v>4.9558599999999997E-5</v>
       </c>
       <c r="E37">
-        <v>0.68167307239999997</v>
+        <v>0.47544811679999999</v>
       </c>
       <c r="F37" s="1">
-        <v>1.0574799999999999E-6</v>
+        <v>9.3303620800000001E-2</v>
       </c>
       <c r="G37">
-        <v>0.63616522590000002</v>
+        <v>0.26888896270000001</v>
       </c>
       <c r="H37">
-        <v>0.57157511839999997</v>
+        <v>0.28890585639999999</v>
       </c>
       <c r="I37">
-        <v>0.78772516820000005</v>
+        <v>0.66988002120000001</v>
       </c>
       <c r="J37">
-        <v>0.60560813260000002</v>
+        <v>0.89077237350000005</v>
       </c>
       <c r="K37">
-        <v>0.53281349180000004</v>
+        <v>0.73256606310000005</v>
       </c>
       <c r="L37" t="s">
         <v>1</v>
@@ -17547,7 +17533,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18949,7 +18935,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20350,7 +20336,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21751,7 +21737,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23152,7 +23138,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24553,7 +24539,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25954,7 +25940,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27355,7 +27341,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28756,7 +28742,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30157,7 +30143,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31558,7 +31544,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32959,7 +32945,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34360,7 +34346,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35761,7 +35747,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBDCD5A-EED9-4CBF-BFE7-4BE6F5567911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4AB216-0C82-4565-A9B8-523AB78BD5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="17">
   <si>
     <t>.</t>
   </si>
@@ -201,7 +201,14 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -462,109 +469,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.82285222130000002</c:v>
+                  <c:v>0.82281915309999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81495445170000003</c:v>
+                  <c:v>0.81170549609999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54587938120000001</c:v>
+                  <c:v>0.54479471049999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2017277369999999</c:v>
+                  <c:v>1.203267131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63135592460000001</c:v>
+                  <c:v>0.63106360839999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47784321149999998</c:v>
+                  <c:v>0.47771985649999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54876015209999995</c:v>
+                  <c:v>0.54876158610000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73756721530000002</c:v>
+                  <c:v>0.73757136999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84045151129999995</c:v>
+                  <c:v>0.84105171369999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72226374059999998</c:v>
+                  <c:v>0.7221298236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6630921676</c:v>
+                  <c:v>0.66327477909999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81510535309999999</c:v>
+                  <c:v>0.81521203060000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98343283640000001</c:v>
+                  <c:v>0.98030349350000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.54295208110000004</c:v>
+                  <c:v>0.54295724670000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83856033009999997</c:v>
+                  <c:v>0.83898817439999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83145315799999997</c:v>
+                  <c:v>0.83044533799999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81003978489999995</c:v>
+                  <c:v>0.80932395899999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67782712879999996</c:v>
+                  <c:v>0.67993289899999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2384948908</c:v>
+                  <c:v>0.23683722909999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91980627599999998</c:v>
+                  <c:v>-0.77614693320000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.45740040300000001</c:v>
+                  <c:v>0.45718292830000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.664490083</c:v>
+                  <c:v>1.6644618710000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88060152179999995</c:v>
+                  <c:v>0.88081272030000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.59138494450000001</c:v>
+                  <c:v>0.59141797780000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9232678983</c:v>
+                  <c:v>0.70385313670000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.70203404589999996</c:v>
+                  <c:v>0.70295816010000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83148584069999998</c:v>
+                  <c:v>0.83147521560000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.44009586550000002</c:v>
+                  <c:v>0.43991317790000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91620090799999998</c:v>
+                  <c:v>0.91577450419999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2524375210000001</c:v>
+                  <c:v>1.252442643</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56258009789999996</c:v>
+                  <c:v>0.56258332710000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.48874332469999998</c:v>
+                  <c:v>0.48875546930000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.71572139040000005</c:v>
+                  <c:v>0.7138865486</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66056988429999997</c:v>
+                  <c:v>0.66094182160000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47544811679999999</c:v>
+                  <c:v>0.47319655510000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.82285222130000002</v>
+        <v>0.59312705219999995</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2122,7 +2129,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3522,7 +3529,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4923,7 +4930,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,7 +6331,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7725,7 +7732,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9126,7 +9133,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10527,7 +10534,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11929,7 +11936,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13330,7 +13337,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14731,7 +14738,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16132,7 +16139,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37 M3">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16143,18 +16150,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813320CE-017C-4161-A97E-2BD98EB674E5}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -16187,7 +16194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -16200,7 +16207,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16211,16 +16218,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4.9393500000000001E-5</v>
+        <v>4.9930099999999998E-5</v>
       </c>
       <c r="E3">
-        <v>0.82285222130000002</v>
+        <v>0.82281915309999998</v>
       </c>
       <c r="F3" s="1">
-        <v>2.8495165499999999E-2</v>
+        <v>2.8597177299999998E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>8.1668199999999998E-19</v>
+        <v>8.6108799999999997E-19</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -16235,10 +16242,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16249,16 +16262,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.81991492229999996</v>
+        <v>0.81246368329999996</v>
       </c>
       <c r="E4">
-        <v>0.81495445170000003</v>
+        <v>0.81170549609999998</v>
       </c>
       <c r="F4" s="1">
-        <v>0.89161888639999998</v>
+        <v>0.88766331840000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.1685317915</v>
+        <v>0.15411654120000001</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -16273,10 +16286,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16287,16 +16306,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.18720135369999999</v>
+        <v>0.187042969</v>
       </c>
       <c r="E5">
-        <v>0.54587938120000001</v>
+        <v>0.54479471049999995</v>
       </c>
       <c r="F5" s="1">
-        <v>0.54802776040000001</v>
+        <v>0.54849837720000005</v>
       </c>
       <c r="G5" s="1">
-        <v>8.5323999999999995E-12</v>
+        <v>9.2381900000000006E-12</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -16311,10 +16330,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16325,16 +16350,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.86812336629999998</v>
+        <v>0.87250246590000002</v>
       </c>
       <c r="E6">
-        <v>1.2017277369999999</v>
+        <v>1.203267131</v>
       </c>
       <c r="F6" s="1">
-        <v>0.29856324350000002</v>
+        <v>0.29939935950000002</v>
       </c>
       <c r="G6" s="1">
-        <v>3.1612299999999999E-19</v>
+        <v>3.7170800000000001E-19</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -16349,10 +16374,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16363,16 +16394,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.53580514499999998</v>
+        <v>0.53365959370000005</v>
       </c>
       <c r="E7">
-        <v>0.63135592460000001</v>
+        <v>0.63106360839999998</v>
       </c>
       <c r="F7" s="1">
-        <v>0.7263345765</v>
+        <v>0.72509029820000004</v>
       </c>
       <c r="G7" s="1">
-        <v>1.4270330000000001E-4</v>
+        <v>1.3201120000000001E-4</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -16387,10 +16418,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16401,16 +16438,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>4.8738006200000003E-2</v>
+        <v>4.6508220000000003E-2</v>
       </c>
       <c r="E8">
-        <v>0.47784321149999998</v>
+        <v>0.47771985649999998</v>
       </c>
       <c r="F8" s="1">
-        <v>0.40691436869999997</v>
+        <v>0.4022729042</v>
       </c>
       <c r="G8" s="1">
-        <v>6.04831E-11</v>
+        <v>3.8912799999999999E-11</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -16425,10 +16462,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16439,16 +16482,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>8.0648310000000002E-4</v>
+        <v>8.0615109999999999E-4</v>
       </c>
       <c r="E9">
-        <v>0.54876015209999995</v>
+        <v>0.54876158610000003</v>
       </c>
       <c r="F9" s="1">
-        <v>0.13910885749999999</v>
+        <v>0.13909476209999999</v>
       </c>
       <c r="G9" s="1">
-        <v>6.7338500000000005E-10</v>
+        <v>6.7243699999999998E-10</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -16463,10 +16506,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16477,19 +16526,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>3.0514259999999999E-4</v>
+        <v>3.0504669999999997E-4</v>
       </c>
       <c r="E10">
-        <v>0.73756721530000002</v>
+        <v>0.73757136999999995</v>
       </c>
       <c r="F10" s="1">
-        <v>6.2998586199999998E-2</v>
+        <v>6.2991781999999996E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>6.2614999999999996E-5</v>
+        <v>6.2580699999999995E-5</v>
       </c>
       <c r="H10">
-        <v>0.36011474409999999</v>
+        <v>0.36009378539999998</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -16501,10 +16550,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16515,19 +16570,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0210168999999999E-3</v>
+        <v>2.0466769999999998E-3</v>
       </c>
       <c r="E11">
-        <v>0.84045151129999995</v>
+        <v>0.84105171369999998</v>
       </c>
       <c r="F11" s="1">
-        <v>8.3703807300000002E-2</v>
+        <v>8.4039644199999999E-2</v>
       </c>
       <c r="G11">
-        <v>0.96019628469999996</v>
+        <v>0.95969523680000002</v>
       </c>
       <c r="H11">
-        <v>0.44154796600000001</v>
+        <v>0.44140067119999998</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -16539,10 +16594,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16553,19 +16614,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.1523816607</v>
+        <v>0.1523912019</v>
       </c>
       <c r="E12">
-        <v>0.72226374059999998</v>
+        <v>0.7221298236</v>
       </c>
       <c r="F12" s="1">
-        <v>0.45561621839999999</v>
+        <v>0.45566667789999998</v>
       </c>
       <c r="G12">
-        <v>0.92808013050000004</v>
+        <v>0.92806060180000005</v>
       </c>
       <c r="H12">
-        <v>0.58753058680000003</v>
+        <v>0.58747977439999999</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -16577,10 +16638,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16591,19 +16658,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>6.4799904500000005E-2</v>
+        <v>6.8693398399999994E-2</v>
       </c>
       <c r="E13">
-        <v>0.6630921676</v>
+        <v>0.66327477909999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.24924726920000001</v>
+        <v>0.25586294209999999</v>
       </c>
       <c r="G13">
-        <v>0.74602682549999999</v>
+        <v>0.74946032169999999</v>
       </c>
       <c r="H13">
-        <v>0.25354919539999998</v>
+        <v>0.26032659460000002</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -16615,10 +16682,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16629,19 +16702,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>0.63574287100000004</v>
+        <v>0.63103489970000004</v>
       </c>
       <c r="E14">
-        <v>0.81510535309999999</v>
+        <v>0.81521203060000003</v>
       </c>
       <c r="F14" s="1">
-        <v>0.41849244390000001</v>
+        <v>0.41275348579999999</v>
       </c>
       <c r="G14" s="1">
-        <v>0.62667170750000001</v>
+        <v>0.62239560890000001</v>
       </c>
       <c r="H14">
-        <v>0.24181743089999999</v>
+        <v>0.23606943859999999</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -16653,10 +16726,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16667,19 +16746,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>0.75350689039999996</v>
+        <v>0.757337767</v>
       </c>
       <c r="E15">
-        <v>0.98343283640000001</v>
+        <v>0.98030349350000001</v>
       </c>
       <c r="F15" s="1">
-        <v>0.65490990989999998</v>
+        <v>0.66522429390000004</v>
       </c>
       <c r="G15">
-        <v>0.85378694600000005</v>
+        <v>0.85503689940000005</v>
       </c>
       <c r="H15">
-        <v>0.1441538815</v>
+        <v>0.15280306199999999</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -16691,10 +16770,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16705,19 +16790,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>3.2500699999999999E-5</v>
+        <v>3.2474700000000003E-5</v>
       </c>
       <c r="E16">
-        <v>0.54295208110000004</v>
+        <v>0.54295724670000001</v>
       </c>
       <c r="F16" s="1">
-        <v>6.1453579299999998E-2</v>
+        <v>6.1440486199999998E-2</v>
       </c>
       <c r="G16">
-        <v>0.27934293650000003</v>
+        <v>0.27931491069999997</v>
       </c>
       <c r="H16">
-        <v>0.19161376490000001</v>
+        <v>0.1915893088</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -16729,10 +16814,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -16743,22 +16834,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>9.6553487999999996E-3</v>
+        <v>9.6666419999999996E-3</v>
       </c>
       <c r="E17">
-        <v>0.83856033009999997</v>
+        <v>0.83898817439999995</v>
       </c>
       <c r="F17" s="1">
-        <v>0.15896676100000001</v>
+        <v>0.15891443050000001</v>
       </c>
       <c r="G17" s="1">
-        <v>3.76157E-5</v>
+        <v>3.6819800000000003E-5</v>
       </c>
       <c r="H17">
-        <v>0.33236449270000001</v>
+        <v>0.33185289159999998</v>
       </c>
       <c r="I17" s="1">
-        <v>0.60458684460000001</v>
+        <v>0.60415449880000005</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -16767,10 +16858,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -16781,22 +16878,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>9.7067716000000005E-3</v>
+        <v>9.2098739999999998E-3</v>
       </c>
       <c r="E18">
-        <v>0.83145315799999997</v>
+        <v>0.83044533799999998</v>
       </c>
       <c r="F18" s="1">
-        <v>0.18469557919999999</v>
+        <v>0.1815118312</v>
       </c>
       <c r="G18">
-        <v>0.82726428080000003</v>
+        <v>0.82561676760000002</v>
       </c>
       <c r="H18">
-        <v>0.51366122069999998</v>
+        <v>0.51168014029999997</v>
       </c>
       <c r="I18" s="1">
-        <v>0.75239680919999996</v>
+        <v>0.75098927959999995</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -16805,10 +16902,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -16819,22 +16922,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.56345065770000002</v>
+        <v>0.55789237700000005</v>
       </c>
       <c r="E19">
-        <v>0.81003978489999995</v>
+        <v>0.80932395899999998</v>
       </c>
       <c r="F19" s="1">
-        <v>0.2245454154</v>
+        <v>0.22298494730000001</v>
       </c>
       <c r="G19">
-        <v>0.61421070929999999</v>
+        <v>0.61287885180000001</v>
       </c>
       <c r="H19">
-        <v>0.34316861809999999</v>
+        <v>0.33973040399999999</v>
       </c>
       <c r="I19">
-        <v>0.5813170942</v>
+        <v>0.57973764149999996</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -16843,10 +16946,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -16857,22 +16966,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.95233390419999997</v>
+        <v>0.96540484390000003</v>
       </c>
       <c r="E20">
-        <v>0.67782712879999996</v>
+        <v>0.67993289899999998</v>
       </c>
       <c r="F20" s="1">
-        <v>0.81701059659999997</v>
+        <v>0.81861368599999995</v>
       </c>
       <c r="G20">
-        <v>0.90438867460000005</v>
+        <v>0.90628515119999997</v>
       </c>
       <c r="H20">
-        <v>0.15620605579999999</v>
+        <v>0.16304909209999999</v>
       </c>
       <c r="I20">
-        <v>0.83453314410000001</v>
+        <v>0.83700555779999997</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -16881,10 +16990,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -16895,22 +17010,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>0.58939382009999997</v>
+        <v>0.5777353797</v>
       </c>
       <c r="E21">
-        <v>0.2384948908</v>
+        <v>0.23683722909999999</v>
       </c>
       <c r="F21" s="1">
-        <v>0.87021833309999996</v>
+        <v>0.86479422679999995</v>
       </c>
       <c r="G21">
-        <v>0.52100133150000005</v>
+        <v>0.5007285829</v>
       </c>
       <c r="H21">
-        <v>7.5476922700000004E-2</v>
+        <v>6.2131584099999998E-2</v>
       </c>
       <c r="I21">
-        <v>0.36153601270000002</v>
+        <v>0.33788921490000001</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -16919,10 +17034,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -16933,22 +17054,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>0.52493811749999997</v>
+        <v>0.82849307689999996</v>
       </c>
       <c r="E22">
-        <v>0.91980627599999998</v>
+        <v>-0.77614693320000006</v>
       </c>
       <c r="F22" s="1">
-        <v>0.3727326567</v>
+        <v>0.40553775240000001</v>
       </c>
       <c r="G22">
-        <v>0.74834405680000005</v>
+        <v>1.28269226E-2</v>
       </c>
       <c r="H22">
-        <v>0.92681629580000002</v>
+        <v>0.29881969310000001</v>
       </c>
       <c r="I22">
-        <v>0.54465253250000001</v>
+        <v>8.0034230299999995E-2</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -16957,10 +17078,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -16971,22 +17098,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>4.3941400000000003E-6</v>
+        <v>4.5429899999999997E-6</v>
       </c>
       <c r="E23">
-        <v>0.45740040300000001</v>
+        <v>0.45718292830000001</v>
       </c>
       <c r="F23" s="1">
-        <v>5.5305076799999998E-2</v>
+        <v>5.5755499200000003E-2</v>
       </c>
       <c r="G23">
-        <v>0.2602351021</v>
+        <v>0.26119654060000003</v>
       </c>
       <c r="H23">
-        <v>0.21428433059999999</v>
+        <v>0.21511596350000001</v>
       </c>
       <c r="I23">
-        <v>0.80953739790000001</v>
+        <v>0.80998784079999997</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -16995,10 +17122,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -17009,34 +17142,40 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0.24405694089999999</v>
+        <v>0.2438588629</v>
       </c>
       <c r="E24">
-        <v>1.664490083</v>
+        <v>1.6644618710000001</v>
       </c>
       <c r="F24" s="1">
-        <v>0.33736243339999999</v>
+        <v>0.33716548969999999</v>
       </c>
       <c r="G24">
-        <v>2.57534E-5</v>
+        <v>2.5560900000000001E-5</v>
       </c>
       <c r="H24">
-        <v>0.38757762820000002</v>
+        <v>0.38738036050000002</v>
       </c>
       <c r="I24" s="1">
-        <v>0.46318304900000001</v>
+        <v>0.46299486400000001</v>
       </c>
       <c r="J24">
-        <v>0.48873435059999998</v>
+        <v>0.48855176500000003</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -17047,34 +17186,40 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>2.54807739E-2</v>
+        <v>2.5590847100000001E-2</v>
       </c>
       <c r="E25">
-        <v>0.88060152179999995</v>
+        <v>0.88081272030000002</v>
       </c>
       <c r="F25" s="1">
-        <v>0.17772068060000001</v>
+        <v>0.1779727878</v>
       </c>
       <c r="G25">
-        <v>0.9118373917</v>
+        <v>0.91178702349999996</v>
       </c>
       <c r="H25">
-        <v>0.44605035939999998</v>
+        <v>0.44630379240000001</v>
       </c>
       <c r="I25">
-        <v>0.98171149710000005</v>
+        <v>0.98167736520000004</v>
       </c>
       <c r="J25">
-        <v>0.56755115609999995</v>
+        <v>0.56771820650000004</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -17085,34 +17230,40 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.36347065249999999</v>
+        <v>0.38108194620000002</v>
       </c>
       <c r="E26">
-        <v>0.59138494450000001</v>
+        <v>0.59141797780000005</v>
       </c>
       <c r="F26" s="1">
-        <v>0.76106232200000001</v>
+        <v>0.76943707670000006</v>
       </c>
       <c r="G26">
-        <v>0.85657161530000003</v>
+        <v>0.86171164180000004</v>
       </c>
       <c r="H26">
-        <v>0.2602993891</v>
+        <v>0.27792046050000002</v>
       </c>
       <c r="I26">
-        <v>0.73413104480000002</v>
+        <v>0.74341805589999999</v>
       </c>
       <c r="J26">
-        <v>0.93449942100000005</v>
+        <v>0.93687286410000004</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -17123,34 +17274,40 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1.6243948300000002E-2</v>
+        <v>0.53624863759999997</v>
       </c>
       <c r="E27">
-        <v>0.9232678983</v>
+        <v>0.70385313670000005</v>
       </c>
       <c r="F27" s="1">
-        <v>0.17924292720000001</v>
+        <v>0.76265594260000003</v>
       </c>
       <c r="G27">
-        <v>0.91960223819999998</v>
+        <v>0.93183249280000002</v>
       </c>
       <c r="H27">
-        <v>0.94653639170000003</v>
+        <v>0.76381683190000005</v>
       </c>
       <c r="I27">
-        <v>0.91624900610000004</v>
+        <v>0.91078522439999998</v>
       </c>
       <c r="J27">
-        <v>0.92538720919999995</v>
+        <v>0.97335355130000001</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -17161,34 +17318,40 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>0.94128437789999997</v>
+        <v>0.93618466850000004</v>
       </c>
       <c r="E28">
-        <v>0.70203404589999996</v>
+        <v>0.70295816010000001</v>
       </c>
       <c r="F28" s="1">
-        <v>0.96854723860000003</v>
+        <v>0.96579895319999998</v>
       </c>
       <c r="G28">
-        <v>0.96458072139999995</v>
+        <v>0.96160995380000003</v>
       </c>
       <c r="H28">
-        <v>0.95506623850000005</v>
+        <v>0.95072608950000004</v>
       </c>
       <c r="I28">
-        <v>0.96268726780000002</v>
+        <v>0.95958575739999996</v>
       </c>
       <c r="J28">
-        <v>0.56675117630000005</v>
+        <v>0.54722286919999996</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -17199,34 +17362,40 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>4.60492443E-2</v>
+        <v>4.6059389700000002E-2</v>
       </c>
       <c r="E29">
-        <v>0.83148584069999998</v>
+        <v>0.83147521560000004</v>
       </c>
       <c r="F29" s="1">
-        <v>0.14702424580000001</v>
+        <v>0.1470496627</v>
       </c>
       <c r="G29">
-        <v>0.57217270229999995</v>
+        <v>0.5721917769</v>
       </c>
       <c r="H29">
-        <v>0.66273209870000005</v>
+        <v>0.66274897779999997</v>
       </c>
       <c r="I29">
-        <v>0.59256894380000003</v>
+        <v>0.59258758830000002</v>
       </c>
       <c r="J29">
-        <v>0.26692233939999999</v>
+        <v>0.26695073819999998</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -17237,34 +17406,40 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>3.86094E-6</v>
+        <v>3.94221E-6</v>
       </c>
       <c r="E30">
-        <v>0.44009586550000002</v>
+        <v>0.43991317790000001</v>
       </c>
       <c r="F30" s="1">
-        <v>5.8800255799999999E-2</v>
+        <v>5.9111857800000001E-2</v>
       </c>
       <c r="G30">
-        <v>0.23676890610000001</v>
+        <v>0.23740804569999999</v>
       </c>
       <c r="H30">
-        <v>0.31836147510000001</v>
+        <v>0.31887032840000001</v>
       </c>
       <c r="I30">
-        <v>0.76726428449999995</v>
+        <v>0.76770521469999997</v>
       </c>
       <c r="J30">
-        <v>0.98246963509999996</v>
+        <v>0.98270022909999999</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -17275,34 +17450,40 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>5.4082104700000001E-2</v>
+        <v>5.3672383499999997E-2</v>
       </c>
       <c r="E31">
-        <v>0.91620090799999998</v>
+        <v>0.91577450419999995</v>
       </c>
       <c r="F31" s="1">
-        <v>0.26188879819999999</v>
+        <v>0.26121728399999999</v>
       </c>
       <c r="G31">
-        <v>7.2698600000000002E-5</v>
+        <v>7.2142499999999996E-5</v>
       </c>
       <c r="H31">
-        <v>0.52895249190000004</v>
+        <v>0.52890589880000005</v>
       </c>
       <c r="I31" s="1">
-        <v>0.65529791179999997</v>
+        <v>0.65527166780000001</v>
       </c>
       <c r="J31">
-        <v>0.44098066190000001</v>
+        <v>0.44049131800000002</v>
       </c>
       <c r="K31">
-        <v>0.65582265849999999</v>
+        <v>0.65530773980000001</v>
       </c>
       <c r="L31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -17313,34 +17494,40 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.16839498689999999</v>
+        <v>0.1683899831</v>
       </c>
       <c r="E32">
-        <v>1.2524375210000001</v>
+        <v>1.252442643</v>
       </c>
       <c r="F32" s="1">
-        <v>0.30690863769999999</v>
+        <v>0.30690174219999999</v>
       </c>
       <c r="G32">
-        <v>0.66949245859999995</v>
+        <v>0.66948966489999995</v>
       </c>
       <c r="H32">
-        <v>0.55142506540000003</v>
+        <v>0.55142120240000003</v>
       </c>
       <c r="I32">
-        <v>0.75357494739999997</v>
+        <v>0.75357237379999997</v>
       </c>
       <c r="J32">
-        <v>0.80799202029999995</v>
+        <v>0.80798933989999999</v>
       </c>
       <c r="K32">
-        <v>0.64379628069999995</v>
+        <v>0.64379266810000002</v>
       </c>
       <c r="L32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -17351,34 +17538,40 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>1.5045758500000001E-2</v>
+        <v>1.50499217E-2</v>
       </c>
       <c r="E33">
-        <v>0.56258009789999996</v>
+        <v>0.56258332710000003</v>
       </c>
       <c r="F33" s="1">
-        <v>0.65043930809999995</v>
+        <v>0.65045222810000003</v>
       </c>
       <c r="G33">
-        <v>0.72976036740000005</v>
+        <v>0.72977484120000002</v>
       </c>
       <c r="H33">
-        <v>0.31958726679999999</v>
+        <v>0.31960998530000001</v>
       </c>
       <c r="I33">
-        <v>0.31282658159999999</v>
+        <v>0.31285381270000001</v>
       </c>
       <c r="J33">
-        <v>0.90917030170000002</v>
+        <v>0.90917614550000003</v>
       </c>
       <c r="K33">
-        <v>0.87899635750000005</v>
+        <v>0.87900053190000005</v>
       </c>
       <c r="L33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -17389,34 +17582,40 @@
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>1.4923201400000001E-2</v>
+        <v>1.49389746E-2</v>
       </c>
       <c r="E34">
-        <v>0.48874332469999998</v>
+        <v>0.48875546930000002</v>
       </c>
       <c r="F34" s="1">
-        <v>0.59391154440000005</v>
+        <v>0.59394768720000002</v>
       </c>
       <c r="G34">
-        <v>0.75435812179999995</v>
+        <v>0.7543901918</v>
       </c>
       <c r="H34">
-        <v>0.85477542569999998</v>
+        <v>0.85479251329999995</v>
       </c>
       <c r="I34">
-        <v>0.74591304989999996</v>
+        <v>0.74594309069999998</v>
       </c>
       <c r="J34">
-        <v>0.74520338890000004</v>
+        <v>0.7452328963</v>
       </c>
       <c r="K34">
-        <v>0.88272618020000004</v>
+        <v>0.88274609719999997</v>
       </c>
       <c r="L34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -17427,34 +17626,40 @@
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>0.2448861987</v>
+        <v>0.2387813375</v>
       </c>
       <c r="E35">
-        <v>0.71572139040000005</v>
+        <v>0.7138865486</v>
       </c>
       <c r="F35" s="1">
-        <v>0.2722246774</v>
+        <v>0.26901281649999997</v>
       </c>
       <c r="G35">
-        <v>0.64198084079999995</v>
+        <v>0.63720711610000003</v>
       </c>
       <c r="H35">
-        <v>0.8359425828</v>
+        <v>0.83351294929999997</v>
       </c>
       <c r="I35">
-        <v>0.72927013750000003</v>
+        <v>0.72666258900000003</v>
       </c>
       <c r="J35">
-        <v>0.72773657810000003</v>
+        <v>0.72385016290000004</v>
       </c>
       <c r="K35">
-        <v>0.82467110089999995</v>
+        <v>0.82186211730000003</v>
       </c>
       <c r="L35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -17465,34 +17670,40 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>5.9683412200000001E-2</v>
+        <v>5.3769825600000001E-2</v>
       </c>
       <c r="E36">
-        <v>0.66056988429999997</v>
+        <v>0.66094182160000003</v>
       </c>
       <c r="F36" s="1">
-        <v>0.15998860610000001</v>
+        <v>0.15475230200000001</v>
       </c>
       <c r="G36">
-        <v>0.76139037789999997</v>
+        <v>0.75875037729999995</v>
       </c>
       <c r="H36">
-        <v>0.40451629729999999</v>
+        <v>0.39904387730000002</v>
       </c>
       <c r="I36">
-        <v>0.4071094469</v>
+        <v>0.40118181200000003</v>
       </c>
       <c r="J36">
-        <v>0.7317177681</v>
+        <v>0.7285609059</v>
       </c>
       <c r="K36">
-        <v>0.41582315920000001</v>
+        <v>0.40985851220000002</v>
       </c>
       <c r="L36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -17503,37 +17714,659 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>4.9558599999999997E-5</v>
+        <v>6.1567099999999995E-5</v>
       </c>
       <c r="E37">
-        <v>0.47544811679999999</v>
+        <v>0.47319655510000003</v>
       </c>
       <c r="F37" s="1">
-        <v>9.3303620800000001E-2</v>
+        <v>9.86194554E-2</v>
       </c>
       <c r="G37">
-        <v>0.26888896270000001</v>
+        <v>0.27582353059999998</v>
       </c>
       <c r="H37">
-        <v>0.28890585639999999</v>
+        <v>0.29576107629999998</v>
       </c>
       <c r="I37">
-        <v>0.66988002120000001</v>
+        <v>0.67773941240000002</v>
       </c>
       <c r="J37">
-        <v>0.89077237350000005</v>
+        <v>0.89333788979999995</v>
       </c>
       <c r="K37">
-        <v>0.73256606310000005</v>
+        <v>0.74102313519999996</v>
       </c>
       <c r="L37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1.2016345499999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.3781941955</v>
+      </c>
+      <c r="F38">
+        <v>0.11840457679999999</v>
+      </c>
+      <c r="G38">
+        <v>0.146277141</v>
+      </c>
+      <c r="H38">
+        <v>0.7512532019</v>
+      </c>
+      <c r="I38">
+        <v>0.75132049239999998</v>
+      </c>
+      <c r="J38">
+        <v>0.3615417514</v>
+      </c>
+      <c r="K38">
+        <v>0.83211897930000001</v>
+      </c>
+      <c r="L38">
+        <v>0.2599449546</v>
+      </c>
+      <c r="M38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.3784255587</v>
+      </c>
+      <c r="E39">
+        <v>1.193248442</v>
+      </c>
+      <c r="F39">
+        <v>0.45603789560000002</v>
+      </c>
+      <c r="G39">
+        <v>0.9910232229</v>
+      </c>
+      <c r="H39">
+        <v>0.27929106799999998</v>
+      </c>
+      <c r="I39">
+        <v>0.94480187879999999</v>
+      </c>
+      <c r="J39">
+        <v>0.96169046859999996</v>
+      </c>
+      <c r="K39">
+        <v>0.83386932940000003</v>
+      </c>
+      <c r="L39">
+        <v>0.56966968070000001</v>
+      </c>
+      <c r="M39" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0.2289139208</v>
+      </c>
+      <c r="E40">
+        <v>0.96101882149999995</v>
+      </c>
+      <c r="F40">
+        <v>0.3836149962</v>
+      </c>
+      <c r="G40">
+        <v>0.85927180680000004</v>
+      </c>
+      <c r="H40">
+        <v>0.97620151570000002</v>
+      </c>
+      <c r="I40">
+        <v>0.5538755702</v>
+      </c>
+      <c r="J40">
+        <v>0.69978459810000004</v>
+      </c>
+      <c r="K40">
+        <v>0.99755702489999998</v>
+      </c>
+      <c r="L40">
+        <v>0.43605902949999997</v>
+      </c>
+      <c r="M40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>8.2371965000000005E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.9530484293</v>
+      </c>
+      <c r="F41">
+        <v>0.2486005224</v>
+      </c>
+      <c r="G41">
+        <v>0.56766418370000005</v>
+      </c>
+      <c r="H41">
+        <v>0.86247034079999996</v>
+      </c>
+      <c r="I41">
+        <v>0.62629346450000001</v>
+      </c>
+      <c r="J41">
+        <v>0.30651542459999997</v>
+      </c>
+      <c r="K41">
+        <v>0.86983978669999995</v>
+      </c>
+      <c r="L41">
+        <v>0.47773759139999999</v>
+      </c>
+      <c r="M41" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>0.26917346019999999</v>
+      </c>
+      <c r="E42">
+        <v>0.87842313080000001</v>
+      </c>
+      <c r="F42">
+        <v>0.45787826929999997</v>
+      </c>
+      <c r="G42">
+        <v>0.84724012189999998</v>
+      </c>
+      <c r="H42">
+        <v>0.46452018270000001</v>
+      </c>
+      <c r="I42">
+        <v>0.57808430990000004</v>
+      </c>
+      <c r="J42">
+        <v>0.66696162619999999</v>
+      </c>
+      <c r="K42">
+        <v>0.58427741879999995</v>
+      </c>
+      <c r="L42">
+        <v>0.54708375629999995</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5.9089173600000003E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.73068803770000001</v>
+      </c>
+      <c r="F43">
+        <v>0.30427059319999999</v>
+      </c>
+      <c r="G43">
+        <v>0.54857127299999997</v>
+      </c>
+      <c r="H43">
+        <v>0.41566583219999997</v>
+      </c>
+      <c r="I43">
+        <v>0.57627135760000003</v>
+      </c>
+      <c r="J43">
+        <v>0.73712429329999996</v>
+      </c>
+      <c r="K43">
+        <v>0.47860842149999999</v>
+      </c>
+      <c r="L43">
+        <v>0.70844711390000004</v>
+      </c>
+      <c r="M43" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>7.1306240000000001E-4</v>
+      </c>
+      <c r="E44">
+        <v>0.43273788880000003</v>
+      </c>
+      <c r="F44">
+        <v>0.18893181370000001</v>
+      </c>
+      <c r="G44">
+        <v>0.26879667889999997</v>
+      </c>
+      <c r="H44">
+        <v>0.3193536099</v>
+      </c>
+      <c r="I44">
+        <v>0.6013155563</v>
+      </c>
+      <c r="J44">
+        <v>0.93392805270000001</v>
+      </c>
+      <c r="K44">
+        <v>0.65647430210000002</v>
+      </c>
+      <c r="L44">
+        <v>0.73446238620000004</v>
+      </c>
+      <c r="M44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.9963500000000005E-7</v>
+      </c>
+      <c r="E45">
+        <v>0.63893176330000001</v>
+      </c>
+      <c r="F45">
+        <v>3.3868348499999999E-2</v>
+      </c>
+      <c r="G45">
+        <v>2.5325804000000001E-3</v>
+      </c>
+      <c r="H45">
+        <v>0.82414428849999999</v>
+      </c>
+      <c r="I45">
+        <v>0.7328542576</v>
+      </c>
+      <c r="J45">
+        <v>0.34453979159999998</v>
+      </c>
+      <c r="K45">
+        <v>0.81669783880000002</v>
+      </c>
+      <c r="L45">
+        <v>0.20499384849999999</v>
+      </c>
+      <c r="M45">
+        <v>0.17554868209999999</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2.311898E-4</v>
+      </c>
+      <c r="E46">
+        <v>0.61597745319999997</v>
+      </c>
+      <c r="F46">
+        <v>9.9959587399999994E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.29443563509999998</v>
+      </c>
+      <c r="H46">
+        <v>0.65739593799999996</v>
+      </c>
+      <c r="I46">
+        <v>0.74725605819999996</v>
+      </c>
+      <c r="J46">
+        <v>0.45199056209999999</v>
+      </c>
+      <c r="K46">
+        <v>0.92503464790000001</v>
+      </c>
+      <c r="L46">
+        <v>0.2469441195</v>
+      </c>
+      <c r="M46">
+        <v>0.1668433839</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8.0666E-6</v>
+      </c>
+      <c r="E47">
+        <v>0.59312705219999995</v>
+      </c>
+      <c r="F47">
+        <v>4.2047598999999998E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.30012581960000001</v>
+      </c>
+      <c r="H47">
+        <v>0.9097897385</v>
+      </c>
+      <c r="I47">
+        <v>0.84463155590000005</v>
+      </c>
+      <c r="J47">
+        <v>0.32171366829999998</v>
+      </c>
+      <c r="K47">
+        <v>0.92712459400000002</v>
+      </c>
+      <c r="L47">
+        <v>0.202243174</v>
+      </c>
+      <c r="M47">
+        <v>8.30306725E-2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.48066E-6</v>
+      </c>
+      <c r="E48">
+        <v>0.41373146490000001</v>
+      </c>
+      <c r="F48">
+        <v>0.1610601381</v>
+      </c>
+      <c r="G48">
+        <v>0.25300807139999998</v>
+      </c>
+      <c r="H48">
+        <v>0.4264575223</v>
+      </c>
+      <c r="I48">
+        <v>0.5867272013</v>
+      </c>
+      <c r="J48">
+        <v>0.83634056940000001</v>
+      </c>
+      <c r="K48">
+        <v>0.99923131600000004</v>
+      </c>
+      <c r="L48">
+        <v>0.43410015969999999</v>
+      </c>
+      <c r="M48">
+        <v>0.16006672150000001</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>2.0907189900000001E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.77337056390000003</v>
+      </c>
+      <c r="F49">
+        <v>0.23764658280000001</v>
+      </c>
+      <c r="G49">
+        <v>0.56514152169999998</v>
+      </c>
+      <c r="H49">
+        <v>0.38946295510000001</v>
+      </c>
+      <c r="I49">
+        <v>0.82988720719999998</v>
+      </c>
+      <c r="J49">
+        <v>0.4816563244</v>
+      </c>
+      <c r="K49">
+        <v>0.38991511600000001</v>
+      </c>
+      <c r="L49">
+        <v>0.2379570255</v>
+      </c>
+      <c r="M49">
+        <v>0.32542270280000002</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>3.1291703999999998E-3</v>
+      </c>
+      <c r="E50">
+        <v>0.4086714286</v>
+      </c>
+      <c r="F50">
+        <v>0.36427649369999998</v>
+      </c>
+      <c r="G50">
+        <v>0.30228905319999999</v>
+      </c>
+      <c r="H50">
+        <v>0.3225864363</v>
+      </c>
+      <c r="I50">
+        <v>0.88673483090000005</v>
+      </c>
+      <c r="J50">
+        <v>0.61535107789999999</v>
+      </c>
+      <c r="K50">
+        <v>0.2345998909</v>
+      </c>
+      <c r="L50">
+        <v>0.63481771210000004</v>
+      </c>
+      <c r="M50">
+        <v>0.23428120869999999</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>0.84635958980000003</v>
+      </c>
+      <c r="E51">
+        <v>0.1177237481</v>
+      </c>
+      <c r="F51">
+        <v>0.97665790590000001</v>
+      </c>
+      <c r="G51">
+        <v>0.21732833400000001</v>
+      </c>
+      <c r="H51">
+        <v>0.36978532079999998</v>
+      </c>
+      <c r="I51">
+        <v>0.99152735219999999</v>
+      </c>
+      <c r="J51">
+        <v>0.73029770689999995</v>
+      </c>
+      <c r="K51">
+        <v>0.90870660299999995</v>
+      </c>
+      <c r="L51">
+        <v>0.83551724490000001</v>
+      </c>
+      <c r="M51">
+        <v>0.83573080040000003</v>
+      </c>
+      <c r="N51" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G3:M51">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18935,7 +19768,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20336,7 +21169,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21737,7 +22570,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23138,7 +23971,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24539,7 +25372,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25940,7 +26773,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27341,7 +28174,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28742,7 +29575,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30143,7 +30976,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31544,7 +32377,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32945,7 +33778,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34346,7 +35179,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35747,7 +36580,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4AB216-0C82-4565-A9B8-523AB78BD5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8989C10-3160-4E0F-A601-DD8957263C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -201,14 +201,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -469,109 +462,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.82281915309999998</c:v>
+                  <c:v>0.17559133790000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81170549609999998</c:v>
+                  <c:v>-0.28796649819999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54479471049999995</c:v>
+                  <c:v>-9.7090510899999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.203267131</c:v>
+                  <c:v>1.1379697259999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63106360839999998</c:v>
+                  <c:v>0.13184749900000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47771985649999998</c:v>
+                  <c:v>-0.7720889272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54876158610000003</c:v>
+                  <c:v>0.1161056907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73757136999999995</c:v>
+                  <c:v>9.9609115299999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84105171369999998</c:v>
+                  <c:v>1.7326106599999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7221298236</c:v>
+                  <c:v>3.5411240980000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66327477909999999</c:v>
+                  <c:v>0.65197109760000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81521203060000003</c:v>
+                  <c:v>-8.7227886000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98030349350000001</c:v>
+                  <c:v>3.6487898800000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.54295724670000001</c:v>
+                  <c:v>0.19946801080000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83898817439999995</c:v>
+                  <c:v>5.77539091E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83044533799999998</c:v>
+                  <c:v>5.3236825199999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80932395899999998</c:v>
+                  <c:v>0.83656729090000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67993289899999998</c:v>
+                  <c:v>0.43524643590000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23683722909999999</c:v>
+                  <c:v>4.0455806400000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.77614693320000006</c:v>
+                  <c:v>1.762612E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.45718292830000001</c:v>
+                  <c:v>0.26761948079999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6644618710000001</c:v>
+                  <c:v>0.1515459955</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88081272030000002</c:v>
+                  <c:v>0.18106578640000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.59141797780000005</c:v>
+                  <c:v>9.9552060600000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.70385313670000005</c:v>
+                  <c:v>0.47000190330000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.70295816010000001</c:v>
+                  <c:v>-0.14003090469999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83147521560000004</c:v>
+                  <c:v>-0.13292407849999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43991317790000001</c:v>
+                  <c:v>0.21489009640000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91577450419999995</c:v>
+                  <c:v>0.25921404739999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.252442643</c:v>
+                  <c:v>0.16938146009999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56258332710000003</c:v>
+                  <c:v>0.2384844062</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.48875546930000002</c:v>
+                  <c:v>0.54120820280000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7138865486</c:v>
+                  <c:v>2.3877293300000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66094182160000003</c:v>
+                  <c:v>0.32964174229999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47319655510000003</c:v>
+                  <c:v>0.37136970390000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.59312705219999995</v>
+        <v>0.1161056907</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,7 +2122,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3529,7 +3522,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4930,7 +4923,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6331,7 +6324,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7732,7 +7725,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9133,7 +9126,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10534,7 +10527,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11936,7 +11929,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13337,7 +13330,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14738,7 +14731,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16139,7 +16132,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37 M3">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16153,10 +16146,10 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16218,16 +16211,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4.9930099999999998E-5</v>
+        <v>8.2532951000000004E-3</v>
       </c>
       <c r="E3">
-        <v>0.82281915309999998</v>
+        <v>0.17559133790000001</v>
       </c>
       <c r="F3" s="1">
-        <v>2.8597177299999998E-2</v>
+        <v>0.61687279110000004</v>
       </c>
       <c r="G3" s="1">
-        <v>8.6108799999999997E-19</v>
+        <v>3.7387899999999998E-14</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -16262,16 +16255,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.81246368329999996</v>
+        <v>0.43993416149999998</v>
       </c>
       <c r="E4">
-        <v>0.81170549609999998</v>
+        <v>-0.28796649819999998</v>
       </c>
       <c r="F4" s="1">
-        <v>0.88766331840000001</v>
+        <v>0.63269654620000004</v>
       </c>
       <c r="G4" s="1">
-        <v>0.15411654120000001</v>
+        <v>5.8497499999999998E-12</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -16306,16 +16299,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.187042969</v>
+        <v>0.64489411549999998</v>
       </c>
       <c r="E5">
-        <v>0.54479471049999995</v>
+        <v>-9.7090510899999996E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.54849837720000005</v>
+        <v>0.94600921140000005</v>
       </c>
       <c r="G5" s="1">
-        <v>9.2381900000000006E-12</v>
+        <v>5.3425320000000001E-4</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -16350,16 +16343,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.87250246590000002</v>
+        <v>0.93062202019999996</v>
       </c>
       <c r="E6">
-        <v>1.203267131</v>
+        <v>1.1379697259999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.29939935950000002</v>
+        <v>0.1859895235</v>
       </c>
       <c r="G6" s="1">
-        <v>3.7170800000000001E-19</v>
+        <v>2.93388E-18</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -16394,16 +16387,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.53365959370000005</v>
+        <v>0.70959738169999997</v>
       </c>
       <c r="E7">
-        <v>0.63106360839999998</v>
+        <v>0.13184749900000001</v>
       </c>
       <c r="F7" s="1">
-        <v>0.72509029820000004</v>
+        <v>0.95462889210000001</v>
       </c>
       <c r="G7" s="1">
-        <v>1.3201120000000001E-4</v>
+        <v>0.13177130779999999</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -16438,16 +16431,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>4.6508220000000003E-2</v>
+        <v>0.92235975869999998</v>
       </c>
       <c r="E8">
-        <v>0.47771985649999998</v>
+        <v>-0.7720889272</v>
       </c>
       <c r="F8" s="1">
-        <v>0.4022729042</v>
+        <v>0.36417629559999998</v>
       </c>
       <c r="G8" s="1">
-        <v>3.8912799999999999E-11</v>
+        <v>1.13569E-9</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -16482,16 +16475,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>8.0615109999999999E-4</v>
+        <v>0.1196857882</v>
       </c>
       <c r="E9">
-        <v>0.54876158610000003</v>
+        <v>0.1161056907</v>
       </c>
       <c r="F9" s="1">
-        <v>0.13909476209999999</v>
+        <v>0.83643350380000003</v>
       </c>
       <c r="G9" s="1">
-        <v>6.7243699999999998E-10</v>
+        <v>2.223901E-4</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -16526,19 +16519,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>3.0504669999999997E-4</v>
+        <v>9.6624000000000005E-4</v>
       </c>
       <c r="E10">
-        <v>0.73757136999999995</v>
+        <v>9.9609115299999995E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>6.2991781999999996E-2</v>
+        <v>0.64844673750000004</v>
       </c>
       <c r="G10" s="1">
-        <v>6.2580699999999995E-5</v>
+        <v>0.4462837268</v>
       </c>
       <c r="H10">
-        <v>0.36009378539999998</v>
+        <v>0.72104749069999996</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -16570,19 +16563,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0466769999999998E-3</v>
+        <v>0.12669023870000001</v>
       </c>
       <c r="E11">
-        <v>0.84105171369999998</v>
+        <v>1.7326106599999998E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>8.4039644199999999E-2</v>
+        <v>0.97273319179999995</v>
       </c>
       <c r="G11">
-        <v>0.95969523680000002</v>
+        <v>0.57559239640000004</v>
       </c>
       <c r="H11">
-        <v>0.44140067119999998</v>
+        <v>0.424953366</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -16614,19 +16607,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.1523912019</v>
+        <v>0.34389323510000003</v>
       </c>
       <c r="E12">
-        <v>0.7221298236</v>
+        <v>3.5411240980000001</v>
       </c>
       <c r="F12" s="1">
-        <v>0.45566667789999998</v>
+        <v>0.43001937499999998</v>
       </c>
       <c r="G12">
-        <v>0.92806060180000005</v>
+        <v>8.5414775999999998E-3</v>
       </c>
       <c r="H12">
-        <v>0.58747977439999999</v>
+        <v>0.28350146549999999</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -16658,19 +16651,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>6.8693398399999994E-2</v>
+        <v>5.6291482400000002E-2</v>
       </c>
       <c r="E13">
-        <v>0.66327477909999999</v>
+        <v>0.65197109760000005</v>
       </c>
       <c r="F13" s="1">
-        <v>0.25586294209999999</v>
+        <v>0.15307235550000001</v>
       </c>
       <c r="G13">
-        <v>0.74946032169999999</v>
+        <v>0.65609183059999998</v>
       </c>
       <c r="H13">
-        <v>0.26032659460000002</v>
+        <v>0.15120129500000001</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -16702,19 +16695,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>0.63103489970000004</v>
+        <v>0.90208030989999999</v>
       </c>
       <c r="E14">
-        <v>0.81521203060000003</v>
+        <v>-8.7227886000000004E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>0.41275348579999999</v>
+        <v>0.99373945509999995</v>
       </c>
       <c r="G14" s="1">
-        <v>0.62239560890000001</v>
+        <v>0.87266998969999998</v>
       </c>
       <c r="H14">
-        <v>0.23606943859999999</v>
+        <v>0.90149305189999995</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -16746,19 +16739,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>0.757337767</v>
+        <v>0.73757051780000005</v>
       </c>
       <c r="E15">
-        <v>0.98030349350000001</v>
+        <v>3.6487898800000002E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>0.66522429390000004</v>
+        <v>0.98804239849999997</v>
       </c>
       <c r="G15">
-        <v>0.85503689940000005</v>
+        <v>0.7679160746</v>
       </c>
       <c r="H15">
-        <v>0.15280306199999999</v>
+        <v>0.4601908656</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -16790,19 +16783,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>3.2474700000000003E-5</v>
+        <v>0.32549242909999998</v>
       </c>
       <c r="E16">
-        <v>0.54295724670000001</v>
+        <v>0.19946801080000001</v>
       </c>
       <c r="F16" s="1">
-        <v>6.1440486199999998E-2</v>
+        <v>0.83622841449999996</v>
       </c>
       <c r="G16">
-        <v>0.27931491069999997</v>
+        <v>0.65081737910000004</v>
       </c>
       <c r="H16">
-        <v>0.1915893088</v>
+        <v>0.1242219524</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -16834,22 +16827,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>9.6666419999999996E-3</v>
+        <v>4.3843318000000003E-3</v>
       </c>
       <c r="E17">
-        <v>0.83898817439999995</v>
+        <v>5.77539091E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>0.15891443050000001</v>
+        <v>0.8375053737</v>
       </c>
       <c r="G17" s="1">
-        <v>3.6819800000000003E-5</v>
+        <v>9.7316211599999994E-2</v>
       </c>
       <c r="H17">
-        <v>0.33185289159999998</v>
+        <v>0.7144317093</v>
       </c>
       <c r="I17" s="1">
-        <v>0.60415449880000005</v>
+        <v>0.58313416060000001</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -16878,22 +16871,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>9.2098739999999998E-3</v>
+        <v>2.9740495799999999E-2</v>
       </c>
       <c r="E18">
-        <v>0.83044533799999998</v>
+        <v>5.3236825199999997E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>0.1815118312</v>
+        <v>0.88265749760000001</v>
       </c>
       <c r="G18">
-        <v>0.82561676760000002</v>
+        <v>0.80199354060000005</v>
       </c>
       <c r="H18">
-        <v>0.51168014029999997</v>
+        <v>0.76168599930000003</v>
       </c>
       <c r="I18" s="1">
-        <v>0.75098927959999995</v>
+        <v>0.1412612057</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -16922,22 +16915,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.55789237700000005</v>
+        <v>2.74418214E-2</v>
       </c>
       <c r="E19">
-        <v>0.80932395899999998</v>
+        <v>0.83656729090000004</v>
       </c>
       <c r="F19" s="1">
-        <v>0.22298494730000001</v>
+        <v>0.22111874749999999</v>
       </c>
       <c r="G19">
-        <v>0.61287885180000001</v>
+        <v>0.94706994109999998</v>
       </c>
       <c r="H19">
-        <v>0.33973040399999999</v>
+        <v>0.64695662809999999</v>
       </c>
       <c r="I19">
-        <v>0.57973764149999996</v>
+        <v>0.27094886689999997</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -16966,22 +16959,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.96540484390000003</v>
+        <v>0.1129189228</v>
       </c>
       <c r="E20">
-        <v>0.67993289899999998</v>
+        <v>0.43524643590000001</v>
       </c>
       <c r="F20" s="1">
-        <v>0.81861368599999995</v>
+        <v>0.36369695229999999</v>
       </c>
       <c r="G20">
-        <v>0.90628515119999997</v>
+        <v>0.97790676460000003</v>
       </c>
       <c r="H20">
-        <v>0.16304909209999999</v>
+        <v>0.1278854478</v>
       </c>
       <c r="I20">
-        <v>0.83700555779999997</v>
+        <v>0.84786582180000003</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -17010,22 +17003,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>0.5777353797</v>
+        <v>0.76552455480000003</v>
       </c>
       <c r="E21">
-        <v>0.23683722909999999</v>
+        <v>4.0455806400000002E-2</v>
       </c>
       <c r="F21" s="1">
-        <v>0.86479422679999995</v>
+        <v>0.9895327505</v>
       </c>
       <c r="G21">
-        <v>0.5007285829</v>
+        <v>0.62313084080000003</v>
       </c>
       <c r="H21">
-        <v>6.2131584099999998E-2</v>
+        <v>0.62743863249999998</v>
       </c>
       <c r="I21">
-        <v>0.33788921490000001</v>
+        <v>0.80608877489999997</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -17054,22 +17047,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>0.82849307689999996</v>
+        <v>0.4595768845</v>
       </c>
       <c r="E22">
-        <v>-0.77614693320000006</v>
+        <v>1.762612E-4</v>
       </c>
       <c r="F22" s="1">
-        <v>0.40553775240000001</v>
+        <v>0.99985894610000003</v>
       </c>
       <c r="G22">
-        <v>1.28269226E-2</v>
+        <v>0.4080098801</v>
       </c>
       <c r="H22">
-        <v>0.29881969310000001</v>
+        <v>0.32656945469999998</v>
       </c>
       <c r="I22">
-        <v>8.0034230299999995E-2</v>
+        <v>0.59584638580000004</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -17098,22 +17091,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>4.5429899999999997E-6</v>
+        <v>0.1036485045</v>
       </c>
       <c r="E23">
-        <v>0.45718292830000001</v>
+        <v>0.26761948079999998</v>
       </c>
       <c r="F23" s="1">
-        <v>5.5755499200000003E-2</v>
+        <v>0.67177256330000001</v>
       </c>
       <c r="G23">
-        <v>0.26119654060000003</v>
+        <v>0.40578821129999998</v>
       </c>
       <c r="H23">
-        <v>0.21511596350000001</v>
+        <v>0.1673109102</v>
       </c>
       <c r="I23">
-        <v>0.80998784079999997</v>
+        <v>0.49806663109999999</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -17142,25 +17135,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0.2438588629</v>
+        <v>2.34712649E-2</v>
       </c>
       <c r="E24">
-        <v>1.6644618710000001</v>
+        <v>0.1515459955</v>
       </c>
       <c r="F24" s="1">
-        <v>0.33716548969999999</v>
+        <v>0.37638965299999999</v>
       </c>
       <c r="G24">
-        <v>2.5560900000000001E-5</v>
+        <v>0.49047952589999999</v>
       </c>
       <c r="H24">
-        <v>0.38738036050000002</v>
+        <v>0.47673428309999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.46299486400000001</v>
+        <v>0.35385544190000001</v>
       </c>
       <c r="J24">
-        <v>0.48855176500000003</v>
+        <v>0.26580948739999999</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
@@ -17186,25 +17179,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>2.5590847100000001E-2</v>
+        <v>1.499246E-4</v>
       </c>
       <c r="E25">
-        <v>0.88081272030000002</v>
+        <v>0.18106578640000001</v>
       </c>
       <c r="F25" s="1">
-        <v>0.1779727878</v>
+        <v>0.34949175869999999</v>
       </c>
       <c r="G25">
-        <v>0.91178702349999996</v>
+        <v>0.50878613070000001</v>
       </c>
       <c r="H25">
-        <v>0.44630379240000001</v>
+        <v>0.54580515699999999</v>
       </c>
       <c r="I25">
-        <v>0.98167736520000004</v>
+        <v>0.76770547330000005</v>
       </c>
       <c r="J25">
-        <v>0.56771820650000004</v>
+        <v>0.30034405559999999</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
@@ -17230,25 +17223,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.38108194620000002</v>
+        <v>6.3932208300000001E-2</v>
       </c>
       <c r="E26">
-        <v>0.59141797780000005</v>
+        <v>9.9552060600000006E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>0.76943707670000006</v>
+        <v>0.77351050430000001</v>
       </c>
       <c r="G26">
-        <v>0.86171164180000004</v>
+        <v>0.53472298409999997</v>
       </c>
       <c r="H26">
-        <v>0.27792046050000002</v>
+        <v>0.42905298489999999</v>
       </c>
       <c r="I26">
-        <v>0.74341805589999999</v>
+        <v>0.58156747860000002</v>
       </c>
       <c r="J26">
-        <v>0.93687286410000004</v>
+        <v>0.46275521269999997</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
@@ -17274,25 +17267,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.53624863759999997</v>
+        <v>0.66713319729999998</v>
       </c>
       <c r="E27">
-        <v>0.70385313670000005</v>
+        <v>0.47000190330000002</v>
       </c>
       <c r="F27" s="1">
-        <v>0.76265594260000003</v>
+        <v>0.3747136264</v>
       </c>
       <c r="G27">
-        <v>0.93183249280000002</v>
+        <v>0.95573224759999997</v>
       </c>
       <c r="H27">
-        <v>0.76381683190000005</v>
+        <v>0.1162466696</v>
       </c>
       <c r="I27">
-        <v>0.91078522439999998</v>
+        <v>0.81140108349999995</v>
       </c>
       <c r="J27">
-        <v>0.97335355130000001</v>
+        <v>0.7493536663</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -17318,25 +17311,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>0.93618466850000004</v>
+        <v>0.42763147810000002</v>
       </c>
       <c r="E28">
-        <v>0.70295816010000001</v>
+        <v>-0.14003090469999999</v>
       </c>
       <c r="F28" s="1">
-        <v>0.96579895319999998</v>
+        <v>0.85380810799999995</v>
       </c>
       <c r="G28">
-        <v>0.96160995380000003</v>
+        <v>0.40506851570000002</v>
       </c>
       <c r="H28">
-        <v>0.95072608950000004</v>
+        <v>9.5078480699999995E-2</v>
       </c>
       <c r="I28">
-        <v>0.95958575739999996</v>
+        <v>0.65420124030000004</v>
       </c>
       <c r="J28">
-        <v>0.54722286919999996</v>
+        <v>0.64467987490000001</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
@@ -17362,25 +17355,25 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>4.6059389700000002E-2</v>
+        <v>0.7005821109</v>
       </c>
       <c r="E29">
-        <v>0.83147521560000004</v>
+        <v>-0.13292407849999999</v>
       </c>
       <c r="F29" s="1">
-        <v>0.1470496627</v>
+        <v>0.93097066699999997</v>
       </c>
       <c r="G29">
-        <v>0.5721917769</v>
+        <v>0.40112365370000003</v>
       </c>
       <c r="H29">
-        <v>0.66274897779999997</v>
+        <v>0.61309540179999999</v>
       </c>
       <c r="I29">
-        <v>0.59258758830000002</v>
+        <v>0.66149849250000003</v>
       </c>
       <c r="J29">
-        <v>0.26695073819999998</v>
+        <v>0.61375776329999998</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
@@ -17406,25 +17399,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>3.94221E-6</v>
+        <v>0.2229476427</v>
       </c>
       <c r="E30">
-        <v>0.43991317790000001</v>
+        <v>0.21489009640000001</v>
       </c>
       <c r="F30" s="1">
-        <v>5.9111857800000001E-2</v>
+        <v>0.79814425349999996</v>
       </c>
       <c r="G30">
-        <v>0.23740804569999999</v>
+        <v>0.62561474269999995</v>
       </c>
       <c r="H30">
-        <v>0.31887032840000001</v>
+        <v>0.57050011649999999</v>
       </c>
       <c r="I30">
-        <v>0.76770521469999997</v>
+        <v>0.65859045780000003</v>
       </c>
       <c r="J30">
-        <v>0.98270022909999999</v>
+        <v>0.84662956649999999</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
@@ -17450,28 +17443,28 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>5.3672383499999997E-2</v>
+        <v>4.723436E-4</v>
       </c>
       <c r="E31">
-        <v>0.91577450419999995</v>
+        <v>0.25921404739999998</v>
       </c>
       <c r="F31" s="1">
-        <v>0.26121728399999999</v>
+        <v>0.40919354429999999</v>
       </c>
       <c r="G31">
-        <v>7.2142499999999996E-5</v>
+        <v>0.35972014530000002</v>
       </c>
       <c r="H31">
-        <v>0.52890589880000005</v>
+        <v>0.78657038820000003</v>
       </c>
       <c r="I31" s="1">
-        <v>0.65527166780000001</v>
+        <v>0.35832370450000001</v>
       </c>
       <c r="J31">
-        <v>0.44049131800000002</v>
+        <v>0.42643496009999998</v>
       </c>
       <c r="K31">
-        <v>0.65530773980000001</v>
+        <v>0.19509806839999999</v>
       </c>
       <c r="L31" t="s">
         <v>0</v>
@@ -17494,28 +17487,28 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.1683899831</v>
+        <v>5.4397100000000001E-5</v>
       </c>
       <c r="E32">
-        <v>1.252442643</v>
+        <v>0.16938146009999999</v>
       </c>
       <c r="F32" s="1">
-        <v>0.30690174219999999</v>
+        <v>0.31784089360000001</v>
       </c>
       <c r="G32">
-        <v>0.66948966489999995</v>
+        <v>0.31610971290000001</v>
       </c>
       <c r="H32">
-        <v>0.55142120240000003</v>
+        <v>0.42045865310000002</v>
       </c>
       <c r="I32">
-        <v>0.75357237379999997</v>
+        <v>0.78782673759999999</v>
       </c>
       <c r="J32">
-        <v>0.80798933989999999</v>
+        <v>0.2105279696</v>
       </c>
       <c r="K32">
-        <v>0.64379266810000002</v>
+        <v>0.67609312769999996</v>
       </c>
       <c r="L32" t="s">
         <v>0</v>
@@ -17538,28 +17531,28 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>1.50499217E-2</v>
+        <v>2.4472727000000001E-3</v>
       </c>
       <c r="E33">
-        <v>0.56258332710000003</v>
+        <v>0.2384844062</v>
       </c>
       <c r="F33" s="1">
-        <v>0.65045222810000003</v>
+        <v>0.33777433690000003</v>
       </c>
       <c r="G33">
-        <v>0.72977484120000002</v>
+        <v>0.57068679150000001</v>
       </c>
       <c r="H33">
-        <v>0.31960998530000001</v>
+        <v>0.28478441650000003</v>
       </c>
       <c r="I33">
-        <v>0.31285381270000001</v>
+        <v>0.40892637310000002</v>
       </c>
       <c r="J33">
-        <v>0.90917614550000003</v>
+        <v>0.29125568260000001</v>
       </c>
       <c r="K33">
-        <v>0.87900053190000005</v>
+        <v>0.47933538819999999</v>
       </c>
       <c r="L33" t="s">
         <v>0</v>
@@ -17582,28 +17575,28 @@
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>1.49389746E-2</v>
+        <v>0.15891443029999999</v>
       </c>
       <c r="E34">
-        <v>0.48875546930000002</v>
+        <v>0.54120820280000004</v>
       </c>
       <c r="F34" s="1">
-        <v>0.59394768720000002</v>
+        <v>0.46497694569999998</v>
       </c>
       <c r="G34">
-        <v>0.7543901918</v>
+        <v>0.80021682009999995</v>
       </c>
       <c r="H34">
-        <v>0.85479251329999995</v>
+        <v>4.0647941E-2</v>
       </c>
       <c r="I34">
-        <v>0.74594309069999998</v>
+        <v>0.99110040529999999</v>
       </c>
       <c r="J34">
-        <v>0.7452328963</v>
+        <v>0.85538616649999999</v>
       </c>
       <c r="K34">
-        <v>0.88274609719999997</v>
+        <v>0.69704687649999997</v>
       </c>
       <c r="L34" t="s">
         <v>0</v>
@@ -17626,28 +17619,28 @@
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>0.2387813375</v>
+        <v>0.45520720110000001</v>
       </c>
       <c r="E35">
-        <v>0.7138865486</v>
+        <v>2.3877293300000001E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>0.26901281649999997</v>
+        <v>0.98095781039999996</v>
       </c>
       <c r="G35">
-        <v>0.63720711610000003</v>
+        <v>0.48147175759999999</v>
       </c>
       <c r="H35">
-        <v>0.83351294929999997</v>
+        <v>0.16659282410000001</v>
       </c>
       <c r="I35">
-        <v>0.72666258900000003</v>
+        <v>0.69424511580000003</v>
       </c>
       <c r="J35">
-        <v>0.72385016290000004</v>
+        <v>0.95150456549999995</v>
       </c>
       <c r="K35">
-        <v>0.82186211730000003</v>
+        <v>0.77895392109999995</v>
       </c>
       <c r="L35" t="s">
         <v>0</v>
@@ -17670,28 +17663,28 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>5.3769825600000001E-2</v>
+        <v>0.63848940769999996</v>
       </c>
       <c r="E36">
-        <v>0.66094182160000003</v>
+        <v>0.32964174229999998</v>
       </c>
       <c r="F36" s="1">
-        <v>0.15475230200000001</v>
+        <v>0.88261217879999998</v>
       </c>
       <c r="G36">
-        <v>0.75875037729999995</v>
+        <v>0.34432119919999998</v>
       </c>
       <c r="H36">
-        <v>0.39904387730000002</v>
+        <v>0.51404166770000004</v>
       </c>
       <c r="I36">
-        <v>0.40118181200000003</v>
+        <v>0.65497437300000005</v>
       </c>
       <c r="J36">
-        <v>0.7285609059</v>
+        <v>0.95861602189999995</v>
       </c>
       <c r="K36">
-        <v>0.40985851220000002</v>
+        <v>0.77110852789999995</v>
       </c>
       <c r="L36" t="s">
         <v>0</v>
@@ -17714,28 +17707,28 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>6.1567099999999995E-5</v>
+        <v>0.26683982509999998</v>
       </c>
       <c r="E37">
-        <v>0.47319655510000003</v>
+        <v>0.37136970390000001</v>
       </c>
       <c r="F37" s="1">
-        <v>9.86194554E-2</v>
+        <v>0.7127081971</v>
       </c>
       <c r="G37">
-        <v>0.27582353059999998</v>
+        <v>0.59291907420000001</v>
       </c>
       <c r="H37">
-        <v>0.29576107629999998</v>
+        <v>0.3622685712</v>
       </c>
       <c r="I37">
-        <v>0.67773941240000002</v>
+        <v>0.57801967369999996</v>
       </c>
       <c r="J37">
-        <v>0.89333788979999995</v>
+        <v>0.62031571539999997</v>
       </c>
       <c r="K37">
-        <v>0.74102313519999996</v>
+        <v>0.73035092260000001</v>
       </c>
       <c r="L37" t="s">
         <v>0</v>
@@ -17758,31 +17751,31 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1.2016345499999999E-2</v>
+        <v>0.38616218879999997</v>
       </c>
       <c r="E38">
-        <v>0.3781941955</v>
+        <v>-4.1040914599999999E-2</v>
       </c>
       <c r="F38">
-        <v>0.11840457679999999</v>
+        <v>0.9635840417</v>
       </c>
       <c r="G38">
-        <v>0.146277141</v>
+        <v>0.75438968419999997</v>
       </c>
       <c r="H38">
-        <v>0.7512532019</v>
+        <v>0.82614943730000001</v>
       </c>
       <c r="I38">
-        <v>0.75132049239999998</v>
+        <v>0.70312708390000001</v>
       </c>
       <c r="J38">
-        <v>0.3615417514</v>
+        <v>0.85684134599999995</v>
       </c>
       <c r="K38">
-        <v>0.83211897930000001</v>
+        <v>0.77090289430000003</v>
       </c>
       <c r="L38">
-        <v>0.2599449546</v>
+        <v>0.48265892160000001</v>
       </c>
       <c r="M38" t="s">
         <v>0</v>
@@ -17802,31 +17795,31 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.3784255587</v>
+        <v>0.18303806149999999</v>
       </c>
       <c r="E39">
-        <v>1.193248442</v>
+        <v>2.4492267500000001E-2</v>
       </c>
       <c r="F39">
-        <v>0.45603789560000002</v>
+        <v>0.96739369630000005</v>
       </c>
       <c r="G39">
-        <v>0.9910232229</v>
+        <v>0.96973906170000002</v>
       </c>
       <c r="H39">
-        <v>0.27929106799999998</v>
+        <v>0.78498536249999995</v>
       </c>
       <c r="I39">
-        <v>0.94480187879999999</v>
+        <v>0.62597040719999997</v>
       </c>
       <c r="J39">
-        <v>0.96169046859999996</v>
+        <v>0.90181778970000004</v>
       </c>
       <c r="K39">
-        <v>0.83386932940000003</v>
+        <v>0.83327617470000004</v>
       </c>
       <c r="L39">
-        <v>0.56966968070000001</v>
+        <v>0.39208764080000003</v>
       </c>
       <c r="M39" t="s">
         <v>0</v>
@@ -17846,31 +17839,31 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>0.2289139208</v>
+        <v>5.3255074000000003E-3</v>
       </c>
       <c r="E40">
-        <v>0.96101882149999995</v>
+        <v>8.7561789299999998E-2</v>
       </c>
       <c r="F40">
-        <v>0.3836149962</v>
+        <v>0.65992314360000004</v>
       </c>
       <c r="G40">
-        <v>0.85927180680000004</v>
+        <v>0.67891078069999999</v>
       </c>
       <c r="H40">
-        <v>0.97620151570000002</v>
+        <v>0.88147792209999998</v>
       </c>
       <c r="I40">
-        <v>0.5538755702</v>
+        <v>0.57880557929999998</v>
       </c>
       <c r="J40">
-        <v>0.69978459810000004</v>
+        <v>0.28629904579999998</v>
       </c>
       <c r="K40">
-        <v>0.99755702489999998</v>
+        <v>0.91010132239999997</v>
       </c>
       <c r="L40">
-        <v>0.43605902949999997</v>
+        <v>0.18725793639999999</v>
       </c>
       <c r="M40" t="s">
         <v>0</v>
@@ -17890,31 +17883,31 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>8.2371965000000005E-2</v>
+        <v>0.50426172030000005</v>
       </c>
       <c r="E41">
-        <v>0.9530484293</v>
+        <v>0.56028107159999996</v>
       </c>
       <c r="F41">
-        <v>0.2486005224</v>
+        <v>0.60011662539999999</v>
       </c>
       <c r="G41">
-        <v>0.56766418370000005</v>
+        <v>0.81022156050000005</v>
       </c>
       <c r="H41">
-        <v>0.86247034079999996</v>
+        <v>4.1609629299999999E-2</v>
       </c>
       <c r="I41">
-        <v>0.62629346450000001</v>
+        <v>0.95396833560000005</v>
       </c>
       <c r="J41">
-        <v>0.30651542459999997</v>
+        <v>0.73623100239999995</v>
       </c>
       <c r="K41">
-        <v>0.86983978669999995</v>
+        <v>0.67198241459999997</v>
       </c>
       <c r="L41">
-        <v>0.47773759139999999</v>
+        <v>0.96191250080000001</v>
       </c>
       <c r="M41" t="s">
         <v>0</v>
@@ -17934,31 +17927,31 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>0.26917346019999999</v>
+        <v>0.32346137549999998</v>
       </c>
       <c r="E42">
-        <v>0.87842313080000001</v>
+        <v>0.62023463919999999</v>
       </c>
       <c r="F42">
-        <v>0.45787826929999997</v>
+        <v>0.65061950479999997</v>
       </c>
       <c r="G42">
-        <v>0.84724012189999998</v>
+        <v>0.44019173</v>
       </c>
       <c r="H42">
-        <v>0.46452018270000001</v>
+        <v>7.5411089200000003E-2</v>
       </c>
       <c r="I42">
-        <v>0.57808430990000004</v>
+        <v>0.49242337679999998</v>
       </c>
       <c r="J42">
-        <v>0.66696162619999999</v>
+        <v>0.4025204289</v>
       </c>
       <c r="K42">
-        <v>0.58427741879999995</v>
+        <v>0.4580115307</v>
       </c>
       <c r="L42">
-        <v>0.54708375629999995</v>
+        <v>0.88597200700000001</v>
       </c>
       <c r="M42" t="s">
         <v>0</v>
@@ -17978,31 +17971,31 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>5.9089173600000003E-2</v>
+        <v>0.36566196960000003</v>
       </c>
       <c r="E43">
-        <v>0.73068803770000001</v>
+        <v>0.34295176820000001</v>
       </c>
       <c r="F43">
-        <v>0.30427059319999999</v>
+        <v>0.76711284049999995</v>
       </c>
       <c r="G43">
-        <v>0.54857127299999997</v>
+        <v>0.3808029282</v>
       </c>
       <c r="H43">
-        <v>0.41566583219999997</v>
+        <v>0.71082769649999999</v>
       </c>
       <c r="I43">
-        <v>0.57627135760000003</v>
+        <v>0.54147805049999997</v>
       </c>
       <c r="J43">
-        <v>0.73712429329999996</v>
+        <v>0.97290798570000003</v>
       </c>
       <c r="K43">
-        <v>0.47860842149999999</v>
+        <v>0.74411536560000002</v>
       </c>
       <c r="L43">
-        <v>0.70844711390000004</v>
+        <v>0.92191388460000001</v>
       </c>
       <c r="M43" t="s">
         <v>0</v>
@@ -18022,31 +18015,31 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>7.1306240000000001E-4</v>
+        <v>0.2205487928</v>
       </c>
       <c r="E44">
-        <v>0.43273788880000003</v>
+        <v>0.42596299430000001</v>
       </c>
       <c r="F44">
-        <v>0.18893181370000001</v>
+        <v>0.64613060560000002</v>
       </c>
       <c r="G44">
-        <v>0.26879667889999997</v>
+        <v>0.66754710360000002</v>
       </c>
       <c r="H44">
-        <v>0.3193536099</v>
+        <v>0.65946525600000006</v>
       </c>
       <c r="I44">
-        <v>0.6013155563</v>
+        <v>0.49644911470000003</v>
       </c>
       <c r="J44">
-        <v>0.93392805270000001</v>
+        <v>0.90584934159999997</v>
       </c>
       <c r="K44">
-        <v>0.65647430210000002</v>
+        <v>0.68349552690000004</v>
       </c>
       <c r="L44">
-        <v>0.73446238620000004</v>
+        <v>0.89024542100000004</v>
       </c>
       <c r="M44" t="s">
         <v>0</v>
@@ -18066,34 +18059,34 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>8.9963500000000005E-7</v>
+        <v>0.39358905290000001</v>
       </c>
       <c r="E45">
-        <v>0.63893176330000001</v>
+        <v>6.3639778999999994E-2</v>
       </c>
       <c r="F45">
-        <v>3.3868348499999999E-2</v>
+        <v>0.95363719840000005</v>
       </c>
       <c r="G45">
-        <v>2.5325804000000001E-3</v>
+        <v>0.80535890649999997</v>
       </c>
       <c r="H45">
-        <v>0.82414428849999999</v>
+        <v>0.96139373770000003</v>
       </c>
       <c r="I45">
-        <v>0.7328542576</v>
+        <v>0.92595025470000003</v>
       </c>
       <c r="J45">
-        <v>0.34453979159999998</v>
+        <v>0.72845493900000002</v>
       </c>
       <c r="K45">
-        <v>0.81669783880000002</v>
+        <v>0.98074860909999995</v>
       </c>
       <c r="L45">
-        <v>0.20499384849999999</v>
+        <v>0.84198936469999996</v>
       </c>
       <c r="M45">
-        <v>0.17554868209999999</v>
+        <v>0.46003824459999998</v>
       </c>
       <c r="N45" t="s">
         <v>1</v>
@@ -18110,34 +18103,34 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>2.311898E-4</v>
+        <v>7.8036849500000005E-2</v>
       </c>
       <c r="E46">
-        <v>0.61597745319999997</v>
+        <v>1.1034319640000001</v>
       </c>
       <c r="F46">
-        <v>9.9959587399999994E-2</v>
+        <v>0.27145821149999999</v>
       </c>
       <c r="G46">
-        <v>0.29443563509999998</v>
+        <v>0.40294982219999997</v>
       </c>
       <c r="H46">
-        <v>0.65739593799999996</v>
+        <v>0.24053617229999999</v>
       </c>
       <c r="I46">
-        <v>0.74725605819999996</v>
+        <v>0.532939312</v>
       </c>
       <c r="J46">
-        <v>0.45199056209999999</v>
+        <v>0.4007318882</v>
       </c>
       <c r="K46">
-        <v>0.92503464790000001</v>
+        <v>0.55445596669999997</v>
       </c>
       <c r="L46">
-        <v>0.2469441195</v>
+        <v>0.34493059510000001</v>
       </c>
       <c r="M46">
-        <v>0.1668433839</v>
+        <v>0.38794568369999999</v>
       </c>
       <c r="N46" t="s">
         <v>1</v>
@@ -18154,34 +18147,34 @@
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>8.0666E-6</v>
+        <v>1.9076678000000001E-3</v>
       </c>
       <c r="E47">
-        <v>0.59312705219999995</v>
+        <v>0.50635840860000003</v>
       </c>
       <c r="F47">
-        <v>4.2047598999999998E-2</v>
+        <v>0.1885709354</v>
       </c>
       <c r="G47">
-        <v>0.30012581960000001</v>
+        <v>0.63403211869999998</v>
       </c>
       <c r="H47">
-        <v>0.9097897385</v>
+        <v>0.24076052710000001</v>
       </c>
       <c r="I47">
-        <v>0.84463155590000005</v>
+        <v>0.94110106950000005</v>
       </c>
       <c r="J47">
-        <v>0.32171366829999998</v>
+        <v>0.2150389036</v>
       </c>
       <c r="K47">
-        <v>0.92712459400000002</v>
+        <v>0.43885733510000002</v>
       </c>
       <c r="L47">
-        <v>0.202243174</v>
+        <v>0.38732942930000003</v>
       </c>
       <c r="M47">
-        <v>8.30306725E-2</v>
+        <v>0.34533307099999999</v>
       </c>
       <c r="N47" t="s">
         <v>1</v>
@@ -18198,34 +18191,34 @@
         <v>3</v>
       </c>
       <c r="D48" s="1">
-        <v>1.48066E-6</v>
+        <v>0.50083627539999998</v>
       </c>
       <c r="E48">
-        <v>0.41373146490000001</v>
+        <v>-0.2483004359</v>
       </c>
       <c r="F48">
-        <v>0.1610601381</v>
+        <v>0.73225598749999998</v>
       </c>
       <c r="G48">
-        <v>0.25300807139999998</v>
+        <v>0.67261364239999999</v>
       </c>
       <c r="H48">
-        <v>0.4264575223</v>
+        <v>0.38145617539999999</v>
       </c>
       <c r="I48">
-        <v>0.5867272013</v>
+        <v>0.90965441920000001</v>
       </c>
       <c r="J48">
-        <v>0.83634056940000001</v>
+        <v>0.34938459389999998</v>
       </c>
       <c r="K48">
-        <v>0.99923131600000004</v>
+        <v>0.50815816000000003</v>
       </c>
       <c r="L48">
-        <v>0.43410015969999999</v>
+        <v>0.64801048049999999</v>
       </c>
       <c r="M48">
-        <v>0.16006672150000001</v>
+        <v>0.68016335139999995</v>
       </c>
       <c r="N48" t="s">
         <v>1</v>
@@ -18242,34 +18235,34 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>2.0907189900000001E-2</v>
+        <v>4.8255523600000003E-2</v>
       </c>
       <c r="E49">
-        <v>0.77337056390000003</v>
+        <v>0.4275046978</v>
       </c>
       <c r="F49">
-        <v>0.23764658280000001</v>
+        <v>0.46886661740000002</v>
       </c>
       <c r="G49">
-        <v>0.56514152169999998</v>
+        <v>0.47328811749999999</v>
       </c>
       <c r="H49">
-        <v>0.38946295510000001</v>
+        <v>4.0263599499999997E-2</v>
       </c>
       <c r="I49">
-        <v>0.82988720719999998</v>
+        <v>0.41952866039999998</v>
       </c>
       <c r="J49">
-        <v>0.4816563244</v>
+        <v>0.46411226309999998</v>
       </c>
       <c r="K49">
-        <v>0.38991511600000001</v>
+        <v>0.27464495319999999</v>
       </c>
       <c r="L49">
-        <v>0.2379570255</v>
+        <v>0.85560097440000005</v>
       </c>
       <c r="M49">
-        <v>0.32542270280000002</v>
+        <v>0.97454860389999998</v>
       </c>
       <c r="N49" t="s">
         <v>1</v>
@@ -18286,34 +18279,34 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>3.1291703999999998E-3</v>
+        <v>9.7158868800000006E-2</v>
       </c>
       <c r="E50">
-        <v>0.4086714286</v>
+        <v>0.32422158629999998</v>
       </c>
       <c r="F50">
-        <v>0.36427649369999998</v>
+        <v>0.57662409910000001</v>
       </c>
       <c r="G50">
-        <v>0.30228905319999999</v>
+        <v>0.53236286109999997</v>
       </c>
       <c r="H50">
-        <v>0.3225864363</v>
+        <v>0.89477396799999998</v>
       </c>
       <c r="I50">
-        <v>0.88673483090000005</v>
+        <v>0.5758993979</v>
       </c>
       <c r="J50">
-        <v>0.61535107789999999</v>
+        <v>0.86038989210000005</v>
       </c>
       <c r="K50">
-        <v>0.2345998909</v>
+        <v>0.68921140169999995</v>
       </c>
       <c r="L50">
-        <v>0.63481771210000004</v>
+        <v>0.78193441450000001</v>
       </c>
       <c r="M50">
-        <v>0.23428120869999999</v>
+        <v>0.81867879759999995</v>
       </c>
       <c r="N50" t="s">
         <v>1</v>
@@ -18330,34 +18323,34 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>0.84635958980000003</v>
+        <v>5.9501451300000001E-2</v>
       </c>
       <c r="E51">
-        <v>0.1177237481</v>
+        <v>0.1144731906</v>
       </c>
       <c r="F51">
-        <v>0.97665790590000001</v>
+        <v>0.79796466210000006</v>
       </c>
       <c r="G51">
-        <v>0.21732833400000001</v>
+        <v>0.65935084830000001</v>
       </c>
       <c r="H51">
-        <v>0.36978532079999998</v>
+        <v>0.52506479559999997</v>
       </c>
       <c r="I51">
-        <v>0.99152735219999999</v>
+        <v>0.4842790669</v>
       </c>
       <c r="J51">
-        <v>0.73029770689999995</v>
+        <v>0.78316301899999996</v>
       </c>
       <c r="K51">
-        <v>0.90870660299999995</v>
+        <v>0.70760415190000003</v>
       </c>
       <c r="L51">
-        <v>0.83551724490000001</v>
+        <v>0.99046425520000003</v>
       </c>
       <c r="M51">
-        <v>0.83573080040000003</v>
+        <v>0.81978761460000005</v>
       </c>
       <c r="N51" t="s">
         <v>1</v>
@@ -18366,7 +18359,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:M51">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19768,7 +19761,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21169,7 +21162,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22570,7 +22563,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23971,7 +23964,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25372,7 +25365,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26773,7 +26766,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28174,7 +28167,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29575,7 +29568,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30976,7 +30969,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32377,7 +32370,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33778,7 +33771,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35179,7 +35172,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36580,7 +36573,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8989C10-3160-4E0F-A601-DD8957263C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FF2FFF-2006-4A04-A89B-BCFBE673299E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
+    <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Result List" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="17">
   <si>
     <t>.</t>
   </si>
@@ -462,109 +462,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.17559133790000001</c:v>
+                  <c:v>0.1378043058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.28796649819999998</c:v>
+                  <c:v>0.3936125204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.7090510899999996E-2</c:v>
+                  <c:v>-0.1592077948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1379697259999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13184749900000001</c:v>
+                  <c:v>0.63920243700000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7720889272</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1161056907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9609115299999995E-2</c:v>
+                  <c:v>0.23738058740000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7326106599999998E-2</c:v>
+                  <c:v>0.20013300959999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5411240980000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65197109760000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.7227886000000004E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6487898800000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19946801080000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.77539091E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3236825199999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83656729090000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.43524643590000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0455806400000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.762612E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26761948079999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1515459955</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.18106578640000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.9552060600000006E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.47000190330000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.14003090469999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.13292407849999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.21489009640000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.25921404739999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.16938146009999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2384844062</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.54120820280000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3877293300000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.32964174229999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.37136970390000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,11 +1645,11 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16145,11 +16145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813320CE-017C-4161-A97E-2BD98EB674E5}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16211,16 +16211,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>8.2532951000000004E-3</v>
+        <v>3.4994099999999998E-18</v>
       </c>
       <c r="E3">
-        <v>0.17559133790000001</v>
+        <v>0.1378043058</v>
       </c>
       <c r="F3" s="1">
-        <v>0.61687279110000004</v>
+        <v>0.34869900739999998</v>
       </c>
       <c r="G3" s="1">
-        <v>3.7387899999999998E-14</v>
+        <v>1.38551E-13</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -16237,8 +16237,8 @@
       <c r="L3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>0</v>
+      <c r="M3">
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>1</v>
@@ -16255,16 +16255,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.43993416149999998</v>
+        <v>9.3678721000000006E-3</v>
       </c>
       <c r="E4">
-        <v>-0.28796649819999998</v>
+        <v>0.3936125204</v>
       </c>
       <c r="F4" s="1">
-        <v>0.63269654620000004</v>
+        <v>0.48471497070000003</v>
       </c>
       <c r="G4" s="1">
-        <v>5.8497499999999998E-12</v>
+        <v>2.86895E-5</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -16281,8 +16281,8 @@
       <c r="L4" t="s">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>0</v>
+      <c r="M4">
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>1</v>
@@ -16299,16 +16299,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.64489411549999998</v>
+        <v>9.0887345800000005E-2</v>
       </c>
       <c r="E5">
-        <v>-9.7090510899999996E-2</v>
+        <v>-0.1592077948</v>
       </c>
       <c r="F5" s="1">
-        <v>0.94600921140000005</v>
+        <v>0.76997646549999998</v>
       </c>
       <c r="G5" s="1">
-        <v>5.3425320000000001E-4</v>
+        <v>4.76057E-15</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -16325,8 +16325,8 @@
       <c r="L5" t="s">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>0</v>
+      <c r="M5">
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>1</v>
@@ -16342,17 +16342,17 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.93062202019999996</v>
-      </c>
-      <c r="E6">
-        <v>1.1379697259999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.1859895235</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.93388E-18</v>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -16387,16 +16387,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.70959738169999997</v>
+        <v>0.2363301246</v>
       </c>
       <c r="E7">
-        <v>0.13184749900000001</v>
+        <v>0.63920243700000001</v>
       </c>
       <c r="F7" s="1">
-        <v>0.95462889210000001</v>
+        <v>0.68897099819999996</v>
       </c>
       <c r="G7" s="1">
-        <v>0.13177130779999999</v>
+        <v>4.2576500000000001E-17</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -16413,8 +16413,8 @@
       <c r="L7" t="s">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>0</v>
+      <c r="M7">
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -16430,17 +16430,17 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.92235975869999998</v>
-      </c>
-      <c r="E8">
-        <v>-0.7720889272</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.36417629559999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.13569E-9</v>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -16474,17 +16474,17 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.1196857882</v>
-      </c>
-      <c r="E9">
-        <v>0.1161056907</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.83643350380000003</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.223901E-4</v>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -16519,19 +16519,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>9.6624000000000005E-4</v>
+        <v>5.2378299999999996E-6</v>
       </c>
       <c r="E10">
-        <v>9.9609115299999995E-2</v>
+        <v>0.23738058740000001</v>
       </c>
       <c r="F10" s="1">
-        <v>0.64844673750000004</v>
+        <v>6.0217360800000001E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.4462837268</v>
+        <v>0.71094659390000003</v>
       </c>
       <c r="H10">
-        <v>0.72104749069999996</v>
+        <v>0.87850591700000003</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -16545,8 +16545,8 @@
       <c r="L10" t="s">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>0</v>
+      <c r="M10">
+        <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>1</v>
@@ -16563,19 +16563,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.12669023870000001</v>
+        <v>0.60822343749999996</v>
       </c>
       <c r="E11">
-        <v>1.7326106599999998E-2</v>
+        <v>0.20013300959999999</v>
       </c>
       <c r="F11" s="1">
-        <v>0.97273319179999995</v>
+        <v>5.58440968E-2</v>
       </c>
       <c r="G11">
-        <v>0.57559239640000004</v>
+        <v>0.81772940869999999</v>
       </c>
       <c r="H11">
-        <v>0.424953366</v>
+        <v>0.3840339579</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -16589,8 +16589,8 @@
       <c r="L11" t="s">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>0</v>
+      <c r="M11">
+        <v>1</v>
       </c>
       <c r="N11" t="s">
         <v>1</v>
@@ -16606,20 +16606,20 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>0.34389323510000003</v>
-      </c>
-      <c r="E12">
-        <v>3.5411240980000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.43001937499999998</v>
-      </c>
-      <c r="G12">
-        <v>8.5414775999999998E-3</v>
-      </c>
-      <c r="H12">
-        <v>0.28350146549999999</v>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -16650,20 +16650,20 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>5.6291482400000002E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.65197109760000005</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.15307235550000001</v>
-      </c>
-      <c r="G13">
-        <v>0.65609183059999998</v>
-      </c>
-      <c r="H13">
-        <v>0.15120129500000001</v>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -16694,20 +16694,20 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.90208030989999999</v>
-      </c>
-      <c r="E14">
-        <v>-8.7227886000000004E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.99373945509999995</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.87266998969999998</v>
-      </c>
-      <c r="H14">
-        <v>0.90149305189999995</v>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -16738,20 +16738,20 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.73757051780000005</v>
-      </c>
-      <c r="E15">
-        <v>3.6487898800000002E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.98804239849999997</v>
-      </c>
-      <c r="G15">
-        <v>0.7679160746</v>
-      </c>
-      <c r="H15">
-        <v>0.4601908656</v>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -16782,20 +16782,20 @@
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.32549242909999998</v>
-      </c>
-      <c r="E16">
-        <v>0.19946801080000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.83622841449999996</v>
-      </c>
-      <c r="G16">
-        <v>0.65081737910000004</v>
-      </c>
-      <c r="H16">
-        <v>0.1242219524</v>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -16826,23 +16826,23 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
-        <v>4.3843318000000003E-3</v>
-      </c>
-      <c r="E17">
-        <v>5.77539091E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.8375053737</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9.7316211599999994E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.7144317093</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.58313416060000001</v>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -16870,23 +16870,23 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
-        <v>2.9740495799999999E-2</v>
-      </c>
-      <c r="E18">
-        <v>5.3236825199999997E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.88265749760000001</v>
-      </c>
-      <c r="G18">
-        <v>0.80199354060000005</v>
-      </c>
-      <c r="H18">
-        <v>0.76168599930000003</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.1412612057</v>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -16914,23 +16914,23 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
-        <v>2.74418214E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.83656729090000004</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.22111874749999999</v>
-      </c>
-      <c r="G19">
-        <v>0.94706994109999998</v>
-      </c>
-      <c r="H19">
-        <v>0.64695662809999999</v>
-      </c>
-      <c r="I19">
-        <v>0.27094886689999997</v>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -16958,23 +16958,23 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>0.1129189228</v>
-      </c>
-      <c r="E20">
-        <v>0.43524643590000001</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.36369695229999999</v>
-      </c>
-      <c r="G20">
-        <v>0.97790676460000003</v>
-      </c>
-      <c r="H20">
-        <v>0.1278854478</v>
-      </c>
-      <c r="I20">
-        <v>0.84786582180000003</v>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -17002,23 +17002,23 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.76552455480000003</v>
-      </c>
-      <c r="E21">
-        <v>4.0455806400000002E-2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.9895327505</v>
-      </c>
-      <c r="G21">
-        <v>0.62313084080000003</v>
-      </c>
-      <c r="H21">
-        <v>0.62743863249999998</v>
-      </c>
-      <c r="I21">
-        <v>0.80608877489999997</v>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -17046,23 +17046,23 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.4595768845</v>
-      </c>
-      <c r="E22">
-        <v>1.762612E-4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.99985894610000003</v>
-      </c>
-      <c r="G22">
-        <v>0.4080098801</v>
-      </c>
-      <c r="H22">
-        <v>0.32656945469999998</v>
-      </c>
-      <c r="I22">
-        <v>0.59584638580000004</v>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -17090,23 +17090,23 @@
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" s="1">
-        <v>0.1036485045</v>
-      </c>
-      <c r="E23">
-        <v>0.26761948079999998</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.67177256330000001</v>
-      </c>
-      <c r="G23">
-        <v>0.40578821129999998</v>
-      </c>
-      <c r="H23">
-        <v>0.1673109102</v>
-      </c>
-      <c r="I23">
-        <v>0.49806663109999999</v>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -17134,26 +17134,26 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>2.34712649E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.1515459955</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.37638965299999999</v>
-      </c>
-      <c r="G24">
-        <v>0.49047952589999999</v>
-      </c>
-      <c r="H24">
-        <v>0.47673428309999999</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.35385544190000001</v>
-      </c>
-      <c r="J24">
-        <v>0.26580948739999999</v>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
@@ -17178,26 +17178,26 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
-        <v>1.499246E-4</v>
-      </c>
-      <c r="E25">
-        <v>0.18106578640000001</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.34949175869999999</v>
-      </c>
-      <c r="G25">
-        <v>0.50878613070000001</v>
-      </c>
-      <c r="H25">
-        <v>0.54580515699999999</v>
-      </c>
-      <c r="I25">
-        <v>0.76770547330000005</v>
-      </c>
-      <c r="J25">
-        <v>0.30034405559999999</v>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
@@ -17222,26 +17222,26 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="1">
-        <v>6.3932208300000001E-2</v>
-      </c>
-      <c r="E26">
-        <v>9.9552060600000006E-2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.77351050430000001</v>
-      </c>
-      <c r="G26">
-        <v>0.53472298409999997</v>
-      </c>
-      <c r="H26">
-        <v>0.42905298489999999</v>
-      </c>
-      <c r="I26">
-        <v>0.58156747860000002</v>
-      </c>
-      <c r="J26">
-        <v>0.46275521269999997</v>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>0</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
@@ -17266,26 +17266,26 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
-        <v>0.66713319729999998</v>
-      </c>
-      <c r="E27">
-        <v>0.47000190330000002</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.3747136264</v>
-      </c>
-      <c r="G27">
-        <v>0.95573224759999997</v>
-      </c>
-      <c r="H27">
-        <v>0.1162466696</v>
-      </c>
-      <c r="I27">
-        <v>0.81140108349999995</v>
-      </c>
-      <c r="J27">
-        <v>0.7493536663</v>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -17310,26 +17310,26 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
-        <v>0.42763147810000002</v>
-      </c>
-      <c r="E28">
-        <v>-0.14003090469999999</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.85380810799999995</v>
-      </c>
-      <c r="G28">
-        <v>0.40506851570000002</v>
-      </c>
-      <c r="H28">
-        <v>9.5078480699999995E-2</v>
-      </c>
-      <c r="I28">
-        <v>0.65420124030000004</v>
-      </c>
-      <c r="J28">
-        <v>0.64467987490000001</v>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
@@ -17354,26 +17354,26 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.7005821109</v>
-      </c>
-      <c r="E29">
-        <v>-0.13292407849999999</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.93097066699999997</v>
-      </c>
-      <c r="G29">
-        <v>0.40112365370000003</v>
-      </c>
-      <c r="H29">
-        <v>0.61309540179999999</v>
-      </c>
-      <c r="I29">
-        <v>0.66149849250000003</v>
-      </c>
-      <c r="J29">
-        <v>0.61375776329999998</v>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
@@ -17398,26 +17398,26 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" s="1">
-        <v>0.2229476427</v>
-      </c>
-      <c r="E30">
-        <v>0.21489009640000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.79814425349999996</v>
-      </c>
-      <c r="G30">
-        <v>0.62561474269999995</v>
-      </c>
-      <c r="H30">
-        <v>0.57050011649999999</v>
-      </c>
-      <c r="I30">
-        <v>0.65859045780000003</v>
-      </c>
-      <c r="J30">
-        <v>0.84662956649999999</v>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
@@ -17442,29 +17442,29 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="1">
-        <v>4.723436E-4</v>
-      </c>
-      <c r="E31">
-        <v>0.25921404739999998</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.40919354429999999</v>
-      </c>
-      <c r="G31">
-        <v>0.35972014530000002</v>
-      </c>
-      <c r="H31">
-        <v>0.78657038820000003</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.35832370450000001</v>
-      </c>
-      <c r="J31">
-        <v>0.42643496009999998</v>
-      </c>
-      <c r="K31">
-        <v>0.19509806839999999</v>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
       </c>
       <c r="L31" t="s">
         <v>0</v>
@@ -17486,29 +17486,29 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>5.4397100000000001E-5</v>
-      </c>
-      <c r="E32">
-        <v>0.16938146009999999</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.31784089360000001</v>
-      </c>
-      <c r="G32">
-        <v>0.31610971290000001</v>
-      </c>
-      <c r="H32">
-        <v>0.42045865310000002</v>
-      </c>
-      <c r="I32">
-        <v>0.78782673759999999</v>
-      </c>
-      <c r="J32">
-        <v>0.2105279696</v>
-      </c>
-      <c r="K32">
-        <v>0.67609312769999996</v>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
       </c>
       <c r="L32" t="s">
         <v>0</v>
@@ -17530,29 +17530,29 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33">
-        <v>2.4472727000000001E-3</v>
-      </c>
-      <c r="E33">
-        <v>0.2384844062</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.33777433690000003</v>
-      </c>
-      <c r="G33">
-        <v>0.57068679150000001</v>
-      </c>
-      <c r="H33">
-        <v>0.28478441650000003</v>
-      </c>
-      <c r="I33">
-        <v>0.40892637310000002</v>
-      </c>
-      <c r="J33">
-        <v>0.29125568260000001</v>
-      </c>
-      <c r="K33">
-        <v>0.47933538819999999</v>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
       </c>
       <c r="L33" t="s">
         <v>0</v>
@@ -17574,29 +17574,29 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="1">
-        <v>0.15891443029999999</v>
-      </c>
-      <c r="E34">
-        <v>0.54120820280000004</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.46497694569999998</v>
-      </c>
-      <c r="G34">
-        <v>0.80021682009999995</v>
-      </c>
-      <c r="H34">
-        <v>4.0647941E-2</v>
-      </c>
-      <c r="I34">
-        <v>0.99110040529999999</v>
-      </c>
-      <c r="J34">
-        <v>0.85538616649999999</v>
-      </c>
-      <c r="K34">
-        <v>0.69704687649999997</v>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
       </c>
       <c r="L34" t="s">
         <v>0</v>
@@ -17618,29 +17618,29 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="1">
-        <v>0.45520720110000001</v>
-      </c>
-      <c r="E35">
-        <v>2.3877293300000001E-2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.98095781039999996</v>
-      </c>
-      <c r="G35">
-        <v>0.48147175759999999</v>
-      </c>
-      <c r="H35">
-        <v>0.16659282410000001</v>
-      </c>
-      <c r="I35">
-        <v>0.69424511580000003</v>
-      </c>
-      <c r="J35">
-        <v>0.95150456549999995</v>
-      </c>
-      <c r="K35">
-        <v>0.77895392109999995</v>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
       </c>
       <c r="L35" t="s">
         <v>0</v>
@@ -17662,29 +17662,29 @@
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="1">
-        <v>0.63848940769999996</v>
-      </c>
-      <c r="E36">
-        <v>0.32964174229999998</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.88261217879999998</v>
-      </c>
-      <c r="G36">
-        <v>0.34432119919999998</v>
-      </c>
-      <c r="H36">
-        <v>0.51404166770000004</v>
-      </c>
-      <c r="I36">
-        <v>0.65497437300000005</v>
-      </c>
-      <c r="J36">
-        <v>0.95861602189999995</v>
-      </c>
-      <c r="K36">
-        <v>0.77110852789999995</v>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
       </c>
       <c r="L36" t="s">
         <v>0</v>
@@ -17706,29 +17706,29 @@
       <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37" s="1">
-        <v>0.26683982509999998</v>
-      </c>
-      <c r="E37">
-        <v>0.37136970390000001</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.7127081971</v>
-      </c>
-      <c r="G37">
-        <v>0.59291907420000001</v>
-      </c>
-      <c r="H37">
-        <v>0.3622685712</v>
-      </c>
-      <c r="I37">
-        <v>0.57801967369999996</v>
-      </c>
-      <c r="J37">
-        <v>0.62031571539999997</v>
-      </c>
-      <c r="K37">
-        <v>0.73035092260000001</v>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
       </c>
       <c r="L37" t="s">
         <v>0</v>
@@ -17750,32 +17750,32 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>0.38616218879999997</v>
-      </c>
-      <c r="E38">
-        <v>-4.1040914599999999E-2</v>
-      </c>
-      <c r="F38">
-        <v>0.9635840417</v>
-      </c>
-      <c r="G38">
-        <v>0.75438968419999997</v>
-      </c>
-      <c r="H38">
-        <v>0.82614943730000001</v>
-      </c>
-      <c r="I38">
-        <v>0.70312708390000001</v>
-      </c>
-      <c r="J38">
-        <v>0.85684134599999995</v>
-      </c>
-      <c r="K38">
-        <v>0.77090289430000003</v>
-      </c>
-      <c r="L38">
-        <v>0.48265892160000001</v>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>0</v>
       </c>
       <c r="M38" t="s">
         <v>0</v>
@@ -17794,32 +17794,32 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>0.18303806149999999</v>
-      </c>
-      <c r="E39">
-        <v>2.4492267500000001E-2</v>
-      </c>
-      <c r="F39">
-        <v>0.96739369630000005</v>
-      </c>
-      <c r="G39">
-        <v>0.96973906170000002</v>
-      </c>
-      <c r="H39">
-        <v>0.78498536249999995</v>
-      </c>
-      <c r="I39">
-        <v>0.62597040719999997</v>
-      </c>
-      <c r="J39">
-        <v>0.90181778970000004</v>
-      </c>
-      <c r="K39">
-        <v>0.83327617470000004</v>
-      </c>
-      <c r="L39">
-        <v>0.39208764080000003</v>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
       </c>
       <c r="M39" t="s">
         <v>0</v>
@@ -17838,32 +17838,32 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>5.3255074000000003E-3</v>
-      </c>
-      <c r="E40">
-        <v>8.7561789299999998E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.65992314360000004</v>
-      </c>
-      <c r="G40">
-        <v>0.67891078069999999</v>
-      </c>
-      <c r="H40">
-        <v>0.88147792209999998</v>
-      </c>
-      <c r="I40">
-        <v>0.57880557929999998</v>
-      </c>
-      <c r="J40">
-        <v>0.28629904579999998</v>
-      </c>
-      <c r="K40">
-        <v>0.91010132239999997</v>
-      </c>
-      <c r="L40">
-        <v>0.18725793639999999</v>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>0</v>
       </c>
       <c r="M40" t="s">
         <v>0</v>
@@ -17882,32 +17882,32 @@
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41">
-        <v>0.50426172030000005</v>
-      </c>
-      <c r="E41">
-        <v>0.56028107159999996</v>
-      </c>
-      <c r="F41">
-        <v>0.60011662539999999</v>
-      </c>
-      <c r="G41">
-        <v>0.81022156050000005</v>
-      </c>
-      <c r="H41">
-        <v>4.1609629299999999E-2</v>
-      </c>
-      <c r="I41">
-        <v>0.95396833560000005</v>
-      </c>
-      <c r="J41">
-        <v>0.73623100239999995</v>
-      </c>
-      <c r="K41">
-        <v>0.67198241459999997</v>
-      </c>
-      <c r="L41">
-        <v>0.96191250080000001</v>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>0</v>
       </c>
       <c r="M41" t="s">
         <v>0</v>
@@ -17926,32 +17926,32 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>0.32346137549999998</v>
-      </c>
-      <c r="E42">
-        <v>0.62023463919999999</v>
-      </c>
-      <c r="F42">
-        <v>0.65061950479999997</v>
-      </c>
-      <c r="G42">
-        <v>0.44019173</v>
-      </c>
-      <c r="H42">
-        <v>7.5411089200000003E-2</v>
-      </c>
-      <c r="I42">
-        <v>0.49242337679999998</v>
-      </c>
-      <c r="J42">
-        <v>0.4025204289</v>
-      </c>
-      <c r="K42">
-        <v>0.4580115307</v>
-      </c>
-      <c r="L42">
-        <v>0.88597200700000001</v>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>0</v>
       </c>
       <c r="M42" t="s">
         <v>0</v>
@@ -17970,32 +17970,32 @@
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43">
-        <v>0.36566196960000003</v>
-      </c>
-      <c r="E43">
-        <v>0.34295176820000001</v>
-      </c>
-      <c r="F43">
-        <v>0.76711284049999995</v>
-      </c>
-      <c r="G43">
-        <v>0.3808029282</v>
-      </c>
-      <c r="H43">
-        <v>0.71082769649999999</v>
-      </c>
-      <c r="I43">
-        <v>0.54147805049999997</v>
-      </c>
-      <c r="J43">
-        <v>0.97290798570000003</v>
-      </c>
-      <c r="K43">
-        <v>0.74411536560000002</v>
-      </c>
-      <c r="L43">
-        <v>0.92191388460000001</v>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>0</v>
       </c>
       <c r="M43" t="s">
         <v>0</v>
@@ -18014,32 +18014,32 @@
       <c r="C44">
         <v>6</v>
       </c>
-      <c r="D44">
-        <v>0.2205487928</v>
-      </c>
-      <c r="E44">
-        <v>0.42596299430000001</v>
-      </c>
-      <c r="F44">
-        <v>0.64613060560000002</v>
-      </c>
-      <c r="G44">
-        <v>0.66754710360000002</v>
-      </c>
-      <c r="H44">
-        <v>0.65946525600000006</v>
-      </c>
-      <c r="I44">
-        <v>0.49644911470000003</v>
-      </c>
-      <c r="J44">
-        <v>0.90584934159999997</v>
-      </c>
-      <c r="K44">
-        <v>0.68349552690000004</v>
-      </c>
-      <c r="L44">
-        <v>0.89024542100000004</v>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>0</v>
       </c>
       <c r="M44" t="s">
         <v>0</v>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FF2FFF-2006-4A04-A89B-BCFBE673299E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BD31BC-8E7B-4E28-9252-0762ACA2C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="17">
   <si>
     <t>.</t>
   </si>
@@ -462,109 +462,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.1378043058</c:v>
+                  <c:v>0.2412951827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3936125204</c:v>
+                  <c:v>0.16870313079999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1592077948</c:v>
+                  <c:v>3.4177012600000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.64348274679999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63920243700000001</c:v>
+                  <c:v>0.89112405780000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.30847389320000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.52034655939999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23738058740000001</c:v>
+                  <c:v>0.24287785149999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20013300959999999</c:v>
+                  <c:v>0.24671798640000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.2477515879999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.37467357959999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.8621407400000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.22425117119999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.29637405529999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.29541273839999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.25313426970000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.26522595059999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.25177640019999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.5297640133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.59780808630000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.24028993730000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.33271854340000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.31555946239999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.30216172209999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.2278827796</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.60672846309999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.64900679670000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.32234989269999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.31156316950000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.70278868790000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.1050142674</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.24017035680000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.20416452239999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.21908066379999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,13 +1306,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -16143,18 +16143,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813320CE-017C-4161-A97E-2BD98EB674E5}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -16187,7 +16187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -16200,7 +16200,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16211,16 +16211,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>3.4994099999999998E-18</v>
+        <v>4.9358000000000002E-21</v>
       </c>
       <c r="E3">
-        <v>0.1378043058</v>
+        <v>0.2412951827</v>
       </c>
       <c r="F3" s="1">
-        <v>0.34869900739999998</v>
+        <v>6.0402837000000003E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>1.38551E-13</v>
+        <v>4.4711699999999996E-15</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -16234,17 +16234,8 @@
       <c r="K3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16255,16 +16246,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>9.3678721000000006E-3</v>
+        <v>1.16540367E-2</v>
       </c>
       <c r="E4">
-        <v>0.3936125204</v>
+        <v>0.16870313079999999</v>
       </c>
       <c r="F4" s="1">
-        <v>0.48471497070000003</v>
+        <v>0.55103526820000004</v>
       </c>
       <c r="G4" s="1">
-        <v>2.86895E-5</v>
+        <v>1.39163E-11</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -16278,17 +16269,8 @@
       <c r="K4" t="s">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16299,16 +16281,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>9.0887345800000005E-2</v>
+        <v>0.1332418105</v>
       </c>
       <c r="E5">
-        <v>-0.1592077948</v>
+        <v>3.4177012600000001E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.76997646549999998</v>
+        <v>0.92664609610000004</v>
       </c>
       <c r="G5" s="1">
-        <v>4.76057E-15</v>
+        <v>1.7029300000000001E-11</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -16322,17 +16304,8 @@
       <c r="K5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16342,17 +16315,17 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
+      <c r="D6" s="1">
+        <v>3.3808471800000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.64348274679999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1632403194</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.9685200000000003E-69</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -16366,17 +16339,8 @@
       <c r="K6" t="s">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16387,16 +16351,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.2363301246</v>
+        <v>0.23145737760000001</v>
       </c>
       <c r="E7">
-        <v>0.63920243700000001</v>
+        <v>0.89112405780000004</v>
       </c>
       <c r="F7" s="1">
-        <v>0.68897099819999996</v>
+        <v>0.33501174680000001</v>
       </c>
       <c r="G7" s="1">
-        <v>4.2576500000000001E-17</v>
+        <v>9.0454999999999999E-112</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -16410,17 +16374,8 @@
       <c r="K7" t="s">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16430,17 +16385,17 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
+      <c r="D8" s="1">
+        <v>0.89758750490000005</v>
+      </c>
+      <c r="E8">
+        <v>0.30847389320000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.95773646329999995</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.69450879160000001</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -16454,17 +16409,8 @@
       <c r="K8" t="s">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16474,17 +16420,17 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
+      <c r="D9" s="1">
+        <v>0.33018535180000003</v>
+      </c>
+      <c r="E9">
+        <v>0.52034655939999996</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.75161959079999996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22941377569999999</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -16498,17 +16444,8 @@
       <c r="K9" t="s">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16519,19 +16456,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>5.2378299999999996E-6</v>
+        <v>0.22252869950000001</v>
       </c>
       <c r="E10">
-        <v>0.23738058740000001</v>
+        <v>0.24287785149999999</v>
       </c>
       <c r="F10" s="1">
-        <v>6.0217360800000001E-2</v>
+        <v>0.15188970539999999</v>
       </c>
       <c r="G10" s="1">
-        <v>0.71094659390000003</v>
+        <v>0.60486332089999995</v>
       </c>
       <c r="H10">
-        <v>0.87850591700000003</v>
+        <v>0.6784159689</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -16542,17 +16479,8 @@
       <c r="K10" t="s">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16563,19 +16491,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.60822343749999996</v>
+        <v>2.1021900000000001E-20</v>
       </c>
       <c r="E11">
-        <v>0.20013300959999999</v>
+        <v>0.24671798640000001</v>
       </c>
       <c r="F11" s="1">
-        <v>5.58440968E-2</v>
+        <v>1.3458306000000001E-3</v>
       </c>
       <c r="G11">
-        <v>0.81772940869999999</v>
+        <v>0.71652498679999999</v>
       </c>
       <c r="H11">
-        <v>0.3840339579</v>
+        <v>0.47798146450000001</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -16586,17 +16514,8 @@
       <c r="K11" t="s">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16606,20 +16525,20 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
+      <c r="D12">
+        <v>0.73759568310000001</v>
+      </c>
+      <c r="E12">
+        <v>4.2477515879999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.71312766260000005</v>
+      </c>
+      <c r="G12">
+        <v>2.71428685E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.33452185080000002</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -16630,17 +16549,8 @@
       <c r="K12" t="s">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16650,20 +16560,20 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
+      <c r="D13" s="1">
+        <v>0.99152529030000003</v>
+      </c>
+      <c r="E13">
+        <v>0.37467357959999997</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.4089239254</v>
+      </c>
+      <c r="G13">
+        <v>0.90424702359999998</v>
+      </c>
+      <c r="H13">
+        <v>0.36180748579999999</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -16674,17 +16584,8 @@
       <c r="K13" t="s">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16694,20 +16595,20 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>0</v>
+      <c r="D14" s="1">
+        <v>0.93706136910000004</v>
+      </c>
+      <c r="E14">
+        <v>6.8621407400000001E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.85893772869999996</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.50188710209999998</v>
+      </c>
+      <c r="H14">
+        <v>0.13685612389999999</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -16718,17 +16619,8 @@
       <c r="K14" t="s">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16738,20 +16630,20 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>0</v>
+      <c r="D15" s="1">
+        <v>0.90817845659999996</v>
+      </c>
+      <c r="E15">
+        <v>0.22425117119999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.50024580900000004</v>
+      </c>
+      <c r="G15">
+        <v>0.74189175689999998</v>
+      </c>
+      <c r="H15">
+        <v>0.23032472079999999</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -16762,17 +16654,8 @@
       <c r="K15" t="s">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16782,20 +16665,20 @@
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
+      <c r="D16" s="1">
+        <v>0.93703652640000001</v>
+      </c>
+      <c r="E16">
+        <v>0.29637405529999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4093672793</v>
+      </c>
+      <c r="G16">
+        <v>0.91557961669999999</v>
+      </c>
+      <c r="H16">
+        <v>0.20619626169999999</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -16806,17 +16689,8 @@
       <c r="K16" t="s">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -16826,23 +16700,23 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
+      <c r="D17" s="1">
+        <v>0.18428122329999999</v>
+      </c>
+      <c r="E17">
+        <v>0.29541273839999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.2282183000000003E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.12661861769999999</v>
+      </c>
+      <c r="H17">
+        <v>0.60960535039999997</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.32732442369999998</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -16850,17 +16724,8 @@
       <c r="K17" t="s">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -16870,23 +16735,23 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
+      <c r="D18" s="1">
+        <v>3.6996100000000002E-12</v>
+      </c>
+      <c r="E18">
+        <v>0.25313426970000003</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.5847519599999998E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.70658324920000004</v>
+      </c>
+      <c r="H18">
+        <v>0.47395511289999998</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.54275912780000002</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -16894,17 +16759,8 @@
       <c r="K18" t="s">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -16914,23 +16770,23 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>0</v>
+      <c r="D19" s="1">
+        <v>6.7573999999999997E-15</v>
+      </c>
+      <c r="E19">
+        <v>0.26522595059999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.2724375000000002E-3</v>
+      </c>
+      <c r="G19">
+        <v>0.46077690290000001</v>
+      </c>
+      <c r="H19">
+        <v>0.43426472090000001</v>
+      </c>
+      <c r="I19">
+        <v>0.32042856159999999</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -16938,17 +16794,8 @@
       <c r="K19" t="s">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -16958,23 +16805,23 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>0</v>
+      <c r="D20">
+        <v>0.88957864320000002</v>
+      </c>
+      <c r="E20">
+        <v>0.25177640019999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.53415437099999996</v>
+      </c>
+      <c r="G20">
+        <v>0.92044057209999997</v>
+      </c>
+      <c r="H20">
+        <v>0.38017018749999998</v>
+      </c>
+      <c r="I20">
+        <v>0.97025517979999998</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -16982,17 +16829,8 @@
       <c r="K20" t="s">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -17002,23 +16840,23 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>0</v>
+      <c r="D21" s="1">
+        <v>3.3332026899999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.5297640133</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.24995633289999999</v>
+      </c>
+      <c r="G21">
+        <v>0.99577069640000004</v>
+      </c>
+      <c r="H21">
+        <v>0.36979544549999999</v>
+      </c>
+      <c r="I21">
+        <v>0.69325440940000005</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -17026,17 +16864,8 @@
       <c r="K21" t="s">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -17046,23 +16875,23 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>0</v>
+      <c r="D22" s="1">
+        <v>0.39908410290000002</v>
+      </c>
+      <c r="E22">
+        <v>0.59780808630000004</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.42829073610000001</v>
+      </c>
+      <c r="G22">
+        <v>0.78845221499999996</v>
+      </c>
+      <c r="H22">
+        <v>0.54695897800000004</v>
+      </c>
+      <c r="I22">
+        <v>0.57003700339999996</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -17070,17 +16899,8 @@
       <c r="K22" t="s">
         <v>0</v>
       </c>
-      <c r="L22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -17090,23 +16910,23 @@
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>0</v>
+      <c r="D23" s="1">
+        <v>0.84582223199999995</v>
+      </c>
+      <c r="E23">
+        <v>0.24028993730000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.20085974440000001</v>
+      </c>
+      <c r="G23">
+        <v>0.75285123480000005</v>
+      </c>
+      <c r="H23">
+        <v>0.43105619439999998</v>
+      </c>
+      <c r="I23">
+        <v>0.72493059510000002</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -17114,17 +16934,8 @@
       <c r="K23" t="s">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -17134,41 +16945,32 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>0</v>
+      <c r="D24" s="1">
+        <v>0.81403880770000003</v>
+      </c>
+      <c r="E24">
+        <v>0.33271854340000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.7409020999999996E-3</v>
+      </c>
+      <c r="G24">
+        <v>5.8508955299999998E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.62066425120000002</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.67387570139999997</v>
+      </c>
+      <c r="J24">
+        <v>0.19573054819999999</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
       </c>
-      <c r="L24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -17178,41 +16980,32 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>0</v>
+      <c r="D25" s="1">
+        <v>3.7625500000000002E-8</v>
+      </c>
+      <c r="E25">
+        <v>0.31555946239999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.89464767E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.50102629649999997</v>
+      </c>
+      <c r="H25">
+        <v>0.48108604869999999</v>
+      </c>
+      <c r="I25">
+        <v>0.46527758499999999</v>
+      </c>
+      <c r="J25">
+        <v>0.61378848949999998</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
-      <c r="L25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -17246,17 +17039,8 @@
       <c r="K26" t="s">
         <v>0</v>
       </c>
-      <c r="L26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -17266,41 +17050,32 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>0</v>
+      <c r="D27" s="1">
+        <v>0.96949118190000005</v>
+      </c>
+      <c r="E27">
+        <v>0.30216172209999997</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.53034969009999999</v>
+      </c>
+      <c r="G27">
+        <v>0.99245445529999998</v>
+      </c>
+      <c r="H27">
+        <v>0.22426064509999999</v>
+      </c>
+      <c r="I27">
+        <v>0.94051879199999999</v>
+      </c>
+      <c r="J27">
+        <v>0.92808158009999997</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -17310,41 +17085,32 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>0</v>
+      <c r="D28" s="1">
+        <v>0.88340441729999997</v>
+      </c>
+      <c r="E28">
+        <v>0.2278827796</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.34760585309999997</v>
+      </c>
+      <c r="G28">
+        <v>0.97180878999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.2433835003</v>
+      </c>
+      <c r="I28">
+        <v>0.99746654859999995</v>
+      </c>
+      <c r="J28">
+        <v>0.6023007065</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -17354,41 +17120,32 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>0</v>
+      <c r="D29" s="1">
+        <v>0.38373920579999998</v>
+      </c>
+      <c r="E29">
+        <v>0.60672846309999995</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.3761464685</v>
+      </c>
+      <c r="G29">
+        <v>0.95328328429999998</v>
+      </c>
+      <c r="H29">
+        <v>0.2268473735</v>
+      </c>
+      <c r="I29">
+        <v>0.94796073530000002</v>
+      </c>
+      <c r="J29">
+        <v>0.80169489459999999</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
       </c>
-      <c r="L29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -17398,41 +17155,32 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>0</v>
+      <c r="D30" s="1">
+        <v>0.14237432459999999</v>
+      </c>
+      <c r="E30">
+        <v>0.64900679670000005</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.29812878300000001</v>
+      </c>
+      <c r="G30">
+        <v>0.98211845180000001</v>
+      </c>
+      <c r="H30">
+        <v>0.3440172473</v>
+      </c>
+      <c r="I30">
+        <v>0.80690545309999995</v>
+      </c>
+      <c r="J30">
+        <v>0.5738481567</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -17442,41 +17190,32 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D31" s="1">
+        <v>0.88989918199999996</v>
+      </c>
+      <c r="E31">
+        <v>0.32234989269999997</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.13772349</v>
+      </c>
+      <c r="G31">
+        <v>0.5326665827</v>
+      </c>
+      <c r="H31">
+        <v>0.7632166829</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.16817280179999999</v>
+      </c>
+      <c r="J31">
+        <v>0.41989323579999999</v>
+      </c>
+      <c r="K31">
+        <v>0.20453094920000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -17486,41 +17225,32 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>0.99226214209999997</v>
+      </c>
+      <c r="E32">
+        <v>0.31156316950000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.8727652999999999E-3</v>
+      </c>
+      <c r="G32">
+        <v>0.53401278990000001</v>
+      </c>
+      <c r="H32">
+        <v>0.39256385649999997</v>
+      </c>
+      <c r="I32">
+        <v>0.93571251470000005</v>
+      </c>
+      <c r="J32">
+        <v>0.30536265550000002</v>
+      </c>
+      <c r="K32">
+        <v>0.78021549550000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -17530,41 +17260,32 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>5.6408285599999997E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.70278868790000004</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4.7036663399999998E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.80994230369999998</v>
+      </c>
+      <c r="H33">
+        <v>3.1799707300000001E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.80227716459999998</v>
+      </c>
+      <c r="J33">
+        <v>0.5826786035</v>
+      </c>
+      <c r="K33">
+        <v>0.13418553529999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -17574,41 +17295,32 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D34" s="1">
+        <v>0.66125373759999995</v>
+      </c>
+      <c r="E34">
+        <v>0.1050142674</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.52905201960000003</v>
+      </c>
+      <c r="G34">
+        <v>0.56083777219999997</v>
+      </c>
+      <c r="H34">
+        <v>0.71316055119999999</v>
+      </c>
+      <c r="I34">
+        <v>0.88886482389999999</v>
+      </c>
+      <c r="J34">
+        <v>0.98891782719999999</v>
+      </c>
+      <c r="K34">
+        <v>0.2417145245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -17618,41 +17330,32 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D35" s="1">
+        <v>4.4094616999999997E-3</v>
+      </c>
+      <c r="E35">
+        <v>0.24017035680000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.34020336439999999</v>
+      </c>
+      <c r="G35">
+        <v>0.66158457029999995</v>
+      </c>
+      <c r="H35">
+        <v>0.1222691848</v>
+      </c>
+      <c r="I35">
+        <v>0.58817670899999996</v>
+      </c>
+      <c r="J35">
+        <v>0.76052505530000003</v>
+      </c>
+      <c r="K35">
+        <v>0.35693475990000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -17662,41 +17365,32 @@
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D36" s="1">
+        <v>0.49766378880000001</v>
+      </c>
+      <c r="E36">
+        <v>0.20416452239999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.32248214739999997</v>
+      </c>
+      <c r="G36">
+        <v>0.86824028980000001</v>
+      </c>
+      <c r="H36">
+        <v>0.36400865230000001</v>
+      </c>
+      <c r="I36">
+        <v>0.75678144189999996</v>
+      </c>
+      <c r="J36">
+        <v>0.80053306300000004</v>
+      </c>
+      <c r="K36">
+        <v>0.24847033660000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -17706,41 +17400,32 @@
       <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D37" s="1">
+        <v>0.66440503620000002</v>
+      </c>
+      <c r="E37">
+        <v>0.21908066379999999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.3768712448</v>
+      </c>
+      <c r="G37">
+        <v>0.99077017160000003</v>
+      </c>
+      <c r="H37">
+        <v>0.42704256439999999</v>
+      </c>
+      <c r="I37">
+        <v>0.77391566629999997</v>
+      </c>
+      <c r="J37">
+        <v>0.62746104209999998</v>
+      </c>
+      <c r="K37">
+        <v>0.4935891979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -17750,41 +17435,32 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>4.5713409199999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.2495774546</v>
+      </c>
+      <c r="F38">
+        <v>0.1126937137</v>
+      </c>
+      <c r="G38">
+        <v>0.6478892383</v>
+      </c>
+      <c r="H38">
+        <v>0.6916591003</v>
+      </c>
+      <c r="I38">
+        <v>0.81081349309999995</v>
+      </c>
+      <c r="J38">
+        <v>0.6786560452</v>
+      </c>
+      <c r="K38">
+        <v>0.50848822159999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -17794,41 +17470,32 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>9.4878966999999998E-3</v>
+      </c>
+      <c r="E39">
+        <v>0.23487020689999999</v>
+      </c>
+      <c r="F39">
+        <v>7.7837253199999998E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.81097895180000001</v>
+      </c>
+      <c r="H39">
+        <v>0.32331922460000001</v>
+      </c>
+      <c r="I39">
+        <v>0.68653277059999995</v>
+      </c>
+      <c r="J39">
+        <v>0.59983987989999998</v>
+      </c>
+      <c r="K39">
+        <v>0.43006563869999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -17838,41 +17505,32 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>1.8118870000000001E-4</v>
+      </c>
+      <c r="E40">
+        <v>0.45072217889999999</v>
+      </c>
+      <c r="F40">
+        <v>0.20958120029999999</v>
+      </c>
+      <c r="G40">
+        <v>0.68071403649999995</v>
+      </c>
+      <c r="H40">
+        <v>0.9514263731</v>
+      </c>
+      <c r="I40">
+        <v>0.44242041259999998</v>
+      </c>
+      <c r="J40">
+        <v>0.74410479519999995</v>
+      </c>
+      <c r="K40">
+        <v>0.90382095389999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -17882,41 +17540,32 @@
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>0.76248551850000001</v>
+      </c>
+      <c r="E41">
+        <v>0.16030998229999999</v>
+      </c>
+      <c r="F41">
+        <v>0.22454846419999999</v>
+      </c>
+      <c r="G41">
+        <v>0.58738139089999997</v>
+      </c>
+      <c r="H41">
+        <v>0.53002942860000002</v>
+      </c>
+      <c r="I41">
+        <v>0.97205252809999998</v>
+      </c>
+      <c r="J41">
+        <v>0.8093778358</v>
+      </c>
+      <c r="K41">
+        <v>0.55639361620000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -17926,41 +17575,32 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>4.96172374E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.6994770535</v>
+      </c>
+      <c r="F42">
+        <v>0.1199052156</v>
+      </c>
+      <c r="G42">
+        <v>0.72815715599999997</v>
+      </c>
+      <c r="H42">
+        <v>1.51392356E-2</v>
+      </c>
+      <c r="I42">
+        <v>0.8824964421</v>
+      </c>
+      <c r="J42">
+        <v>0.27892696389999999</v>
+      </c>
+      <c r="K42">
+        <v>0.2783425356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -17970,395 +17610,34 @@
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.39358905290000001</v>
-      </c>
-      <c r="E45">
-        <v>6.3639778999999994E-2</v>
-      </c>
-      <c r="F45">
-        <v>0.95363719840000005</v>
-      </c>
-      <c r="G45">
-        <v>0.80535890649999997</v>
-      </c>
-      <c r="H45">
-        <v>0.96139373770000003</v>
-      </c>
-      <c r="I45">
-        <v>0.92595025470000003</v>
-      </c>
-      <c r="J45">
-        <v>0.72845493900000002</v>
-      </c>
-      <c r="K45">
-        <v>0.98074860909999995</v>
-      </c>
-      <c r="L45">
-        <v>0.84198936469999996</v>
-      </c>
-      <c r="M45">
-        <v>0.46003824459999998</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>7.8036849500000005E-2</v>
-      </c>
-      <c r="E46">
-        <v>1.1034319640000001</v>
-      </c>
-      <c r="F46">
-        <v>0.27145821149999999</v>
-      </c>
-      <c r="G46">
-        <v>0.40294982219999997</v>
-      </c>
-      <c r="H46">
-        <v>0.24053617229999999</v>
-      </c>
-      <c r="I46">
-        <v>0.532939312</v>
-      </c>
-      <c r="J46">
-        <v>0.4007318882</v>
-      </c>
-      <c r="K46">
-        <v>0.55445596669999997</v>
-      </c>
-      <c r="L46">
-        <v>0.34493059510000001</v>
-      </c>
-      <c r="M46">
-        <v>0.38794568369999999</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1.9076678000000001E-3</v>
-      </c>
-      <c r="E47">
-        <v>0.50635840860000003</v>
-      </c>
-      <c r="F47">
-        <v>0.1885709354</v>
-      </c>
-      <c r="G47">
-        <v>0.63403211869999998</v>
-      </c>
-      <c r="H47">
-        <v>0.24076052710000001</v>
-      </c>
-      <c r="I47">
-        <v>0.94110106950000005</v>
-      </c>
-      <c r="J47">
-        <v>0.2150389036</v>
-      </c>
-      <c r="K47">
-        <v>0.43885733510000002</v>
-      </c>
-      <c r="L47">
-        <v>0.38732942930000003</v>
-      </c>
-      <c r="M47">
-        <v>0.34533307099999999</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.50083627539999998</v>
-      </c>
-      <c r="E48">
-        <v>-0.2483004359</v>
-      </c>
-      <c r="F48">
-        <v>0.73225598749999998</v>
-      </c>
-      <c r="G48">
-        <v>0.67261364239999999</v>
-      </c>
-      <c r="H48">
-        <v>0.38145617539999999</v>
-      </c>
-      <c r="I48">
-        <v>0.90965441920000001</v>
-      </c>
-      <c r="J48">
-        <v>0.34938459389999998</v>
-      </c>
-      <c r="K48">
-        <v>0.50815816000000003</v>
-      </c>
-      <c r="L48">
-        <v>0.64801048049999999</v>
-      </c>
-      <c r="M48">
-        <v>0.68016335139999995</v>
-      </c>
-      <c r="N48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>4.8255523600000003E-2</v>
-      </c>
-      <c r="E49">
-        <v>0.4275046978</v>
-      </c>
-      <c r="F49">
-        <v>0.46886661740000002</v>
-      </c>
-      <c r="G49">
-        <v>0.47328811749999999</v>
-      </c>
-      <c r="H49">
-        <v>4.0263599499999997E-2</v>
-      </c>
-      <c r="I49">
-        <v>0.41952866039999998</v>
-      </c>
-      <c r="J49">
-        <v>0.46411226309999998</v>
-      </c>
-      <c r="K49">
-        <v>0.27464495319999999</v>
-      </c>
-      <c r="L49">
-        <v>0.85560097440000005</v>
-      </c>
-      <c r="M49">
-        <v>0.97454860389999998</v>
-      </c>
-      <c r="N49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>9.7158868800000006E-2</v>
-      </c>
-      <c r="E50">
-        <v>0.32422158629999998</v>
-      </c>
-      <c r="F50">
-        <v>0.57662409910000001</v>
-      </c>
-      <c r="G50">
-        <v>0.53236286109999997</v>
-      </c>
-      <c r="H50">
-        <v>0.89477396799999998</v>
-      </c>
-      <c r="I50">
-        <v>0.5758993979</v>
-      </c>
-      <c r="J50">
-        <v>0.86038989210000005</v>
-      </c>
-      <c r="K50">
-        <v>0.68921140169999995</v>
-      </c>
-      <c r="L50">
-        <v>0.78193441450000001</v>
-      </c>
-      <c r="M50">
-        <v>0.81867879759999995</v>
-      </c>
-      <c r="N50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>5.9501451300000001E-2</v>
-      </c>
-      <c r="E51">
-        <v>0.1144731906</v>
-      </c>
-      <c r="F51">
-        <v>0.79796466210000006</v>
-      </c>
-      <c r="G51">
-        <v>0.65935084830000001</v>
-      </c>
-      <c r="H51">
-        <v>0.52506479559999997</v>
-      </c>
-      <c r="I51">
-        <v>0.4842790669</v>
-      </c>
-      <c r="J51">
-        <v>0.78316301899999996</v>
-      </c>
-      <c r="K51">
-        <v>0.70760415190000003</v>
-      </c>
-      <c r="L51">
-        <v>0.99046425520000003</v>
-      </c>
-      <c r="M51">
-        <v>0.81978761460000005</v>
-      </c>
-      <c r="N51" t="s">
-        <v>1</v>
+      <c r="D43">
+        <v>0.63607754019999996</v>
+      </c>
+      <c r="E43">
+        <v>0.1947199564</v>
+      </c>
+      <c r="F43">
+        <v>0.31028774920000002</v>
+      </c>
+      <c r="G43">
+        <v>0.89641518200000003</v>
+      </c>
+      <c r="H43">
+        <v>0.35866995099999999</v>
+      </c>
+      <c r="I43">
+        <v>0.77200728699999999</v>
+      </c>
+      <c r="J43">
+        <v>0.78469304080000002</v>
+      </c>
+      <c r="K43">
+        <v>0.46508869539999997</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G3:M51">
+  <conditionalFormatting sqref="G3:K43">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C778307-3DA8-4328-A2FF-D7AF7926F893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3129A6E-ABD4-4FDC-8613-8619B0F5776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="13">
   <si>
     <t>.</t>
   </si>
@@ -185,7 +185,14 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -416,109 +423,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.2412951827</c:v>
+                  <c:v>0.30013994640000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16870313079999999</c:v>
+                  <c:v>0.25737434749999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4177012600000001E-2</c:v>
+                  <c:v>1.10694166E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64348274679999995</c:v>
+                  <c:v>1.153350788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89112405780000004</c:v>
+                  <c:v>0.42170562659999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30847389320000002</c:v>
+                  <c:v>-4.6914307299999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52034655939999996</c:v>
+                  <c:v>0.50209224299999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24287785149999999</c:v>
+                  <c:v>0.30054257280000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24671798640000001</c:v>
+                  <c:v>0.3075486737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2477515879999999</c:v>
+                  <c:v>1.0706454620000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37467357959999997</c:v>
+                  <c:v>0.20839040149999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8621407400000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22425117119999999</c:v>
+                  <c:v>0.4005782759</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29637405529999999</c:v>
+                  <c:v>0.50108463059999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29541273839999999</c:v>
+                  <c:v>0.43018149830000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25313426970000003</c:v>
+                  <c:v>0.31327487809999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26522595059999998</c:v>
+                  <c:v>0.32850689220000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25177640019999997</c:v>
+                  <c:v>1.0247666120000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5297640133</c:v>
+                  <c:v>0.4475993191</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59780808630000004</c:v>
+                  <c:v>0.29230016879999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24028993730000001</c:v>
+                  <c:v>1.0082196889999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33271854340000001</c:v>
+                  <c:v>0.36784530170000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.31555946239999999</c:v>
+                  <c:v>0.52263676599999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>-4.0628193899999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.902581912</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45858305329999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.30216172209999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2278827796</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.60672846309999995</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.64900679670000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.32234989269999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.31156316950000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.70278868790000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.1050142674</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.24017035680000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.20416452239999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.21908066379999999</c:v>
+                  <c:v>0.74943310949999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,6 +1440,383 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'16'!$E$3:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.33177881539999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36054980269999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44019933880000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32355971259999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33216264909999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29770006110000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25958620869999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3463977902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3618539053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69515554980000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17722100900000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8059514399999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.56313256270000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30019959569999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33739827160000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59916895650000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96015389949999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23877707519999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.88319227E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1180564885</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70798076409999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32491270150000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4277284599999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38203934779999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12107792320000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1134904437</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66874358330000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33374950869999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1314242732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32996262199999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28152579370000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70756036909999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4070847999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13198622130000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2777473453</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.364144042</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3009376117</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.8934991999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.81414271130000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31422989289999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27211042590000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4013201414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FED1-41DE-A7E4-73275F6267B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="672270431"/>
+        <c:axId val="672250879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="672270431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672250879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672250879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672270431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1535,6 +1898,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3122,6 +3525,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3225,6 +4144,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAC2CFA-446D-EB17-481A-F4D8AB78ABB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFB091A-F0B2-4555-6CC7-275E5ADC3BD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +4511,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D2:D7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3575,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0.30421090000000001</v>
+        <v>0.20839040149999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3592,67 +4552,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.37418348429999998</v>
+        <v>0.21428349229999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.40922172340000001</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0.41449776090000001</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.16329856700000001</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.15255318970000001</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -3868,7 +4795,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17889,13 +18816,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813320CE-017C-4161-A97E-2BD98EB674E5}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17957,16 +18884,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4.9358000000000002E-21</v>
+        <v>4.9946500000000003E-63</v>
       </c>
       <c r="E3">
-        <v>0.2412951827</v>
+        <v>0.30013994640000002</v>
       </c>
       <c r="F3" s="1">
-        <v>6.0402837000000003E-3</v>
+        <v>1.46755E-8</v>
       </c>
       <c r="G3" s="1">
-        <v>4.4711699999999996E-15</v>
+        <v>5.3298560000000002E-4</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -17998,16 +18925,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1.16540367E-2</v>
+        <v>1.5011099999999999E-5</v>
       </c>
       <c r="E4">
-        <v>0.16870313079999999</v>
+        <v>0.25737434749999999</v>
       </c>
       <c r="F4" s="1">
-        <v>0.55103526820000004</v>
+        <v>0.10331004320000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1.39163E-11</v>
+        <v>2.17539289E-2</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -18039,16 +18966,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.1332418105</v>
+        <v>0.44658481589999999</v>
       </c>
       <c r="E5">
-        <v>3.4177012600000001E-2</v>
+        <v>1.10694166E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.92664609610000004</v>
+        <v>0.98230469809999998</v>
       </c>
       <c r="G5" s="1">
-        <v>1.7029300000000001E-11</v>
+        <v>9.0855600000000003E-7</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -18080,16 +19007,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>3.3808471800000003E-2</v>
+        <v>0.1780325042</v>
       </c>
       <c r="E6">
-        <v>0.64348274679999995</v>
+        <v>1.153350788</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1632403194</v>
+        <v>0.36116207309999998</v>
       </c>
       <c r="G6" s="1">
-        <v>4.9685200000000003E-69</v>
+        <v>1.5260600000000001E-12</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -18121,16 +19048,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.23145737760000001</v>
+        <v>2.30378E-24</v>
       </c>
       <c r="E7">
-        <v>0.89112405780000004</v>
+        <v>0.42170562659999999</v>
       </c>
       <c r="F7" s="1">
-        <v>0.33501174680000001</v>
+        <v>5.9771379999999999E-4</v>
       </c>
       <c r="G7" s="1">
-        <v>9.0454999999999999E-112</v>
+        <v>0.1244788879</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -18162,16 +19089,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>0.89758750490000005</v>
+        <v>0.91324085669999999</v>
       </c>
       <c r="E8">
-        <v>0.30847389320000002</v>
+        <v>-4.6914307299999999E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.95773646329999995</v>
+        <v>0.92626774069999995</v>
       </c>
       <c r="G8" s="1">
-        <v>0.69450879160000001</v>
+        <v>2.34779E-20</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -18203,16 +19130,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>0.33018535180000003</v>
+        <v>5.3571199999999999E-13</v>
       </c>
       <c r="E9">
-        <v>0.52034655939999996</v>
+        <v>0.50209224299999999</v>
       </c>
       <c r="F9" s="1">
-        <v>0.75161959079999996</v>
+        <v>1.44180395E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>0.22941377569999999</v>
+        <v>0.25161808000000002</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -18244,19 +19171,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.22252869950000001</v>
+        <v>3.46548E-16</v>
       </c>
       <c r="E10">
-        <v>0.24287785149999999</v>
+        <v>0.30054257280000002</v>
       </c>
       <c r="F10" s="1">
-        <v>0.15188970539999999</v>
+        <v>8.8743389999999995E-4</v>
       </c>
       <c r="G10" s="1">
-        <v>0.60486332089999995</v>
+        <v>0.49174233639999998</v>
       </c>
       <c r="H10">
-        <v>0.6784159689</v>
+        <v>0.92099903559999996</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -18285,19 +19212,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.1021900000000001E-20</v>
+        <v>1.5021100000000001E-64</v>
       </c>
       <c r="E11">
-        <v>0.24671798640000001</v>
+        <v>0.3075486737</v>
       </c>
       <c r="F11" s="1">
-        <v>1.3458306000000001E-3</v>
+        <v>1.00978E-13</v>
       </c>
       <c r="G11">
-        <v>0.71652498679999999</v>
+        <v>0.60816031969999995</v>
       </c>
       <c r="H11">
-        <v>0.47798146450000001</v>
+        <v>0.36833462970000003</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -18326,19 +19253,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.73759568310000001</v>
+        <v>0.99812079799999998</v>
       </c>
       <c r="E12">
-        <v>4.2477515879999999</v>
+        <v>1.0706454620000001</v>
       </c>
       <c r="F12" s="1">
-        <v>0.71312766260000005</v>
+        <v>0.87907701360000001</v>
       </c>
       <c r="G12">
-        <v>2.71428685E-2</v>
+        <v>0.41191218629999998</v>
       </c>
       <c r="H12">
-        <v>0.33452185080000002</v>
+        <v>0.70583163579999997</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -18367,19 +19294,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>0.99152529030000003</v>
+        <v>0.49149025349999997</v>
       </c>
       <c r="E13">
-        <v>0.37467357959999997</v>
+        <v>0.20839040149999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.4089239254</v>
+        <v>0.92192986960000001</v>
       </c>
       <c r="G13">
-        <v>0.90424702359999998</v>
+        <v>0.95623375740000005</v>
       </c>
       <c r="H13">
-        <v>0.36180748579999999</v>
+        <v>0.4795934</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -18407,20 +19334,20 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.93706136910000004</v>
-      </c>
-      <c r="E14">
-        <v>6.8621407400000001E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.85893772869999996</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.50188710209999998</v>
-      </c>
-      <c r="H14">
-        <v>0.13685612389999999</v>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -18449,19 +19376,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>0.90817845659999996</v>
+        <v>0.1082549305</v>
       </c>
       <c r="E15">
-        <v>0.22425117119999999</v>
+        <v>0.4005782759</v>
       </c>
       <c r="F15" s="1">
-        <v>0.50024580900000004</v>
+        <v>0.18491649730000001</v>
       </c>
       <c r="G15">
-        <v>0.74189175689999998</v>
+        <v>0.88005140800000003</v>
       </c>
       <c r="H15">
-        <v>0.23032472079999999</v>
+        <v>2.2047007699999999E-2</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -18490,19 +19417,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>0.93703652640000001</v>
+        <v>7.0254900000000001E-6</v>
       </c>
       <c r="E16">
-        <v>0.29637405529999999</v>
+        <v>0.50108463059999997</v>
       </c>
       <c r="F16" s="1">
-        <v>0.4093672793</v>
+        <v>0.24570957839999999</v>
       </c>
       <c r="G16">
-        <v>0.91557961669999999</v>
+        <v>0.60309612609999996</v>
       </c>
       <c r="H16">
-        <v>0.20619626169999999</v>
+        <v>0.25933023929999999</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -18531,22 +19458,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.18428122329999999</v>
+        <v>0.64678837389999999</v>
       </c>
       <c r="E17">
-        <v>0.29541273839999999</v>
+        <v>0.43018149830000002</v>
       </c>
       <c r="F17" s="1">
-        <v>5.2282183000000003E-3</v>
+        <v>9.5628415000000005E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>0.12661861769999999</v>
+        <v>0.17661995010000001</v>
       </c>
       <c r="H17">
-        <v>0.60960535039999997</v>
+        <v>0.61519292609999998</v>
       </c>
       <c r="I17" s="1">
-        <v>0.32732442369999998</v>
+        <v>0.30031467969999998</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -18572,22 +19499,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>3.6996100000000002E-12</v>
+        <v>6.2894999999999996E-54</v>
       </c>
       <c r="E18">
-        <v>0.25313426970000003</v>
+        <v>0.31327487809999999</v>
       </c>
       <c r="F18" s="1">
-        <v>1.5847519599999998E-2</v>
+        <v>1.68603E-8</v>
       </c>
       <c r="G18">
-        <v>0.70658324920000004</v>
+        <v>0.7093171009</v>
       </c>
       <c r="H18">
-        <v>0.47395511289999998</v>
+        <v>0.4539457938</v>
       </c>
       <c r="I18" s="1">
-        <v>0.54275912780000002</v>
+        <v>0.5270630972</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -18613,22 +19540,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>6.7573999999999997E-15</v>
+        <v>5.98706E-56</v>
       </c>
       <c r="E19">
-        <v>0.26522595059999998</v>
+        <v>0.32850689220000001</v>
       </c>
       <c r="F19" s="1">
-        <v>5.2724375000000002E-3</v>
+        <v>3.6620199999999998E-11</v>
       </c>
       <c r="G19">
-        <v>0.46077690290000001</v>
+        <v>0.43139224580000002</v>
       </c>
       <c r="H19">
-        <v>0.43426472090000001</v>
+        <v>0.38158962569999999</v>
       </c>
       <c r="I19">
-        <v>0.32042856159999999</v>
+        <v>0.4254990796</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -18654,22 +19581,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.88957864320000002</v>
+        <v>1.8111988400000001E-2</v>
       </c>
       <c r="E20">
-        <v>0.25177640019999997</v>
+        <v>1.0247666120000001</v>
       </c>
       <c r="F20" s="1">
-        <v>0.53415437099999996</v>
+        <v>0.1341066199</v>
       </c>
       <c r="G20">
-        <v>0.92044057209999997</v>
+        <v>0.50096615519999999</v>
       </c>
       <c r="H20">
-        <v>0.38017018749999998</v>
+        <v>0.57362985349999995</v>
       </c>
       <c r="I20">
-        <v>0.97025517979999998</v>
+        <v>0.59862477670000003</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -18695,22 +19622,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>3.3332026899999999E-2</v>
+        <v>0.36236877740000001</v>
       </c>
       <c r="E21">
-        <v>0.5297640133</v>
+        <v>0.4475993191</v>
       </c>
       <c r="F21" s="1">
-        <v>0.24995633289999999</v>
+        <v>0.81758321619999996</v>
       </c>
       <c r="G21">
-        <v>0.99577069640000004</v>
+        <v>0.48167620490000002</v>
       </c>
       <c r="H21">
-        <v>0.36979544549999999</v>
+        <v>0.78793546859999997</v>
       </c>
       <c r="I21">
-        <v>0.69325440940000005</v>
+        <v>0.76287608510000005</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -18736,22 +19663,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>0.39908410290000002</v>
+        <v>0.55070660360000001</v>
       </c>
       <c r="E22">
-        <v>0.59780808630000004</v>
+        <v>0.29230016879999998</v>
       </c>
       <c r="F22" s="1">
-        <v>0.42829073610000001</v>
+        <v>0.1242641369</v>
       </c>
       <c r="G22">
-        <v>0.78845221499999996</v>
+        <v>0.32237995149999998</v>
       </c>
       <c r="H22">
-        <v>0.54695897800000004</v>
+        <v>0.26248722369999999</v>
       </c>
       <c r="I22">
-        <v>0.57003700339999996</v>
+        <v>0.1893290926</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -18777,22 +19704,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>0.84582223199999995</v>
+        <v>0.50484170819999996</v>
       </c>
       <c r="E23">
-        <v>0.24028993730000001</v>
+        <v>1.0082196889999999</v>
       </c>
       <c r="F23" s="1">
-        <v>0.20085974440000001</v>
+        <v>0.23247126379999999</v>
       </c>
       <c r="G23">
-        <v>0.75285123480000005</v>
+        <v>0.70094516210000002</v>
       </c>
       <c r="H23">
-        <v>0.43105619439999998</v>
+        <v>0.21677669729999999</v>
       </c>
       <c r="I23">
-        <v>0.72493059510000002</v>
+        <v>0.69866465799999999</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -18818,25 +19745,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0.81403880770000003</v>
+        <v>0.932057044</v>
       </c>
       <c r="E24">
-        <v>0.33271854340000001</v>
+        <v>0.36784530170000002</v>
       </c>
       <c r="F24" s="1">
-        <v>5.7409020999999996E-3</v>
+        <v>1.7351655000000001E-3</v>
       </c>
       <c r="G24">
-        <v>5.8508955299999998E-2</v>
+        <v>0.2394820302</v>
       </c>
       <c r="H24">
-        <v>0.62066425120000002</v>
+        <v>0.4379315849</v>
       </c>
       <c r="I24" s="1">
-        <v>0.67387570139999997</v>
+        <v>0.44868050790000003</v>
       </c>
       <c r="J24">
-        <v>0.19573054819999999</v>
+        <v>0.36525908779999999</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
@@ -18859,25 +19786,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>3.7625500000000002E-8</v>
+        <v>0.1130364916</v>
       </c>
       <c r="E25">
-        <v>0.31555946239999999</v>
+        <v>0.52263676599999997</v>
       </c>
       <c r="F25" s="1">
-        <v>5.89464767E-2</v>
+        <v>1.4221996000000001E-3</v>
       </c>
       <c r="G25">
-        <v>0.50102629649999997</v>
+        <v>0.75832736850000004</v>
       </c>
       <c r="H25">
-        <v>0.48108604869999999</v>
+        <v>0.67634511509999995</v>
       </c>
       <c r="I25">
-        <v>0.46527758499999999</v>
+        <v>0.39664855189999998</v>
       </c>
       <c r="J25">
-        <v>0.61378848949999998</v>
+        <v>0.42560303510000003</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
@@ -18899,26 +19826,26 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>0</v>
+      <c r="D26" s="1">
+        <v>0.97473714560000002</v>
+      </c>
+      <c r="E26">
+        <v>-4.0628193899999998E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.99623374279999999</v>
+      </c>
+      <c r="G26">
+        <v>0.98212926140000001</v>
+      </c>
+      <c r="H26">
+        <v>0.95128403090000002</v>
+      </c>
+      <c r="I26">
+        <v>0.88634904960000005</v>
+      </c>
+      <c r="J26">
+        <v>0.94740928469999997</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
@@ -18941,25 +19868,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.96949118190000005</v>
+        <v>0.58520125420000002</v>
       </c>
       <c r="E27">
-        <v>0.30216172209999997</v>
+        <v>1.902581912</v>
       </c>
       <c r="F27" s="1">
-        <v>0.53034969009999999</v>
+        <v>0.51869065670000003</v>
       </c>
       <c r="G27">
-        <v>0.99245445529999998</v>
+        <v>0.71905513560000001</v>
       </c>
       <c r="H27">
-        <v>0.22426064509999999</v>
+        <v>0.65272450800000004</v>
       </c>
       <c r="I27">
-        <v>0.94051879199999999</v>
+        <v>0.57651247449999998</v>
       </c>
       <c r="J27">
-        <v>0.92808158009999997</v>
+        <v>0.7885972658</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -18982,25 +19909,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>0.88340441729999997</v>
+        <v>6.4816385300000001E-2</v>
       </c>
       <c r="E28">
-        <v>0.2278827796</v>
+        <v>0.45858305329999999</v>
       </c>
       <c r="F28" s="1">
-        <v>0.34760585309999997</v>
+        <v>0.59842192510000003</v>
       </c>
       <c r="G28">
-        <v>0.97180878999999998</v>
+        <v>0.40011309769999998</v>
       </c>
       <c r="H28">
-        <v>0.2433835003</v>
+        <v>0.51512767770000001</v>
       </c>
       <c r="I28">
-        <v>0.99746654859999995</v>
+        <v>0.75073580679999996</v>
       </c>
       <c r="J28">
-        <v>0.6023007065</v>
+        <v>0.80684627580000001</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
@@ -19022,26 +19949,26 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.38373920579999998</v>
-      </c>
-      <c r="E29">
-        <v>0.60672846309999995</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.3761464685</v>
-      </c>
-      <c r="G29">
-        <v>0.95328328429999998</v>
-      </c>
-      <c r="H29">
-        <v>0.2268473735</v>
-      </c>
-      <c r="I29">
-        <v>0.94796073530000002</v>
-      </c>
-      <c r="J29">
-        <v>0.80169489459999999</v>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
@@ -19064,25 +19991,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>0.14237432459999999</v>
+        <v>0.19032513179999999</v>
       </c>
       <c r="E30">
-        <v>0.64900679670000005</v>
+        <v>0.74943310949999997</v>
       </c>
       <c r="F30" s="1">
-        <v>0.29812878300000001</v>
+        <v>0.14012192940000001</v>
       </c>
       <c r="G30">
-        <v>0.98211845180000001</v>
+        <v>0.97765257849999998</v>
       </c>
       <c r="H30">
-        <v>0.3440172473</v>
+        <v>0.30205302480000001</v>
       </c>
       <c r="I30">
-        <v>0.80690545309999995</v>
+        <v>0.73617440050000005</v>
       </c>
       <c r="J30">
-        <v>0.5738481567</v>
+        <v>0.51915518839999997</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
@@ -19095,583 +20022,24 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.88989918199999996</v>
-      </c>
-      <c r="E31">
-        <v>0.32234989269999997</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.13772349</v>
-      </c>
-      <c r="G31">
-        <v>0.5326665827</v>
-      </c>
-      <c r="H31">
-        <v>0.7632166829</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.16817280179999999</v>
-      </c>
-      <c r="J31">
-        <v>0.41989323579999999</v>
-      </c>
-      <c r="K31">
-        <v>0.20453094920000001</v>
-      </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0.99226214209999997</v>
-      </c>
-      <c r="E32">
-        <v>0.31156316950000001</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3.8727652999999999E-3</v>
-      </c>
-      <c r="G32">
-        <v>0.53401278990000001</v>
-      </c>
-      <c r="H32">
-        <v>0.39256385649999997</v>
-      </c>
-      <c r="I32">
-        <v>0.93571251470000005</v>
-      </c>
-      <c r="J32">
-        <v>0.30536265550000002</v>
-      </c>
-      <c r="K32">
-        <v>0.78021549550000002</v>
-      </c>
-      <c r="L32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>5.6408285599999997E-2</v>
-      </c>
-      <c r="E33">
-        <v>0.70278868790000004</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4.7036663399999998E-2</v>
-      </c>
-      <c r="G33">
-        <v>0.80994230369999998</v>
-      </c>
-      <c r="H33">
-        <v>3.1799707300000001E-2</v>
-      </c>
-      <c r="I33">
-        <v>0.80227716459999998</v>
-      </c>
-      <c r="J33">
-        <v>0.5826786035</v>
-      </c>
-      <c r="K33">
-        <v>0.13418553529999999</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.66125373759999995</v>
-      </c>
-      <c r="E34">
-        <v>0.1050142674</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.52905201960000003</v>
-      </c>
-      <c r="G34">
-        <v>0.56083777219999997</v>
-      </c>
-      <c r="H34">
-        <v>0.71316055119999999</v>
-      </c>
-      <c r="I34">
-        <v>0.88886482389999999</v>
-      </c>
-      <c r="J34">
-        <v>0.98891782719999999</v>
-      </c>
-      <c r="K34">
-        <v>0.2417145245</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4.4094616999999997E-3</v>
-      </c>
-      <c r="E35">
-        <v>0.24017035680000001</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.34020336439999999</v>
-      </c>
-      <c r="G35">
-        <v>0.66158457029999995</v>
-      </c>
-      <c r="H35">
-        <v>0.1222691848</v>
-      </c>
-      <c r="I35">
-        <v>0.58817670899999996</v>
-      </c>
-      <c r="J35">
-        <v>0.76052505530000003</v>
-      </c>
-      <c r="K35">
-        <v>0.35693475990000001</v>
-      </c>
-      <c r="L35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.49766378880000001</v>
-      </c>
-      <c r="E36">
-        <v>0.20416452239999999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.32248214739999997</v>
-      </c>
-      <c r="G36">
-        <v>0.86824028980000001</v>
-      </c>
-      <c r="H36">
-        <v>0.36400865230000001</v>
-      </c>
-      <c r="I36">
-        <v>0.75678144189999996</v>
-      </c>
-      <c r="J36">
-        <v>0.80053306300000004</v>
-      </c>
-      <c r="K36">
-        <v>0.24847033660000001</v>
-      </c>
-      <c r="L36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.66440503620000002</v>
-      </c>
-      <c r="E37">
-        <v>0.21908066379999999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.3768712448</v>
-      </c>
-      <c r="G37">
-        <v>0.99077017160000003</v>
-      </c>
-      <c r="H37">
-        <v>0.42704256439999999</v>
-      </c>
-      <c r="I37">
-        <v>0.77391566629999997</v>
-      </c>
-      <c r="J37">
-        <v>0.62746104209999998</v>
-      </c>
-      <c r="K37">
-        <v>0.4935891979</v>
-      </c>
-      <c r="L37" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>4.5713409199999999E-2</v>
-      </c>
-      <c r="E38">
-        <v>0.2495774546</v>
-      </c>
-      <c r="F38">
-        <v>0.1126937137</v>
-      </c>
-      <c r="G38">
-        <v>0.6478892383</v>
-      </c>
-      <c r="H38">
-        <v>0.6916591003</v>
-      </c>
-      <c r="I38">
-        <v>0.81081349309999995</v>
-      </c>
-      <c r="J38">
-        <v>0.6786560452</v>
-      </c>
-      <c r="K38">
-        <v>0.50848822159999996</v>
-      </c>
-      <c r="L38">
-        <v>0.54310190719999996</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>9.4878966999999998E-3</v>
-      </c>
-      <c r="E39">
-        <v>0.23487020689999999</v>
-      </c>
-      <c r="F39">
-        <v>7.7837253199999998E-2</v>
-      </c>
-      <c r="G39">
-        <v>0.81097895180000001</v>
-      </c>
-      <c r="H39">
-        <v>0.32331922460000001</v>
-      </c>
-      <c r="I39">
-        <v>0.68653277059999995</v>
-      </c>
-      <c r="J39">
-        <v>0.59983987989999998</v>
-      </c>
-      <c r="K39">
-        <v>0.43006563869999997</v>
-      </c>
-      <c r="L39">
-        <v>0.41670059710000001</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>1.8118870000000001E-4</v>
-      </c>
-      <c r="E40">
-        <v>0.45072217889999999</v>
-      </c>
-      <c r="F40">
-        <v>0.20958120029999999</v>
-      </c>
-      <c r="G40">
-        <v>0.68071403649999995</v>
-      </c>
-      <c r="H40">
-        <v>0.9514263731</v>
-      </c>
-      <c r="I40">
-        <v>0.44242041259999998</v>
-      </c>
-      <c r="J40">
-        <v>0.74410479519999995</v>
-      </c>
-      <c r="K40">
-        <v>0.90382095389999995</v>
-      </c>
-      <c r="L40">
-        <v>0.41970557590000002</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>0.76248551850000001</v>
-      </c>
-      <c r="E41">
-        <v>0.16030998229999999</v>
-      </c>
-      <c r="F41">
-        <v>0.22454846419999999</v>
-      </c>
-      <c r="G41">
-        <v>0.58738139089999997</v>
-      </c>
-      <c r="H41">
-        <v>0.53002942860000002</v>
-      </c>
-      <c r="I41">
-        <v>0.97205252809999998</v>
-      </c>
-      <c r="J41">
-        <v>0.8093778358</v>
-      </c>
-      <c r="K41">
-        <v>0.55639361620000005</v>
-      </c>
-      <c r="L41">
-        <v>0.54341591850000004</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>4.96172374E-2</v>
-      </c>
-      <c r="E42">
-        <v>0.6994770535</v>
-      </c>
-      <c r="F42">
-        <v>0.1199052156</v>
-      </c>
-      <c r="G42">
-        <v>0.72815715599999997</v>
-      </c>
-      <c r="H42">
-        <v>1.51392356E-2</v>
-      </c>
-      <c r="I42">
-        <v>0.8824964421</v>
-      </c>
-      <c r="J42">
-        <v>0.27892696389999999</v>
-      </c>
-      <c r="K42">
-        <v>0.2783425356</v>
-      </c>
-      <c r="L42">
-        <v>0.78708937329999995</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>0.63607754019999996</v>
-      </c>
-      <c r="E43">
-        <v>0.1947199564</v>
-      </c>
-      <c r="F43">
-        <v>0.31028774920000002</v>
-      </c>
-      <c r="G43">
-        <v>0.89641518200000003</v>
-      </c>
-      <c r="H43">
-        <v>0.35866995099999999</v>
-      </c>
-      <c r="I43">
-        <v>0.77200728699999999</v>
-      </c>
-      <c r="J43">
-        <v>0.78469304080000002</v>
-      </c>
-      <c r="K43">
-        <v>0.46508869539999997</v>
-      </c>
-      <c r="L43">
-        <v>0.97424525849999999</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>0.42551176909999999</v>
-      </c>
-      <c r="E44">
-        <v>0.1383240875</v>
-      </c>
-      <c r="F44">
-        <v>0.79288301719999998</v>
-      </c>
-      <c r="G44">
-        <v>0.84749913610000005</v>
-      </c>
-      <c r="H44">
-        <v>0.78250356560000001</v>
-      </c>
-      <c r="I44">
-        <v>0.68628303749999997</v>
-      </c>
-      <c r="J44">
-        <v>0.95477150170000002</v>
-      </c>
-      <c r="K44">
-        <v>0.39826579439999998</v>
-      </c>
-      <c r="L44">
-        <v>0.88033864049999999</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1</v>
-      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G3:K43">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G3:K30">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28089,13 +28457,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E2453B-791A-4A57-BE38-DEF9BE9ECDF0}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28157,16 +28525,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>5.3008399999999999E-19</v>
+        <v>1.4246099999999999E-44</v>
       </c>
       <c r="E3">
-        <v>-0.16223838290000001</v>
+        <v>0.1915551985</v>
       </c>
       <c r="F3" s="1">
-        <v>0.63981435109999996</v>
+        <v>0.35319330230000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.7613599999999998E-9</v>
+        <v>9.4334910000000004E-4</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -28178,7 +28546,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -28198,16 +28566,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>9.4297899999999996E-7</v>
+        <v>3.7039000000000001E-24</v>
       </c>
       <c r="E4">
-        <v>-0.2225051371</v>
+        <v>5.9804255600000002E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.69343380290000001</v>
+        <v>0.83081907249999998</v>
       </c>
       <c r="G4" s="1">
-        <v>5.8892494999999998E-3</v>
+        <v>0.1906410459</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -28219,7 +28587,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
@@ -28239,16 +28607,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2.4701845900000002E-2</v>
+        <v>0.86903427860000004</v>
       </c>
       <c r="E5">
-        <v>0.37418348429999998</v>
+        <v>0.24872915809999999</v>
       </c>
       <c r="F5" s="1">
-        <v>0.53332816100000002</v>
+        <v>0.50002012969999998</v>
       </c>
       <c r="G5" s="1">
-        <v>9.43434514E-2</v>
+        <v>3.9208499999999998E-47</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -28260,7 +28628,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
@@ -28280,16 +28648,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.97144230109999996</v>
+        <v>0.37855516230000003</v>
       </c>
       <c r="E6">
-        <v>0.98687731590000005</v>
+        <v>0.65379432140000004</v>
       </c>
       <c r="F6" s="1">
-        <v>0.67832846820000003</v>
+        <v>0.67171740970000005</v>
       </c>
       <c r="G6" s="1">
-        <v>5.3878899999999998E-6</v>
+        <v>2.2298604600000001E-2</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -28301,7 +28669,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
@@ -28321,16 +28689,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.72146809940000001</v>
+        <v>0.39696030859999998</v>
       </c>
       <c r="E7">
-        <v>0.14726561669999999</v>
+        <v>0.21428349229999999</v>
       </c>
       <c r="F7" s="1">
-        <v>0.847294942</v>
+        <v>0.76212079580000003</v>
       </c>
       <c r="G7" s="1">
-        <v>0.47791305439999998</v>
+        <v>8.5999303599999993E-2</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -28342,7 +28710,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
@@ -28362,16 +28730,16 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.14170539770000001</v>
+        <v>0.18489990670000001</v>
       </c>
       <c r="E8">
-        <v>0.75782483290000002</v>
+        <v>-0.38445832050000001</v>
       </c>
       <c r="F8" s="1">
-        <v>0.65559131680000005</v>
+        <v>0.91209431829999998</v>
       </c>
       <c r="G8" s="1">
-        <v>1.2539399999999999E-31</v>
+        <v>0.27846494459999999</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -28383,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
@@ -28403,16 +28771,16 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0.34190544899999997</v>
+        <v>0.15716229709999999</v>
       </c>
       <c r="E9">
-        <v>-0.26075135469999999</v>
+        <v>-1.2104379670000001</v>
       </c>
       <c r="F9">
-        <v>0.77372583360000002</v>
+        <v>0.67043707279999998</v>
       </c>
       <c r="G9" s="1">
-        <v>0.17304174589999999</v>
+        <v>0.4918386294</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -28424,7 +28792,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
@@ -28444,19 +28812,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>2.37225E-19</v>
+        <v>2.0093700000000001E-8</v>
       </c>
       <c r="E10">
-        <v>-0.1024065696</v>
+        <v>0.64564298909999995</v>
       </c>
       <c r="F10" s="1">
-        <v>0.48725639910000001</v>
+        <v>0.43373558020000003</v>
       </c>
       <c r="G10" s="1">
-        <v>3.7580181000000002E-3</v>
+        <v>0.1200850656</v>
       </c>
       <c r="H10">
-        <v>0.24936029579999999</v>
+        <v>7.7339677699999998E-2</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -28465,7 +28833,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
@@ -28485,19 +28853,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.5645000000000002E-15</v>
+        <v>8.8242900000000005E-35</v>
       </c>
       <c r="E11">
-        <v>9.5722530000000002E-4</v>
+        <v>0.1618555264</v>
       </c>
       <c r="F11" s="1">
-        <v>0.99807866810000001</v>
+        <v>0.50464979099999996</v>
       </c>
       <c r="G11">
-        <v>0.40054851689999998</v>
+        <v>0.71455579520000001</v>
       </c>
       <c r="H11">
-        <v>0.72122970139999998</v>
+        <v>0.78495861710000003</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -28506,7 +28874,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
@@ -28526,19 +28894,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.34821974210000001</v>
+        <v>0.85096729979999997</v>
       </c>
       <c r="E12">
-        <v>0.46252031580000003</v>
+        <v>0.3764569304</v>
       </c>
       <c r="F12" s="1">
-        <v>0.55041671039999995</v>
+        <v>0.90907085700000001</v>
       </c>
       <c r="G12">
-        <v>0.2630877606</v>
+        <v>0.87631797020000002</v>
       </c>
       <c r="H12">
-        <v>0.6858041037</v>
+        <v>0.96184378370000001</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -28547,7 +28915,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
@@ -28567,19 +28935,19 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>0.833266909</v>
+        <v>0.9854586125</v>
       </c>
       <c r="E13">
-        <v>0.39877852279999998</v>
+        <v>-0.27413467619999998</v>
       </c>
       <c r="F13" s="1">
-        <v>0.51212959400000002</v>
+        <v>0.84151265890000004</v>
       </c>
       <c r="G13">
-        <v>0.86330304550000003</v>
+        <v>0.1309371091</v>
       </c>
       <c r="H13">
-        <v>0.76486379019999995</v>
+        <v>0.55739704850000005</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -28588,7 +28956,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
@@ -28608,19 +28976,19 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.53453112660000002</v>
+        <v>2.3408644900000001E-2</v>
       </c>
       <c r="E14">
-        <v>-4.9387587099999998E-2</v>
+        <v>0.11264844609999999</v>
       </c>
       <c r="F14" s="1">
-        <v>0.98958567099999994</v>
+        <v>0.95827497770000003</v>
       </c>
       <c r="G14">
-        <v>0.89876294619999997</v>
+        <v>0.62559535700000002</v>
       </c>
       <c r="H14">
-        <v>0.97314071440000005</v>
+        <v>0.66205170290000004</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -28629,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
@@ -28649,19 +29017,19 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>0.76072412759999997</v>
+        <v>0.9197056737</v>
       </c>
       <c r="E15">
-        <v>-0.16889880130000001</v>
+        <v>-0.51195870610000005</v>
       </c>
       <c r="F15" s="1">
-        <v>0.83553526</v>
+        <v>0.92143720819999997</v>
       </c>
       <c r="G15">
-        <v>0.28502463150000001</v>
+        <v>1.1416019E-3</v>
       </c>
       <c r="H15">
-        <v>0.7003559224</v>
+        <v>0.25571629870000001</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -28670,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>0</v>
@@ -28690,19 +29058,19 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0.21293885039999999</v>
+        <v>0.96938386369999996</v>
       </c>
       <c r="E16">
-        <v>-0.26131585969999999</v>
+        <v>-0.3081841984</v>
       </c>
       <c r="F16">
-        <v>0.7158739865</v>
+        <v>0.7896246281</v>
       </c>
       <c r="G16">
-        <v>0.50926514119999999</v>
+        <v>0.1259396743</v>
       </c>
       <c r="H16">
-        <v>0.99778563919999996</v>
+        <v>0.45646852020000001</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -28711,7 +29079,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>0</v>
@@ -28731,28 +29099,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>2.5946956399999999E-2</v>
+        <v>2.2890214000000002E-3</v>
       </c>
       <c r="E17">
-        <v>0.99530588409999998</v>
+        <v>0.9471058296</v>
       </c>
       <c r="F17" s="1">
-        <v>0.54846878470000004</v>
+        <v>0.43540738099999998</v>
       </c>
       <c r="G17">
-        <v>0.29333327770000001</v>
+        <v>0.19237931829999999</v>
       </c>
       <c r="H17">
-        <v>5.1542097100000003E-2</v>
+        <v>5.4155914100000001E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>0.6813745216</v>
+        <v>0.46497723010000003</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>0</v>
@@ -28771,29 +29139,29 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
+      <c r="D18" s="1">
+        <v>1.08837E-13</v>
+      </c>
+      <c r="E18">
+        <v>0.2518490082</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.45991928199999998</v>
+      </c>
+      <c r="G18">
+        <v>0.76438128750000001</v>
+      </c>
+      <c r="H18">
+        <v>0.96761164560000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.39839920109999999</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>0</v>
@@ -28813,28 +29181,28 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>1.0940199999999999E-9</v>
+        <v>0.94160290189999996</v>
       </c>
       <c r="E19">
-        <v>-9.4038548099999994E-2</v>
+        <v>-6.83756056E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>0.89301102210000005</v>
+        <v>0.93851588490000004</v>
       </c>
       <c r="G19">
-        <v>0.75712125880000003</v>
+        <v>0.58125296689999995</v>
       </c>
       <c r="H19">
-        <v>0.63812433589999995</v>
+        <v>0.78308955869999997</v>
       </c>
       <c r="I19">
-        <v>0.4669843743</v>
+        <v>0.72585259469999996</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>0</v>
@@ -28854,28 +29222,28 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>0.33612229370000002</v>
+        <v>2.2700039999999999E-3</v>
       </c>
       <c r="E20">
-        <v>-2.3085963000000001E-2</v>
+        <v>0.63764861179999999</v>
       </c>
       <c r="F20" s="1">
-        <v>0.97965073309999995</v>
+        <v>0.83460278880000005</v>
       </c>
       <c r="G20">
-        <v>0.33621682269999997</v>
+        <v>0.67033124420000001</v>
       </c>
       <c r="H20">
-        <v>0.76638359889999996</v>
+        <v>0.9638059041</v>
       </c>
       <c r="I20">
-        <v>0.62330819699999995</v>
+        <v>0.99177507720000002</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>0</v>
@@ -28895,28 +29263,28 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.57517110800000004</v>
+        <v>0.74484923780000001</v>
       </c>
       <c r="E21">
-        <v>-0.87461121009999998</v>
+        <v>-0.1672075767</v>
       </c>
       <c r="F21" s="1">
-        <v>0.77633715179999996</v>
+        <v>0.87796378639999995</v>
       </c>
       <c r="G21">
-        <v>0.13027126380000001</v>
+        <v>5.0974238400000003E-2</v>
       </c>
       <c r="H21">
-        <v>0.50698493170000003</v>
+        <v>0.93049510820000003</v>
       </c>
       <c r="I21">
-        <v>0.65338906699999999</v>
+        <v>0.83219355790000005</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>0</v>
@@ -28936,28 +29304,28 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>0.70717569280000003</v>
+        <v>0.97246216050000001</v>
       </c>
       <c r="E22">
-        <v>-0.17822391500000001</v>
+        <v>-7.6214510200000002E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>0.85001921579999995</v>
+        <v>0.96865825589999999</v>
       </c>
       <c r="G22">
-        <v>0.62653440839999996</v>
+        <v>0.36100709380000001</v>
       </c>
       <c r="H22">
-        <v>0.97504778069999998</v>
+        <v>0.96042285709999997</v>
       </c>
       <c r="I22">
-        <v>0.886482047</v>
+        <v>0.82556991430000004</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>0</v>
@@ -28977,28 +29345,28 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>0.46695792889999999</v>
+        <v>5.9895985200000001E-2</v>
       </c>
       <c r="E23">
-        <v>-0.22634238409999999</v>
+        <v>-0.15750135239999999</v>
       </c>
       <c r="F23" s="1">
-        <v>0.8240476981</v>
+        <v>0.88632278409999998</v>
       </c>
       <c r="G23">
-        <v>0.70629147680000004</v>
+        <v>0.57925594540000003</v>
       </c>
       <c r="H23">
-        <v>0.93681711249999999</v>
+        <v>0.86597040380000001</v>
       </c>
       <c r="I23">
-        <v>0.97444689939999996</v>
+        <v>0.61876991739999998</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>0</v>
@@ -29017,29 +29385,29 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>0</v>
+      <c r="D24" s="1">
+        <v>3.5410874000000002E-3</v>
+      </c>
+      <c r="E24">
+        <v>0.87849835489999994</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.31495200089999997</v>
+      </c>
+      <c r="G24">
+        <v>0.12584953109999999</v>
+      </c>
+      <c r="H24">
+        <v>8.1141517299999993E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.4147697548</v>
+      </c>
+      <c r="J24">
+        <v>0.67744636329999997</v>
       </c>
       <c r="K24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>0</v>
@@ -29059,28 +29427,28 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.77217532010000001</v>
+        <v>0.58567695009999998</v>
       </c>
       <c r="E25">
-        <v>0.12864483409999999</v>
+        <v>0.62813618319999998</v>
       </c>
       <c r="F25" s="1">
-        <v>0.97601405829999999</v>
+        <v>0.80157170160000002</v>
       </c>
       <c r="G25">
-        <v>0.96425049230000004</v>
+        <v>0.39880155119999999</v>
       </c>
       <c r="H25">
-        <v>0.99843052310000002</v>
+        <v>0.95077791730000005</v>
       </c>
       <c r="I25">
-        <v>0.86553195579999997</v>
+        <v>0.85793504070000004</v>
       </c>
       <c r="J25">
-        <v>0.7989268048</v>
+        <v>0.42693246099999999</v>
       </c>
       <c r="K25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>0</v>
@@ -29100,28 +29468,28 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>1.2222200500000001E-2</v>
+        <v>6.7769424100000003E-2</v>
       </c>
       <c r="E26">
-        <v>7.9126990499999994E-2</v>
+        <v>0.68675279</v>
       </c>
       <c r="F26" s="1">
-        <v>0.92264276119999999</v>
+        <v>0.83270130399999998</v>
       </c>
       <c r="G26">
-        <v>0.81811112519999996</v>
+        <v>0.51846170189999996</v>
       </c>
       <c r="H26">
-        <v>0.71312944010000001</v>
+        <v>0.8174761934</v>
       </c>
       <c r="I26">
-        <v>0.6442885854</v>
+        <v>0.9037545843</v>
       </c>
       <c r="J26">
-        <v>0.88490181800000001</v>
+        <v>0.96992695230000003</v>
       </c>
       <c r="K26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>0</v>
@@ -29141,28 +29509,28 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.58909906150000002</v>
+        <v>0.90562004409999997</v>
       </c>
       <c r="E27">
-        <v>0.1183603221</v>
+        <v>-0.45269961689999999</v>
       </c>
       <c r="F27" s="1">
-        <v>0.82300010609999996</v>
+        <v>0.81469164829999996</v>
       </c>
       <c r="G27">
-        <v>0.99599476529999997</v>
+        <v>0.66275413719999998</v>
       </c>
       <c r="H27">
-        <v>0.83662955370000003</v>
+        <v>0.75168672329999997</v>
       </c>
       <c r="I27">
-        <v>0.98640542170000001</v>
+        <v>0.77054511250000002</v>
       </c>
       <c r="J27">
-        <v>0.91683436240000005</v>
+        <v>0.87650068270000003</v>
       </c>
       <c r="K27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>0</v>
@@ -29182,28 +29550,28 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>0.80056776959999998</v>
+        <v>0.50586974039999999</v>
       </c>
       <c r="E28">
-        <v>-0.44455539199999999</v>
+        <v>-0.17241137149999999</v>
       </c>
       <c r="F28" s="1">
-        <v>0.63185855849999994</v>
+        <v>0.86878087540000004</v>
       </c>
       <c r="G28">
-        <v>0.2042129124</v>
+        <v>6.8248695200000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.56971305059999999</v>
+        <v>0.91365950620000003</v>
       </c>
       <c r="I28">
-        <v>0.58837209660000001</v>
+        <v>0.93147662740000003</v>
       </c>
       <c r="J28">
-        <v>0.6575771265</v>
+        <v>0.90666899960000003</v>
       </c>
       <c r="K28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
@@ -29223,28 +29591,28 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0.2103472254</v>
+        <v>0.88134629050000002</v>
       </c>
       <c r="E29">
-        <v>0.58179709469999996</v>
+        <v>0.85312088450000001</v>
       </c>
       <c r="F29" s="1">
-        <v>0.61277269999999995</v>
+        <v>0.60145625250000001</v>
       </c>
       <c r="G29">
-        <v>0.55930070499999995</v>
+        <v>0.91125453229999998</v>
       </c>
       <c r="H29">
-        <v>0.98518950139999995</v>
+        <v>0.88837918680000005</v>
       </c>
       <c r="I29">
-        <v>0.46849544430000001</v>
+        <v>0.95860828389999997</v>
       </c>
       <c r="J29">
-        <v>0.61349890350000003</v>
+        <v>0.92883397749999996</v>
       </c>
       <c r="K29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>0</v>
@@ -29264,28 +29632,28 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>0.94271757820000002</v>
+        <v>0.99169714149999999</v>
       </c>
       <c r="E30">
-        <v>0.1440315798</v>
+        <v>0.26616072460000001</v>
       </c>
       <c r="F30" s="1">
-        <v>0.95873198420000005</v>
+        <v>0.88821826829999995</v>
       </c>
       <c r="G30">
-        <v>0.98224300779999996</v>
+        <v>0.86236216470000004</v>
       </c>
       <c r="H30">
-        <v>0.98571288209999997</v>
+        <v>0.93649551009999998</v>
       </c>
       <c r="I30">
-        <v>0.89541200070000004</v>
+        <v>0.67777107380000001</v>
       </c>
       <c r="J30">
-        <v>0.96694892369999996</v>
+        <v>0.50279144070000004</v>
       </c>
       <c r="K30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>0</v>
@@ -29295,583 +29663,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.95782392810000005</v>
-      </c>
-      <c r="E31">
-        <v>0.12850701070000001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.99822686849999998</v>
-      </c>
-      <c r="G31">
-        <v>0.9961591259</v>
-      </c>
-      <c r="H31">
-        <v>0.98296107509999997</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.97924552450000002</v>
-      </c>
-      <c r="J31">
-        <v>0.97909887279999996</v>
-      </c>
-      <c r="K31">
-        <v>0.99659997840000003</v>
-      </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0.20111736259999999</v>
-      </c>
-      <c r="E32">
-        <v>7.4533163799999996E-2</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.90931228019999999</v>
-      </c>
-      <c r="G32">
-        <v>0.8241516485</v>
-      </c>
-      <c r="H32">
-        <v>0.95046275540000003</v>
-      </c>
-      <c r="I32">
-        <v>0.5548245571</v>
-      </c>
-      <c r="J32">
-        <v>0.83616377760000005</v>
-      </c>
-      <c r="K32">
-        <v>0.93497580749999998</v>
-      </c>
-      <c r="L32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>2.72599E-5</v>
-      </c>
-      <c r="E33">
-        <v>8.6097560099999998E-2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.86646123900000005</v>
-      </c>
-      <c r="G33">
-        <v>0.76118321010000001</v>
-      </c>
-      <c r="H33">
-        <v>0.65347359660000004</v>
-      </c>
-      <c r="I33">
-        <v>0.55208519570000003</v>
-      </c>
-      <c r="J33">
-        <v>0.87161899060000003</v>
-      </c>
-      <c r="K33">
-        <v>0.73360007100000002</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.96037271700000004</v>
-      </c>
-      <c r="E34">
-        <v>-0.13188257049999999</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.80993842959999995</v>
-      </c>
-      <c r="G34">
-        <v>0.83416364379999997</v>
-      </c>
-      <c r="H34">
-        <v>0.81192333319999999</v>
-      </c>
-      <c r="I34">
-        <v>0.78159950820000001</v>
-      </c>
-      <c r="J34">
-        <v>0.66012528199999998</v>
-      </c>
-      <c r="K34">
-        <v>0.52729290640000004</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>0.68922678199999998</v>
-      </c>
-      <c r="E35">
-        <v>0.19679374150000001</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.6064142549</v>
-      </c>
-      <c r="G35">
-        <v>0.93452530779999998</v>
-      </c>
-      <c r="H35">
-        <v>0.94788627879999998</v>
-      </c>
-      <c r="I35">
-        <v>0.67621106580000001</v>
-      </c>
-      <c r="J35">
-        <v>0.84440287800000002</v>
-      </c>
-      <c r="K35">
-        <v>0.84173220609999999</v>
-      </c>
-      <c r="L35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>0.87555830290000003</v>
-      </c>
-      <c r="E36">
-        <v>-0.20821899159999999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.82859757420000002</v>
-      </c>
-      <c r="G36">
-        <v>0.6316745453</v>
-      </c>
-      <c r="H36">
-        <v>0.88199664519999998</v>
-      </c>
-      <c r="I36">
-        <v>0.93832297649999996</v>
-      </c>
-      <c r="J36">
-        <v>0.87333767709999999</v>
-      </c>
-      <c r="K36">
-        <v>0.864135443</v>
-      </c>
-      <c r="L36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>0.22739491519999999</v>
-      </c>
-      <c r="E37">
-        <v>-0.14398962109999999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.9171762457</v>
-      </c>
-      <c r="G37">
-        <v>0.64220705950000001</v>
-      </c>
-      <c r="H37">
-        <v>0.93245524999999996</v>
-      </c>
-      <c r="I37">
-        <v>0.90302796590000001</v>
-      </c>
-      <c r="J37">
-        <v>0.86365103850000002</v>
-      </c>
-      <c r="K37">
-        <v>0.88854241160000003</v>
-      </c>
-      <c r="L37" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1.06426E-5</v>
-      </c>
-      <c r="E38">
-        <v>0.31309343480000001</v>
-      </c>
-      <c r="F38">
-        <v>0.79459531169999997</v>
-      </c>
-      <c r="G38">
-        <v>0.8259564962</v>
-      </c>
-      <c r="H38">
-        <v>0.84328357170000001</v>
-      </c>
-      <c r="I38">
-        <v>0.35121590409999998</v>
-      </c>
-      <c r="J38">
-        <v>0.80044635200000003</v>
-      </c>
-      <c r="K38">
-        <v>0.79364162530000004</v>
-      </c>
-      <c r="L38">
-        <v>0.74192287339999996</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0.910806542</v>
-      </c>
-      <c r="E39">
-        <v>0.40833004579999999</v>
-      </c>
-      <c r="F39">
-        <v>0.73872252530000004</v>
-      </c>
-      <c r="G39">
-        <v>0.7994947765</v>
-      </c>
-      <c r="H39">
-        <v>0.81499728339999999</v>
-      </c>
-      <c r="I39">
-        <v>0.39031820270000001</v>
-      </c>
-      <c r="J39">
-        <v>0.75749539809999999</v>
-      </c>
-      <c r="K39">
-        <v>0.70203824579999996</v>
-      </c>
-      <c r="L39">
-        <v>0.74974709169999998</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>3.8516158699999997E-2</v>
-      </c>
-      <c r="E40">
-        <v>0.21843196549999999</v>
-      </c>
-      <c r="F40">
-        <v>0.34889000730000003</v>
-      </c>
-      <c r="G40">
-        <v>0.93302207209999999</v>
-      </c>
-      <c r="H40">
-        <v>0.4134349725</v>
-      </c>
-      <c r="I40">
-        <v>0.39384139750000002</v>
-      </c>
-      <c r="J40">
-        <v>0.8000081711</v>
-      </c>
-      <c r="K40">
-        <v>0.52791724169999998</v>
-      </c>
-      <c r="L40">
-        <v>0.59622019189999997</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>0.32674344919999998</v>
-      </c>
-      <c r="E41">
-        <v>0.2065841803</v>
-      </c>
-      <c r="F41">
-        <v>0.359921033</v>
-      </c>
-      <c r="G41">
-        <v>0.99394087259999997</v>
-      </c>
-      <c r="H41">
-        <v>0.96221935020000005</v>
-      </c>
-      <c r="I41">
-        <v>0.86080713890000005</v>
-      </c>
-      <c r="J41">
-        <v>0.78337204120000004</v>
-      </c>
-      <c r="K41">
-        <v>0.82509163519999995</v>
-      </c>
-      <c r="L41">
-        <v>0.56853807160000003</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>0.77992610299999998</v>
-      </c>
-      <c r="E42">
-        <v>0.24065970440000001</v>
-      </c>
-      <c r="F42">
-        <v>0.3815488883</v>
-      </c>
-      <c r="G42">
-        <v>0.9431175893</v>
-      </c>
-      <c r="H42">
-        <v>0.96272484989999996</v>
-      </c>
-      <c r="I42">
-        <v>0.8440608315</v>
-      </c>
-      <c r="J42">
-        <v>0.87219045480000001</v>
-      </c>
-      <c r="K42">
-        <v>0.86683099549999998</v>
-      </c>
-      <c r="L42">
-        <v>0.79623840609999996</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>0.82230939359999999</v>
-      </c>
-      <c r="E43">
-        <v>0.31643871600000001</v>
-      </c>
-      <c r="F43">
-        <v>0.5721709304</v>
-      </c>
-      <c r="G43">
-        <v>0.82646072940000004</v>
-      </c>
-      <c r="H43">
-        <v>0.87089790850000004</v>
-      </c>
-      <c r="I43">
-        <v>0.62979361160000003</v>
-      </c>
-      <c r="J43">
-        <v>0.74893610649999998</v>
-      </c>
-      <c r="K43">
-        <v>0.89872091610000004</v>
-      </c>
-      <c r="L43">
-        <v>0.69788979829999997</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>0.82458629989999999</v>
-      </c>
-      <c r="E44">
-        <v>0.38344111310000001</v>
-      </c>
-      <c r="F44">
-        <v>0.97430228510000005</v>
-      </c>
-      <c r="G44">
-        <v>0.99002101730000003</v>
-      </c>
-      <c r="H44">
-        <v>0.95180702829999997</v>
-      </c>
-      <c r="I44">
-        <v>0.97829317810000005</v>
-      </c>
-      <c r="J44">
-        <v>0.99984103130000002</v>
-      </c>
-      <c r="K44">
-        <v>0.95169101219999996</v>
-      </c>
-      <c r="L44">
-        <v>0.9080410257</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1</v>
-      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G3:K30">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31664,7 +31464,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33457,7 +33257,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35251,7 +35051,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37044,7 +36844,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37056,18 +36856,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AE06CC-B6DE-45F9-827A-78B1E7FBC52B}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -37100,7 +36900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -37113,7 +36913,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -37124,16 +36924,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4.8685500000000002E-22</v>
+        <v>7.13242E-12</v>
       </c>
       <c r="E3">
-        <v>0.38802967729999999</v>
+        <v>0.33177881539999998</v>
       </c>
       <c r="F3" s="1">
-        <v>5.5939130000000001E-4</v>
+        <v>4.02056E-5</v>
       </c>
       <c r="G3" s="1">
-        <v>2.8086220000000001E-4</v>
+        <v>8.3027119699999999E-2</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -37148,10 +36948,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -37161,17 +36964,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1.1470192000000001E-3</v>
+      <c r="D4" s="1">
+        <v>7.8315500000000001E-13</v>
       </c>
       <c r="E4">
-        <v>0.18850828920000001</v>
+        <v>0.36054980269999998</v>
       </c>
       <c r="F4" s="1">
-        <v>0.85495350120000002</v>
+        <v>5.6865899999999998E-7</v>
       </c>
       <c r="G4" s="1">
-        <v>7.5847656400000005E-2</v>
+        <v>0.95808087789999996</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -37186,10 +36989,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -37200,16 +37006,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2.7514571000000002E-3</v>
+        <v>0.64651877440000005</v>
       </c>
       <c r="E5">
-        <v>0.53463786599999996</v>
+        <v>0.44019933880000001</v>
       </c>
       <c r="F5" s="1">
-        <v>0.46760984150000001</v>
+        <v>0.3203395832</v>
       </c>
       <c r="G5">
-        <v>9.4261074799999997E-2</v>
+        <v>0.10842487739999999</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -37224,10 +37030,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -37237,17 +37046,17 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>0.1463073486</v>
+      <c r="D6" s="1">
+        <v>1.7598900000000001E-11</v>
       </c>
       <c r="E6">
-        <v>-0.58233225099999997</v>
+        <v>0.32355971259999999</v>
       </c>
       <c r="F6">
-        <v>0.27362331750000002</v>
+        <v>3.2970863E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>4.12409E-19</v>
+        <v>0.88192912440000004</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -37262,10 +37071,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -37276,16 +37088,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>1.28906E-17</v>
+        <v>6.1602099999999997E-12</v>
       </c>
       <c r="E7">
-        <v>0.47875905819999998</v>
+        <v>0.33216264909999998</v>
       </c>
       <c r="F7" s="1">
-        <v>1.48060964E-2</v>
+        <v>1.3135649999999999E-4</v>
       </c>
       <c r="G7" s="1">
-        <v>0.33851552039999999</v>
+        <v>0.91703169620000002</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -37300,10 +37112,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -37314,16 +37129,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>1.9574399999999998E-21</v>
+        <v>3.8034700000000001E-6</v>
       </c>
       <c r="E8">
-        <v>0.34801611719999997</v>
+        <v>0.29770006110000002</v>
       </c>
       <c r="F8" s="1">
-        <v>1.46232111E-2</v>
+        <v>2.3140779999999999E-4</v>
       </c>
       <c r="G8" s="1">
-        <v>0.36532604340000002</v>
+        <v>0.35935878399999999</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -37338,10 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -37352,16 +37170,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>2.5934793000000001E-2</v>
+        <v>3.0873776499999998E-2</v>
       </c>
       <c r="E9">
-        <v>-0.33169557290000001</v>
+        <v>0.25958620869999999</v>
       </c>
       <c r="F9">
-        <v>0.85543249210000005</v>
+        <v>1.6940278999999999E-3</v>
       </c>
       <c r="G9" s="1">
-        <v>1.6780537700000001E-2</v>
+        <v>0.26859757649999999</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -37376,10 +37194,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -37390,19 +37211,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>6.2650999999999997E-17</v>
+        <v>6.5329499999999999E-12</v>
       </c>
       <c r="E10">
-        <v>0.38579900490000002</v>
+        <v>0.3463977902</v>
       </c>
       <c r="F10" s="1">
-        <v>6.5366050699999997E-2</v>
+        <v>3.8062E-8</v>
       </c>
       <c r="G10" s="1">
-        <v>0.1152907465</v>
+        <v>6.8309463200000003E-2</v>
       </c>
       <c r="H10">
-        <v>0.24582367720000001</v>
+        <v>0.4525271468</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -37414,10 +37235,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -37428,19 +37252,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.5557299999999998E-9</v>
+        <v>1.14192E-12</v>
       </c>
       <c r="E11">
-        <v>0.25718793239999999</v>
+        <v>0.3618539053</v>
       </c>
       <c r="F11" s="1">
-        <v>0.61715570289999999</v>
+        <v>8.5108399999999997E-7</v>
       </c>
       <c r="G11">
-        <v>0.57390708989999994</v>
+        <v>0.97203251729999995</v>
       </c>
       <c r="H11">
-        <v>0.44815533320000001</v>
+        <v>0.90503102020000004</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -37452,10 +37276,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -37466,19 +37293,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>6.4264369999999995E-4</v>
+        <v>0.90460321089999995</v>
       </c>
       <c r="E12">
-        <v>0.25448641459999999</v>
+        <v>0.69515554980000005</v>
       </c>
       <c r="F12" s="1">
-        <v>0.83420105280000001</v>
+        <v>0.62790962959999996</v>
       </c>
       <c r="G12">
-        <v>0.99038670510000004</v>
+        <v>0.59632694090000005</v>
       </c>
       <c r="H12">
-        <v>0.61771334580000004</v>
+        <v>0.84936388939999996</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -37490,10 +37317,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -37504,19 +37334,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>2.4621999999999999E-7</v>
+        <v>8.1186989999999998E-4</v>
       </c>
       <c r="E13">
-        <v>0.12187601200000001</v>
+        <v>0.17722100900000001</v>
       </c>
       <c r="F13" s="1">
-        <v>0.67608486680000002</v>
+        <v>0.62569317400000002</v>
       </c>
       <c r="G13">
-        <v>0.50862399390000002</v>
+        <v>0.93572279920000001</v>
       </c>
       <c r="H13">
-        <v>8.2065099599999997E-2</v>
+        <v>0.52086426890000004</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -37528,10 +37358,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -37542,19 +37375,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>9.26603E-8</v>
+        <v>8.3163577000000006E-3</v>
       </c>
       <c r="E14">
-        <v>0.1193611646</v>
+        <v>8.8059514399999997E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>0.80383454210000005</v>
+        <v>0.8341757984</v>
       </c>
       <c r="G14">
-        <v>0.36015744350000001</v>
+        <v>0.46372063769999999</v>
       </c>
       <c r="H14">
-        <v>1.87165673E-2</v>
+        <v>0.15681793520000001</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -37566,10 +37399,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -37580,19 +37416,19 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>0.98924054819999996</v>
+        <v>0.9922856189</v>
       </c>
       <c r="E15">
-        <v>1.9846823499999999</v>
+        <v>-0.56313256270000001</v>
       </c>
       <c r="F15" s="1">
-        <v>0.4529038232</v>
+        <v>0.67596783260000004</v>
       </c>
       <c r="G15">
-        <v>0.98473801859999999</v>
+        <v>0.51257187569999996</v>
       </c>
       <c r="H15">
-        <v>0.20152076460000001</v>
+        <v>0.172919513</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -37604,10 +37440,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -37618,19 +37457,19 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>4.3125016E-3</v>
+        <v>1.96226831E-2</v>
       </c>
       <c r="E16">
-        <v>7.3183458899999998E-2</v>
+        <v>0.30019959569999999</v>
       </c>
       <c r="F16" s="1">
-        <v>0.96866671029999996</v>
+        <v>1.713168E-4</v>
       </c>
       <c r="G16">
-        <v>0.45298498749999999</v>
+        <v>0.53618980829999996</v>
       </c>
       <c r="H16">
-        <v>0.49184328109999997</v>
+        <v>0.63771897460000004</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -37642,10 +37481,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -37656,22 +37498,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1.38967E-11</v>
+        <v>4.9836099999999997E-11</v>
       </c>
       <c r="E17">
-        <v>0.31280207519999997</v>
+        <v>0.33739827160000002</v>
       </c>
       <c r="F17" s="1">
-        <v>0.57446116989999996</v>
+        <v>5.49527E-5</v>
       </c>
       <c r="G17">
-        <v>0.44209276650000001</v>
+        <v>7.2258037799999994E-2</v>
       </c>
       <c r="H17">
-        <v>0.4980176</v>
+        <v>0.34472384830000002</v>
       </c>
       <c r="I17" s="1">
-        <v>0.66205985779999998</v>
+        <v>0.83385837979999999</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -37680,10 +37522,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -37694,22 +37539,22 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.85929114929999995</v>
+        <v>0.95083115809999996</v>
       </c>
       <c r="E18">
-        <v>0.2475513174</v>
+        <v>0.59916895650000002</v>
       </c>
       <c r="F18" s="1">
-        <v>0.99122986390000001</v>
+        <v>0.70074444609999997</v>
       </c>
       <c r="G18">
-        <v>0.9929046561</v>
+        <v>0.60380565919999996</v>
       </c>
       <c r="H18">
-        <v>0.98520476489999997</v>
+        <v>0.79391732800000003</v>
       </c>
       <c r="I18" s="1">
-        <v>0.96701475920000002</v>
+        <v>0.92666220749999995</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -37718,10 +37563,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -37732,22 +37580,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0.79541156339999997</v>
+        <v>0.91868375599999996</v>
       </c>
       <c r="E19">
-        <v>2.2744845400000002E-2</v>
+        <v>0.96015389949999996</v>
       </c>
       <c r="F19" s="1">
-        <v>0.95658312050000005</v>
+        <v>0.21145458650000001</v>
       </c>
       <c r="G19">
-        <v>0.37851842759999998</v>
+        <v>0.81555042150000001</v>
       </c>
       <c r="H19">
-        <v>0.25233581049999998</v>
+        <v>0.92480021859999995</v>
       </c>
       <c r="I19">
-        <v>0.31074694289999999</v>
+        <v>0.97836989640000005</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -37756,10 +37604,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -37770,22 +37621,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.81382647870000002</v>
+        <v>1.1706949999999999E-4</v>
       </c>
       <c r="E20">
-        <v>-0.34054449549999999</v>
+        <v>0.23877707519999999</v>
       </c>
       <c r="F20" s="1">
-        <v>0.58158907309999996</v>
+        <v>0.32267974869999999</v>
       </c>
       <c r="G20">
-        <v>0.66237569679999997</v>
+        <v>0.439213668</v>
       </c>
       <c r="H20">
-        <v>7.5137749700000006E-2</v>
+        <v>0.39366254179999999</v>
       </c>
       <c r="I20">
-        <v>0.30887452599999998</v>
+        <v>0.81959496649999997</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -37794,10 +37645,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -37808,22 +37662,22 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.71993186180000002</v>
+        <v>7.4527500199999999E-2</v>
       </c>
       <c r="E21">
-        <v>1.5612886610000001</v>
+        <v>-1.88319227E-2</v>
       </c>
       <c r="F21" s="1">
-        <v>0.18291992330000001</v>
+        <v>0.96664011979999998</v>
       </c>
       <c r="G21">
-        <v>0.29626286689999998</v>
+        <v>0.57997343040000005</v>
       </c>
       <c r="H21">
-        <v>8.59250186E-2</v>
+        <v>7.6310204100000001E-2</v>
       </c>
       <c r="I21">
-        <v>0.38665995930000002</v>
+        <v>0.89061257680000006</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -37832,10 +37686,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -37846,22 +37703,22 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>2.51162833E-2</v>
+        <v>5.8243951E-3</v>
       </c>
       <c r="E22">
-        <v>0.6101857919</v>
+        <v>0.1180564885</v>
       </c>
       <c r="F22" s="1">
-        <v>0.56462341390000004</v>
+        <v>0.80101615800000003</v>
       </c>
       <c r="G22">
-        <v>0.93513345969999995</v>
+        <v>0.68201222100000003</v>
       </c>
       <c r="H22">
-        <v>8.8449165400000002E-2</v>
+        <v>0.7317803813</v>
       </c>
       <c r="I22">
-        <v>0.82456451009999998</v>
+        <v>0.70752505409999999</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -37870,10 +37727,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -37884,22 +37744,22 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>0.1988227407</v>
+        <v>0.29053957050000001</v>
       </c>
       <c r="E23">
-        <v>-5.9817070600000001E-2</v>
+        <v>0.70798076409999999</v>
       </c>
       <c r="F23" s="1">
-        <v>0.98520399759999999</v>
+        <v>7.5324929099999993E-2</v>
       </c>
       <c r="G23">
-        <v>0.56424736409999998</v>
+        <v>0.70465056820000005</v>
       </c>
       <c r="H23">
-        <v>0.51165602779999997</v>
+        <v>0.29098958050000001</v>
       </c>
       <c r="I23">
-        <v>0.42821360870000003</v>
+        <v>0.35232935329999998</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -37908,10 +37768,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -37921,35 +37784,38 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>3.4191110000000001E-4</v>
+      <c r="D24" s="1">
+        <v>2.8603999999999998E-10</v>
       </c>
       <c r="E24">
-        <v>0.2430106916</v>
+        <v>0.32491270150000001</v>
       </c>
       <c r="F24" s="1">
-        <v>0.24683864119999999</v>
+        <v>3.5557983999999999E-3</v>
       </c>
       <c r="G24">
-        <v>0.53213962989999997</v>
+        <v>8.0200151499999997E-2</v>
       </c>
       <c r="H24">
-        <v>0.15912552399999999</v>
+        <v>0.35991030819999997</v>
       </c>
       <c r="I24" s="1">
-        <v>0.24884082890000001</v>
+        <v>0.8998622315</v>
       </c>
       <c r="J24">
-        <v>0.2909238072</v>
+        <v>0.81478306950000001</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -37960,34 +37826,37 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>5.1522300000000001E-9</v>
+        <v>0.98481341690000002</v>
       </c>
       <c r="E25">
-        <v>0.26999512149999999</v>
+        <v>6.4277284599999998E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>0.51329206299999997</v>
+        <v>0.87077810430000002</v>
       </c>
       <c r="G25">
-        <v>0.67834327210000001</v>
+        <v>0.77558766260000001</v>
       </c>
       <c r="H25">
-        <v>0.1171551898</v>
+        <v>0.88420469800000001</v>
       </c>
       <c r="I25">
-        <v>0.52522926089999999</v>
+        <v>0.60053055300000002</v>
       </c>
       <c r="J25">
-        <v>0.93126364589999999</v>
+        <v>0.74810968720000004</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -37997,35 +37866,38 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>2.035053E-4</v>
+      <c r="D26" s="1">
+        <v>2.23289E-11</v>
       </c>
       <c r="E26">
-        <v>0.4022280895</v>
+        <v>0.38203934779999998</v>
       </c>
       <c r="F26" s="1">
-        <v>0.2247714093</v>
+        <v>2.02464E-8</v>
       </c>
       <c r="G26">
-        <v>0.68507550939999995</v>
+        <v>0.97678828510000004</v>
       </c>
       <c r="H26">
-        <v>0.1402847656</v>
+        <v>0.91129674549999995</v>
       </c>
       <c r="I26">
-        <v>0.73513300839999995</v>
+        <v>0.91239223000000003</v>
       </c>
       <c r="J26">
-        <v>0.41425077360000001</v>
+        <v>0.91399570399999996</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -38036,34 +37908,37 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>1.21152E-5</v>
+        <v>2.8214244E-3</v>
       </c>
       <c r="E27">
-        <v>0.40645616579999999</v>
+        <v>0.12107792320000001</v>
       </c>
       <c r="F27" s="1">
-        <v>8.1092495400000006E-2</v>
+        <v>0.77044403640000003</v>
       </c>
       <c r="G27">
-        <v>0.63537076699999995</v>
+        <v>0.35324746569999999</v>
       </c>
       <c r="H27">
-        <v>0.1590553428</v>
+        <v>0.25267149820000001</v>
       </c>
       <c r="I27">
-        <v>0.84884832109999997</v>
+        <v>0.7743706924</v>
       </c>
       <c r="J27">
-        <v>0.1753199439</v>
+        <v>0.74498404100000004</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -38074,34 +37949,37 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>1.0137086199999999E-2</v>
+        <v>0.4903084768</v>
       </c>
       <c r="E28">
-        <v>0.37839787380000001</v>
+        <v>0.1134904437</v>
       </c>
       <c r="F28" s="1">
-        <v>0.60722964879999997</v>
+        <v>0.72718907580000003</v>
       </c>
       <c r="G28">
-        <v>0.73907830029999999</v>
+        <v>0.57221877619999995</v>
       </c>
       <c r="H28">
-        <v>0.30836693679999999</v>
+        <v>0.53770184050000003</v>
       </c>
       <c r="I28">
-        <v>0.4670086208</v>
+        <v>0.89363944790000005</v>
       </c>
       <c r="J28">
-        <v>0.55538227159999998</v>
+        <v>0.46146656889999998</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -38112,34 +37990,37 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>8.2369400000000001E-6</v>
+        <v>0.39786563580000001</v>
       </c>
       <c r="E29">
-        <v>0.31236611339999998</v>
+        <v>0.66874358330000006</v>
       </c>
       <c r="F29" s="1">
-        <v>0.53675347449999999</v>
+        <v>9.6215125200000001E-2</v>
       </c>
       <c r="G29">
-        <v>0.34566261570000001</v>
+        <v>0.70735670449999999</v>
       </c>
       <c r="H29">
-        <v>0.1407127681</v>
+        <v>0.33443396930000002</v>
       </c>
       <c r="I29">
-        <v>0.84349532910000002</v>
+        <v>0.26666861120000002</v>
       </c>
       <c r="J29">
-        <v>0.73809659120000004</v>
+        <v>0.94594037549999999</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -38150,34 +38031,37 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>0.1633367044</v>
+        <v>1.1048499999999999E-5</v>
       </c>
       <c r="E30">
-        <v>-0.18315275889999999</v>
+        <v>0.33374950869999997</v>
       </c>
       <c r="F30" s="1">
-        <v>0.93410587580000004</v>
+        <v>0.13665144870000001</v>
       </c>
       <c r="G30">
-        <v>0.46533148769999999</v>
+        <v>0.83880373659999996</v>
       </c>
       <c r="H30">
-        <v>0.49999656079999999</v>
+        <v>0.98891499039999997</v>
       </c>
       <c r="I30">
-        <v>0.56611161580000002</v>
+        <v>0.84358142619999998</v>
       </c>
       <c r="J30">
-        <v>0.63233521719999997</v>
+        <v>0.84751271189999999</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -38188,34 +38072,37 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>7.8028099999999994E-8</v>
+        <v>4.2278022499999998E-2</v>
       </c>
       <c r="E31">
-        <v>0.34896343229999999</v>
+        <v>0.1314242732</v>
       </c>
       <c r="F31" s="1">
-        <v>0.59317299339999996</v>
+        <v>0.3553092705</v>
       </c>
       <c r="G31">
-        <v>0.38982698739999999</v>
+        <v>7.5249889599999994E-2</v>
       </c>
       <c r="H31">
-        <v>0.42078145309999998</v>
+        <v>0.73835616370000001</v>
       </c>
       <c r="I31" s="1">
-        <v>0.75998377490000002</v>
+        <v>0.275842802</v>
       </c>
       <c r="J31">
-        <v>0.2617714317</v>
+        <v>0.53299198270000003</v>
       </c>
       <c r="K31">
-        <v>0.43332697539999998</v>
+        <v>0.54698703390000003</v>
       </c>
       <c r="L31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -38225,35 +38112,38 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>0.53308780960000002</v>
+      <c r="D32" s="1">
+        <v>2.2891500000000001E-7</v>
       </c>
       <c r="E32">
-        <v>0.19218624240000001</v>
+        <v>0.32996262199999998</v>
       </c>
       <c r="F32" s="1">
-        <v>0.70323069680000005</v>
+        <v>1.20978124E-2</v>
       </c>
       <c r="G32">
-        <v>0.81043710849999995</v>
+        <v>0.50873557719999996</v>
       </c>
       <c r="H32">
-        <v>0.24872936979999999</v>
+        <v>0.57278365720000002</v>
       </c>
       <c r="I32">
-        <v>0.87548140740000002</v>
+        <v>0.93186643970000005</v>
       </c>
       <c r="J32">
-        <v>0.97602194399999997</v>
+        <v>0.91610776940000005</v>
       </c>
       <c r="K32">
-        <v>0.83241109069999997</v>
+        <v>0.78191998870000001</v>
       </c>
       <c r="L32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -38264,34 +38154,37 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>8.4961299999999996E-5</v>
+        <v>0.24357669509999999</v>
       </c>
       <c r="E33">
-        <v>0.43339957220000003</v>
+        <v>0.28152579370000003</v>
       </c>
       <c r="F33" s="1">
-        <v>0.5077954817</v>
+        <v>0.9578879535</v>
       </c>
       <c r="G33">
-        <v>0.55437775639999998</v>
+        <v>0.86498755270000005</v>
       </c>
       <c r="H33">
-        <v>0.54662867289999995</v>
+        <v>0.89503257179999995</v>
       </c>
       <c r="I33">
-        <v>0.58201935309999997</v>
+        <v>0.99833051129999995</v>
       </c>
       <c r="J33">
-        <v>0.66473810209999995</v>
+        <v>0.98912226120000002</v>
       </c>
       <c r="K33">
-        <v>0.90279161109999995</v>
+        <v>0.9847901805</v>
       </c>
       <c r="L33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -38302,34 +38195,37 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>6.40909E-5</v>
+        <v>0.93253855699999999</v>
       </c>
       <c r="E34">
-        <v>0.3816585253</v>
+        <v>0.70756036909999998</v>
       </c>
       <c r="F34" s="1">
-        <v>0.48836875759999998</v>
+        <v>0.94002603890000003</v>
       </c>
       <c r="G34">
-        <v>0.91401647750000004</v>
+        <v>0.9596636918</v>
       </c>
       <c r="H34">
-        <v>0.94668487000000001</v>
+        <v>0.98317029079999996</v>
       </c>
       <c r="I34">
-        <v>0.92403188479999998</v>
+        <v>0.96856917080000005</v>
       </c>
       <c r="J34">
-        <v>0.96642442669999995</v>
+        <v>0.98865615409999996</v>
       </c>
       <c r="K34">
-        <v>0.90707166409999995</v>
+        <v>0.98751024269999998</v>
       </c>
       <c r="L34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -38340,34 +38236,37 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>5.3041899999999996E-4</v>
+        <v>0.60831801269999997</v>
       </c>
       <c r="E35">
-        <v>0.44938751059999998</v>
+        <v>5.4070847999999998E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>2.96902374E-2</v>
+        <v>0.92306476900000001</v>
       </c>
       <c r="G35">
-        <v>0.36192592220000003</v>
+        <v>0.50103144170000002</v>
       </c>
       <c r="H35">
-        <v>0.46894901160000002</v>
+        <v>0.46369735400000001</v>
       </c>
       <c r="I35">
-        <v>0.4323422173</v>
+        <v>0.89859296259999999</v>
       </c>
       <c r="J35">
-        <v>0.40211253019999998</v>
+        <v>0.3426913949</v>
       </c>
       <c r="K35">
-        <v>0.39140683869999998</v>
+        <v>0.92107400439999998</v>
       </c>
       <c r="L35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -38378,34 +38277,37 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>3.7719757000000001E-3</v>
+        <v>0.66717665660000003</v>
       </c>
       <c r="E36">
-        <v>0.79220530229999997</v>
+        <v>0.13198622130000001</v>
       </c>
       <c r="F36" s="1">
-        <v>0.1943521634</v>
+        <v>0.80636083250000001</v>
       </c>
       <c r="G36">
-        <v>0.118868717</v>
+        <v>0.69406405540000005</v>
       </c>
       <c r="H36">
-        <v>0.2122990062</v>
+        <v>0.96200084929999996</v>
       </c>
       <c r="I36">
-        <v>0.13181630650000001</v>
+        <v>0.43690454299999998</v>
       </c>
       <c r="J36">
-        <v>0.4522528972</v>
+        <v>0.57936974460000001</v>
       </c>
       <c r="K36">
-        <v>0.15634839319999999</v>
+        <v>0.34070101060000002</v>
       </c>
       <c r="L36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -38416,59 +38318,355 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>8.4923032000000006E-3</v>
+        <v>9.34121E-5</v>
       </c>
       <c r="E37">
-        <v>0.3069341807</v>
+        <v>0.2777473453</v>
       </c>
       <c r="F37" s="1">
-        <v>0.825118036</v>
+        <v>0.66620866280000002</v>
       </c>
       <c r="G37">
-        <v>0.1349858954</v>
+        <v>0.99550985219999999</v>
       </c>
       <c r="H37">
-        <v>0.7286745805</v>
+        <v>0.96088824650000004</v>
       </c>
       <c r="I37">
-        <v>0.70972344310000002</v>
+        <v>0.77248635929999998</v>
       </c>
       <c r="J37">
-        <v>0.6835042952</v>
+        <v>0.88925469280000002</v>
       </c>
       <c r="K37">
-        <v>0.23848551409999999</v>
+        <v>0.68110175930000005</v>
       </c>
       <c r="L37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.26340815369999998</v>
+      </c>
+      <c r="E38">
+        <v>0.364144042</v>
+      </c>
+      <c r="F38">
+        <v>3.8988483099999999E-2</v>
+      </c>
+      <c r="G38">
+        <v>2.2432537700000001E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.94721979629999997</v>
+      </c>
+      <c r="I38">
+        <v>0.216983063</v>
+      </c>
+      <c r="J38">
+        <v>0.56222713840000005</v>
+      </c>
+      <c r="K38">
+        <v>0.70156384650000003</v>
+      </c>
+      <c r="L38">
+        <v>0.33294300770000002</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7.49978E-6</v>
+      </c>
+      <c r="E39">
+        <v>0.3009376117</v>
+      </c>
+      <c r="F39">
+        <v>0.82777292930000002</v>
+      </c>
+      <c r="G39">
+        <v>0.28987927260000002</v>
+      </c>
+      <c r="H39">
+        <v>0.81149153770000004</v>
+      </c>
+      <c r="I39">
+        <v>0.99471048640000004</v>
+      </c>
+      <c r="J39">
+        <v>0.93800716790000005</v>
+      </c>
+      <c r="K39">
+        <v>0.96857299929999996</v>
+      </c>
+      <c r="L39">
+        <v>0.85628594000000002</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0.47669150310000002</v>
+      </c>
+      <c r="E40">
+        <v>-7.8934991999999992E-3</v>
+      </c>
+      <c r="F40">
+        <v>0.95412414729999995</v>
+      </c>
+      <c r="G40">
+        <v>0.65508102980000005</v>
+      </c>
+      <c r="H40">
+        <v>0.96181077380000002</v>
+      </c>
+      <c r="I40">
+        <v>0.48085951399999999</v>
+      </c>
+      <c r="J40">
+        <v>0.79902514300000005</v>
+      </c>
+      <c r="K40">
+        <v>0.23066414069999999</v>
+      </c>
+      <c r="L40">
+        <v>0.4473311962</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0.6710988712</v>
+      </c>
+      <c r="E41">
+        <v>0.81414271130000004</v>
+      </c>
+      <c r="F41">
+        <v>5.8596859799999998E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.77582182960000001</v>
+      </c>
+      <c r="H41">
+        <v>0.30574803909999998</v>
+      </c>
+      <c r="I41">
+        <v>0.51801450810000005</v>
+      </c>
+      <c r="J41">
+        <v>0.40139513539999999</v>
+      </c>
+      <c r="K41">
+        <v>0.9278624915</v>
+      </c>
+      <c r="L41">
+        <v>0.51617555849999996</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>0.4220481432</v>
+      </c>
+      <c r="E42">
+        <v>0.31422989289999997</v>
+      </c>
+      <c r="F42">
+        <v>0.56678296880000001</v>
+      </c>
+      <c r="G42">
+        <v>0.74940241009999997</v>
+      </c>
+      <c r="H42">
+        <v>0.94213510079999996</v>
+      </c>
+      <c r="I42">
+        <v>0.86076644359999999</v>
+      </c>
+      <c r="J42">
+        <v>0.78741426530000003</v>
+      </c>
+      <c r="K42">
+        <v>0.64585148169999995</v>
+      </c>
+      <c r="L42">
+        <v>0.61488035860000001</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>2.4182257999999998E-3</v>
+      </c>
+      <c r="E43">
+        <v>0.27211042590000001</v>
+      </c>
+      <c r="F43">
+        <v>0.66860205220000002</v>
+      </c>
+      <c r="G43">
+        <v>0.92809661379999997</v>
+      </c>
+      <c r="H43">
+        <v>0.95737134329999996</v>
+      </c>
+      <c r="I43">
+        <v>0.74024979960000004</v>
+      </c>
+      <c r="J43">
+        <v>0.85147005019999999</v>
+      </c>
+      <c r="K43">
+        <v>0.64552683550000001</v>
+      </c>
+      <c r="L43">
+        <v>0.87488547510000003</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>0.43072834440000002</v>
+      </c>
+      <c r="E44">
+        <v>0.4013201414</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3.6831299999999998E-11</v>
+      </c>
+      <c r="G44">
+        <v>0.81256162190000003</v>
+      </c>
+      <c r="H44">
+        <v>0.88873345960000005</v>
+      </c>
+      <c r="I44">
+        <v>0.86083818609999996</v>
+      </c>
+      <c r="J44">
+        <v>0.84342378709999999</v>
+      </c>
+      <c r="K44">
+        <v>0.74343112020000002</v>
+      </c>
+      <c r="L44">
+        <v>0.53463543290000004</v>
+      </c>
+      <c r="M44" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:K37">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:L44">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
-      <formula>0.05</formula>
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F454C5A9-04A7-4B2C-8E00-F8117E4134B1}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -38501,7 +38699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -38514,7 +38712,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -38525,16 +38723,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1.23129E-32</v>
+        <v>4.8279699999999997E-17</v>
       </c>
       <c r="E3">
-        <v>0.47739523389999999</v>
+        <v>0.60886978629999999</v>
       </c>
       <c r="F3" s="1">
-        <v>6.8680400000000001E-5</v>
+        <v>1.18621E-6</v>
       </c>
       <c r="G3" s="1">
-        <v>6.4536184699999999E-2</v>
+        <v>0.53432751099999998</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -38549,10 +38747,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -38563,16 +38764,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>7.2048500000000001E-16</v>
+        <v>0.3966991923</v>
       </c>
       <c r="E4">
-        <v>0.41107629540000001</v>
+        <v>0.4637817776</v>
       </c>
       <c r="F4" s="1">
-        <v>7.5892099599999999E-2</v>
+        <v>0.48708198670000002</v>
       </c>
       <c r="G4" s="1">
-        <v>5.57280385E-2</v>
+        <v>2.9937999999999999E-67</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -38587,10 +38788,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -38601,16 +38805,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>2.6905200000000001E-21</v>
+        <v>2.35606E-7</v>
       </c>
       <c r="E5">
-        <v>0.86163908629999997</v>
+        <v>0.9602107298</v>
       </c>
       <c r="F5" s="1">
-        <v>1.1161208000000001E-2</v>
+        <v>4.4245873999999999E-3</v>
       </c>
       <c r="G5">
-        <v>0.1619752159</v>
+        <v>0.63303260969999997</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -38625,10 +38829,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -38639,16 +38846,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.6104318863</v>
+        <v>0.73727537519999997</v>
       </c>
       <c r="E6">
-        <v>3.0634181620000001</v>
+        <v>-3.3397279110000002</v>
       </c>
       <c r="F6" s="1">
-        <v>0.51237729259999998</v>
+        <v>0.75827618929999996</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5193200000000001E-6</v>
+        <v>8.89016E-7</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -38663,10 +38870,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -38677,16 +38887,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>2.8421099999999999E-15</v>
+        <v>0.33453113029999998</v>
       </c>
       <c r="E7">
-        <v>0.92605163459999995</v>
+        <v>0.54449452669999998</v>
       </c>
       <c r="F7" s="1">
-        <v>6.30974E-7</v>
+        <v>0.72572275529999997</v>
       </c>
       <c r="G7" s="1">
-        <v>0.7251589638</v>
+        <v>1.5850100000000001E-9</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -38701,10 +38911,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -38715,16 +38928,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>1.3296500000000001E-12</v>
+        <v>1.9314399999999999E-5</v>
       </c>
       <c r="E8">
-        <v>0.52858692809999996</v>
+        <v>1.172102652</v>
       </c>
       <c r="F8" s="1">
-        <v>0.89765835390000004</v>
+        <v>5.1450930000000001E-4</v>
       </c>
       <c r="G8" s="1">
-        <v>0.78886468499999995</v>
+        <v>0.74878448959999999</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -38739,10 +38952,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -38753,16 +38969,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>3.97994E-8</v>
+        <v>0.92669073400000002</v>
       </c>
       <c r="E9">
-        <v>0.88581331480000003</v>
+        <v>-0.21874005199999999</v>
       </c>
       <c r="F9" s="1">
-        <v>3.9303900000000002E-5</v>
+        <v>0.86309327400000002</v>
       </c>
       <c r="G9" s="1">
-        <v>0.70142606949999997</v>
+        <v>2.04551E-37</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -38777,10 +38993,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -38791,19 +39010,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1.4187700000000001E-6</v>
+        <v>3.1007500000000002E-13</v>
       </c>
       <c r="E10">
-        <v>0.49456219260000001</v>
+        <v>0.57945052200000002</v>
       </c>
       <c r="F10" s="1">
-        <v>1.00284E-5</v>
+        <v>1.152644E-4</v>
       </c>
       <c r="G10" s="1">
-        <v>0.67844645969999995</v>
+        <v>0.67930272979999995</v>
       </c>
       <c r="H10">
-        <v>0.82395081489999999</v>
+        <v>0.3059125224</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -38815,10 +39034,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -38829,19 +39051,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>9.6020700000000004E-6</v>
+        <v>0.55035333620000004</v>
       </c>
       <c r="E11">
-        <v>0.33392636180000002</v>
+        <v>0.22318192240000001</v>
       </c>
       <c r="F11" s="1">
-        <v>0.2976947928</v>
+        <v>0.77141951009999998</v>
       </c>
       <c r="G11">
-        <v>0.17101786029999999</v>
+        <v>2.5187487000000001E-3</v>
       </c>
       <c r="H11">
-        <v>0.6579094607</v>
+        <v>0.62762561510000003</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -38853,10 +39075,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -38867,19 +39092,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.45951453339999998</v>
+        <v>2.0410603E-3</v>
       </c>
       <c r="E12">
-        <v>1.119915064</v>
+        <v>0.44961863279999997</v>
       </c>
       <c r="F12" s="1">
-        <v>3.4843813E-3</v>
+        <v>4.4478120599999997E-2</v>
       </c>
       <c r="G12">
-        <v>0.7869333087</v>
+        <v>0.49532177490000001</v>
       </c>
       <c r="H12">
-        <v>0.45339368629999999</v>
+        <v>0.36988700130000002</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -38891,10 +39116,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -38905,19 +39133,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>8.0082333800000002E-2</v>
+        <v>0.98107526629999997</v>
       </c>
       <c r="E13">
-        <v>0.92604877620000003</v>
+        <v>-0.42412905270000001</v>
       </c>
       <c r="F13" s="1">
-        <v>8.3843099999999997E-5</v>
+        <v>0.93256353999999997</v>
       </c>
       <c r="G13">
-        <v>0.66203821090000003</v>
+        <v>0.87092774409999996</v>
       </c>
       <c r="H13">
-        <v>0.54161971259999997</v>
+        <v>0.93222444319999997</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -38929,10 +39157,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -38943,19 +39174,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>1.35672E-7</v>
+        <v>3.9368199999999999E-6</v>
       </c>
       <c r="E14">
-        <v>0.9051367561</v>
+        <v>1.0604662309999999</v>
       </c>
       <c r="F14" s="1">
-        <v>1.61357E-8</v>
+        <v>6.2541340000000004E-4</v>
       </c>
       <c r="G14">
-        <v>0.88402991109999995</v>
+        <v>0.71621410500000005</v>
       </c>
       <c r="H14">
-        <v>0.50660198300000003</v>
+        <v>0.54634974849999995</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -38967,10 +39198,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -38980,20 +39214,20 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>0.7535758145</v>
+      <c r="D15" s="1">
+        <v>2.9757399999999999E-7</v>
       </c>
       <c r="E15">
-        <v>0.94868088409999995</v>
+        <v>1.1532169320000001</v>
       </c>
       <c r="F15" s="1">
-        <v>1.2681100000000001E-7</v>
+        <v>6.6637480000000002E-4</v>
       </c>
       <c r="G15">
-        <v>0.73019822690000002</v>
+        <v>0.70808822579999997</v>
       </c>
       <c r="H15">
-        <v>0.64893659780000001</v>
+        <v>0.99634476159999996</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -39005,10 +39239,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -39019,19 +39256,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>1.2906939999999999E-4</v>
+        <v>1.60566311E-2</v>
       </c>
       <c r="E16">
-        <v>0.90597320510000001</v>
+        <v>0.87251948229999998</v>
       </c>
       <c r="F16" s="1">
-        <v>9.5682732999999992E-3</v>
+        <v>0.18107183800000001</v>
       </c>
       <c r="G16">
-        <v>0.40537367470000002</v>
+        <v>0.74988841470000001</v>
       </c>
       <c r="H16">
-        <v>0.92975214610000001</v>
+        <v>0.72994126449999996</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -39043,10 +39280,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -39057,22 +39297,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.9920500000000003E-5</v>
+        <v>2.96927193E-2</v>
       </c>
       <c r="E17">
-        <v>0.58845811049999996</v>
+        <v>0.25907897530000001</v>
       </c>
       <c r="F17" s="1">
-        <v>1.1282E-5</v>
+        <v>0.16448650619999999</v>
       </c>
       <c r="G17">
-        <v>0.23316858169999999</v>
+        <v>0.41454451730000003</v>
       </c>
       <c r="H17">
-        <v>0.50586576630000002</v>
+        <v>0.20305975379999999</v>
       </c>
       <c r="I17" s="1">
-        <v>0.17657243619999999</v>
+        <v>0.1806211204</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -39081,10 +39321,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -39095,22 +39338,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>2.1163000000000001E-14</v>
+        <v>0.69049292330000001</v>
       </c>
       <c r="E18">
-        <v>0.91345623149999999</v>
+        <v>0.54750113330000005</v>
       </c>
       <c r="F18" s="1">
-        <v>8.5672441500000002E-2</v>
+        <v>0.4898711187</v>
       </c>
       <c r="G18">
-        <v>0.1080377397</v>
+        <v>0.28137172929999998</v>
       </c>
       <c r="H18">
-        <v>0.48745400309999998</v>
+        <v>0.45667136600000002</v>
       </c>
       <c r="I18" s="1">
-        <v>0.6309316989</v>
+        <v>0.68361853309999998</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -39119,10 +39362,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -39133,22 +39379,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>6.9022500000000006E-11</v>
+        <v>2.479321E-4</v>
       </c>
       <c r="E19">
-        <v>1.062082827</v>
+        <v>0.4612444604</v>
       </c>
       <c r="F19" s="1">
-        <v>6.9569082000000004E-3</v>
+        <v>5.6865456699999997E-2</v>
       </c>
       <c r="G19">
-        <v>0.64709207960000004</v>
+        <v>0.48904887209999998</v>
       </c>
       <c r="H19">
-        <v>0.37970661230000002</v>
+        <v>0.43610767960000002</v>
       </c>
       <c r="I19">
-        <v>0.91453992939999995</v>
+        <v>0.81710242509999997</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -39157,10 +39403,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -39171,22 +39420,22 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>4.6992700000000003E-10</v>
+        <v>8.5113140000000001E-4</v>
       </c>
       <c r="E20">
-        <v>0.68822842959999997</v>
+        <v>0.45156374199999999</v>
       </c>
       <c r="F20" s="1">
-        <v>0.32033100539999998</v>
+        <v>9.6782467900000002E-2</v>
       </c>
       <c r="G20">
-        <v>0.75294926029999998</v>
+        <v>0.83684710549999997</v>
       </c>
       <c r="H20">
-        <v>0.83827556130000003</v>
+        <v>0.85588741670000001</v>
       </c>
       <c r="I20">
-        <v>0.84100640250000003</v>
+        <v>0.86418053839999998</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -39195,10 +39444,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -39209,22 +39461,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>9.8547799999999995E-7</v>
+        <v>4.9648600000000003E-6</v>
       </c>
       <c r="E21">
-        <v>0.92778503909999999</v>
+        <v>1.1310683669999999</v>
       </c>
       <c r="F21" s="1">
-        <v>1.6700500000000001E-7</v>
+        <v>1.2334727E-3</v>
       </c>
       <c r="G21">
-        <v>0.73416012230000005</v>
+        <v>0.87341915680000004</v>
       </c>
       <c r="H21">
-        <v>0.4681183847</v>
+        <v>0.57576440870000001</v>
       </c>
       <c r="I21">
-        <v>0.71052535350000001</v>
+        <v>0.6038278212</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -39233,10 +39485,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -39247,22 +39502,22 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>0.39584437960000002</v>
+        <v>0.92860875679999999</v>
       </c>
       <c r="E22">
-        <v>0.94737539280000005</v>
+        <v>1.1804821969999999</v>
       </c>
       <c r="F22" s="1">
-        <v>2.8162699999999998E-7</v>
+        <v>2.4513899999999999E-5</v>
       </c>
       <c r="G22">
-        <v>0.56601759620000003</v>
+        <v>0.66962884249999999</v>
       </c>
       <c r="H22">
-        <v>0.63464573089999998</v>
+        <v>0.96587058250000002</v>
       </c>
       <c r="I22">
-        <v>0.97201959739999999</v>
+        <v>0.68949471659999995</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -39271,10 +39526,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -39285,22 +39543,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>4.7318899999999997E-6</v>
+        <v>0.96756861959999996</v>
       </c>
       <c r="E23">
-        <v>0.89203365040000004</v>
+        <v>0.43352027310000002</v>
       </c>
       <c r="F23" s="1">
-        <v>3.8923509000000002E-2</v>
+        <v>0.71631540859999998</v>
       </c>
       <c r="G23">
-        <v>0.58231341599999997</v>
+        <v>0.55299394940000002</v>
       </c>
       <c r="H23">
-        <v>0.7024604633</v>
+        <v>0.84253890760000005</v>
       </c>
       <c r="I23">
-        <v>0.59749171590000005</v>
+        <v>0.59122565810000005</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -39309,10 +39567,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -39323,34 +39584,37 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>5.86204E-8</v>
+        <v>1.6849670999999999E-3</v>
       </c>
       <c r="E24">
-        <v>0.53357189780000003</v>
+        <v>0.28611881150000001</v>
       </c>
       <c r="F24" s="1">
-        <v>4.6413970000000002E-3</v>
+        <v>7.0405700999999999E-3</v>
       </c>
       <c r="G24">
-        <v>0.91702779869999995</v>
+        <v>0.2242339109</v>
       </c>
       <c r="H24">
-        <v>0.55972308780000002</v>
+        <v>0.40722786890000001</v>
       </c>
       <c r="I24" s="1">
-        <v>0.64454625880000005</v>
+        <v>0.1924893688</v>
       </c>
       <c r="J24">
-        <v>0.76535008950000005</v>
+        <v>0.17556297000000001</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -39361,34 +39625,37 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>4.7479200000000001E-23</v>
+        <v>0.307166308</v>
       </c>
       <c r="E25">
-        <v>0.71378334539999999</v>
+        <v>0.61055613080000004</v>
       </c>
       <c r="F25" s="1">
-        <v>1.2303659999999999E-4</v>
+        <v>0.25023829939999997</v>
       </c>
       <c r="G25">
-        <v>0.64726278699999995</v>
+        <v>0.2302663942</v>
       </c>
       <c r="H25">
-        <v>0.20031287110000001</v>
+        <v>0.61330096759999997</v>
       </c>
       <c r="I25">
-        <v>0.90604725249999996</v>
+        <v>0.60965182709999999</v>
       </c>
       <c r="J25">
-        <v>0.63503602140000004</v>
+        <v>0.75700207060000002</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -39399,34 +39666,37 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>1.6083299999999999E-26</v>
+        <v>9.3186999999999994E-6</v>
       </c>
       <c r="E26">
-        <v>0.75847927599999998</v>
+        <v>1.0880455280000001</v>
       </c>
       <c r="F26" s="1">
-        <v>4.2061490000000002E-4</v>
+        <v>2.4399873999999999E-3</v>
       </c>
       <c r="G26">
-        <v>0.96044113769999995</v>
+        <v>0.74778071160000004</v>
       </c>
       <c r="H26">
-        <v>0.66071155709999996</v>
+        <v>0.70180860899999997</v>
       </c>
       <c r="I26">
-        <v>0.55458156079999998</v>
+        <v>0.70462252400000003</v>
       </c>
       <c r="J26">
-        <v>0.55513014890000001</v>
+        <v>0.86883693179999999</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -39437,34 +39707,37 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>9.784056000000001E-4</v>
+        <v>5.3144369999999995E-4</v>
       </c>
       <c r="E27">
-        <v>0.93834618260000002</v>
+        <v>1.2020071809999999</v>
       </c>
       <c r="F27" s="1">
-        <v>3.5751609999999998E-4</v>
+        <v>2.4729336500000001E-2</v>
       </c>
       <c r="G27">
-        <v>0.66348114579999995</v>
+        <v>0.72039527690000005</v>
       </c>
       <c r="H27">
-        <v>0.80103044189999995</v>
+        <v>0.82832972910000002</v>
       </c>
       <c r="I27">
-        <v>0.3488685735</v>
+        <v>0.54330667399999999</v>
       </c>
       <c r="J27">
-        <v>0.79769329870000005</v>
+        <v>0.55170485800000002</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -39474,35 +39747,38 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>3.6463849999999998E-4</v>
+      <c r="D28" s="1">
+        <v>7.7792699999999998E-6</v>
       </c>
       <c r="E28">
-        <v>0.90036114840000003</v>
+        <v>0.93768495689999998</v>
       </c>
       <c r="F28" s="1">
-        <v>1.4074600000000001E-5</v>
+        <v>2.4696357999999998E-3</v>
       </c>
       <c r="G28">
-        <v>0.60891318630000002</v>
+        <v>0.87231670569999997</v>
       </c>
       <c r="H28">
-        <v>0.59388772010000002</v>
+        <v>0.84451509459999996</v>
       </c>
       <c r="I28">
-        <v>0.68831242290000005</v>
+        <v>0.45239493749999998</v>
       </c>
       <c r="J28">
-        <v>0.8490928619</v>
+        <v>0.44051317769999998</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -39513,34 +39789,37 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>1.45161E-10</v>
+        <v>2.1406899999999998E-6</v>
       </c>
       <c r="E29">
-        <v>0.6867433677</v>
+        <v>1.1413457250000001</v>
       </c>
       <c r="F29" s="1">
-        <v>0.62604981920000002</v>
+        <v>5.2282939999999996E-4</v>
       </c>
       <c r="G29">
-        <v>0.97652939260000005</v>
+        <v>0.97237769039999999</v>
       </c>
       <c r="H29">
-        <v>0.84539369519999996</v>
+        <v>0.72608643790000005</v>
       </c>
       <c r="I29">
-        <v>0.3061784951</v>
+        <v>0.89325413610000004</v>
       </c>
       <c r="J29">
-        <v>0.55351926399999996</v>
+        <v>0.2747320734</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -39551,34 +39830,37 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>6.7002850799999999E-2</v>
+        <v>0.15232007210000001</v>
       </c>
       <c r="E30">
-        <v>-0.50249585119999995</v>
+        <v>0.73574949789999999</v>
       </c>
       <c r="F30" s="1">
-        <v>0.57126328910000002</v>
+        <v>0.43096405799999998</v>
       </c>
       <c r="G30">
-        <v>0.3944720921</v>
+        <v>0.70609335360000003</v>
       </c>
       <c r="H30">
-        <v>0.75236853459999997</v>
+        <v>0.96246560280000004</v>
       </c>
       <c r="I30">
-        <v>0.53838428760000001</v>
+        <v>0.56244389809999995</v>
       </c>
       <c r="J30">
-        <v>0.37677478040000001</v>
+        <v>0.61998448120000005</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -39589,34 +39871,37 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>8.9960545999999992E-3</v>
+        <v>4.6333499999999999E-5</v>
       </c>
       <c r="E31">
-        <v>0.58574851699999997</v>
+        <v>0.35739963540000003</v>
       </c>
       <c r="F31" s="1">
-        <v>1.0275701E-3</v>
+        <v>3.1513650000000002E-3</v>
       </c>
       <c r="G31">
-        <v>0.65287118359999996</v>
+        <v>0.21687058840000001</v>
       </c>
       <c r="H31">
-        <v>0.70924343059999995</v>
+        <v>0.4538041679</v>
       </c>
       <c r="I31" s="1">
-        <v>0.68071974059999996</v>
+        <v>0.42238231120000003</v>
       </c>
       <c r="J31">
-        <v>0.75988945299999999</v>
+        <v>0.28120795749999999</v>
       </c>
       <c r="K31">
-        <v>0.76742222780000002</v>
+        <v>0.19946573000000001</v>
       </c>
       <c r="L31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -39627,34 +39912,37 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>9.7084874000000002E-3</v>
+        <v>0.8514769364</v>
       </c>
       <c r="E32">
-        <v>0.64848196520000001</v>
+        <v>-0.70650408220000005</v>
       </c>
       <c r="F32" s="1">
-        <v>3.6751137000000001E-3</v>
+        <v>0.46859248149999999</v>
       </c>
       <c r="G32">
-        <v>0.79752287820000001</v>
+        <v>0.61891497019999997</v>
       </c>
       <c r="H32">
-        <v>0.4221273223</v>
+        <v>0.367851912</v>
       </c>
       <c r="I32">
-        <v>0.74121674329999998</v>
+        <v>0.66054616899999996</v>
       </c>
       <c r="J32">
-        <v>0.80176098179999999</v>
+        <v>0.84855078139999995</v>
       </c>
       <c r="K32">
-        <v>0.6431730765</v>
+        <v>0.78446623439999996</v>
       </c>
       <c r="L32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -39665,34 +39953,37 @@
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>0.99068279439999996</v>
+        <v>0.94807292160000001</v>
       </c>
       <c r="E33">
-        <v>0.75776764839999999</v>
+        <v>-0.41991570779999998</v>
       </c>
       <c r="F33" s="1">
-        <v>1.93329E-8</v>
+        <v>0.97496132020000004</v>
       </c>
       <c r="G33">
-        <v>0.6005739188</v>
+        <v>0.91862636389999996</v>
       </c>
       <c r="H33">
-        <v>0.82659793550000005</v>
+        <v>0.96945801379999996</v>
       </c>
       <c r="I33">
-        <v>0.30606227320000001</v>
+        <v>0.93209110809999995</v>
       </c>
       <c r="J33">
-        <v>0.69763828380000004</v>
+        <v>0.95845766239999997</v>
       </c>
       <c r="K33">
-        <v>0.37446782499999998</v>
+        <v>0.98252335170000005</v>
       </c>
       <c r="L33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -39703,34 +39994,37 @@
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>3.7889499999999999E-20</v>
+        <v>2.5559700000000002E-6</v>
       </c>
       <c r="E34">
-        <v>0.83750772019999997</v>
+        <v>1.000108166</v>
       </c>
       <c r="F34" s="1">
-        <v>1.6938430000000001E-4</v>
+        <v>4.8792200999999997E-3</v>
       </c>
       <c r="G34">
-        <v>0.4016458758</v>
+        <v>0.76159227929999995</v>
       </c>
       <c r="H34">
-        <v>0.55888486879999999</v>
+        <v>0.92515401850000001</v>
       </c>
       <c r="I34">
-        <v>0.3017029115</v>
+        <v>0.40929798239999998</v>
       </c>
       <c r="J34">
-        <v>0.68453317059999996</v>
+        <v>0.83916240519999996</v>
       </c>
       <c r="K34">
-        <v>0.46376113959999998</v>
+        <v>0.68301352589999997</v>
       </c>
       <c r="L34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -39741,34 +40035,37 @@
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>2.73441E-10</v>
+        <v>4.44527E-6</v>
       </c>
       <c r="E35">
-        <v>0.90234969970000001</v>
+        <v>0.94680391500000005</v>
       </c>
       <c r="F35" s="1">
-        <v>5.6080399999999999E-5</v>
+        <v>2.3347200999999998E-3</v>
       </c>
       <c r="G35">
-        <v>0.53693902240000002</v>
+        <v>0.98995797070000002</v>
       </c>
       <c r="H35">
-        <v>0.5621604415</v>
+        <v>0.93051970890000002</v>
       </c>
       <c r="I35">
-        <v>0.58308936020000002</v>
+        <v>0.44606530789999999</v>
       </c>
       <c r="J35">
-        <v>0.90890945140000001</v>
+        <v>0.4326255966</v>
       </c>
       <c r="K35">
-        <v>0.65335090890000003</v>
+        <v>0.73675020280000003</v>
       </c>
       <c r="L35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -39779,34 +40076,37 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>0.91057579109999998</v>
+        <v>0.6281759764</v>
       </c>
       <c r="E36">
-        <v>0.99810302110000004</v>
+        <v>1.571586838</v>
       </c>
       <c r="F36" s="1">
-        <v>1.3714103999999999E-3</v>
+        <v>0.71982249639999996</v>
       </c>
       <c r="G36">
-        <v>0.76510330930000003</v>
+        <v>0.88354717640000002</v>
       </c>
       <c r="H36">
-        <v>0.73933371719999996</v>
+        <v>0.84323165759999996</v>
       </c>
       <c r="I36">
-        <v>0.87907519999999995</v>
+        <v>0.96110126979999999</v>
       </c>
       <c r="J36">
-        <v>0.88768624289999998</v>
+        <v>0.75495890160000001</v>
       </c>
       <c r="K36">
-        <v>0.86022745789999999</v>
+        <v>0.87978720200000005</v>
       </c>
       <c r="L36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -39817,30 +40117,320 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>1.365998E-4</v>
+        <v>1.6266188000000001E-3</v>
       </c>
       <c r="E37">
-        <v>-0.4073344203</v>
+        <v>0.49405916329999999</v>
       </c>
       <c r="F37" s="1">
-        <v>0.91551583349999999</v>
+        <v>7.1948448100000006E-2</v>
       </c>
       <c r="G37">
-        <v>0.96283619210000004</v>
+        <v>0.59578442570000001</v>
       </c>
       <c r="H37">
-        <v>0.98918325279999997</v>
+        <v>0.97568783410000004</v>
       </c>
       <c r="I37">
-        <v>0.97259827700000001</v>
+        <v>0.20764634009999999</v>
       </c>
       <c r="J37">
-        <v>0.98603613209999996</v>
+        <v>0.88988787339999997</v>
       </c>
       <c r="K37">
-        <v>0.9688490059</v>
+        <v>0.76393413539999999</v>
       </c>
       <c r="L37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.83956387229999996</v>
+      </c>
+      <c r="E38">
+        <v>0.16358618790000001</v>
+      </c>
+      <c r="F38">
+        <v>0.1550360184</v>
+      </c>
+      <c r="G38">
+        <v>0.65590712979999999</v>
+      </c>
+      <c r="H38">
+        <v>0.37256120510000001</v>
+      </c>
+      <c r="I38">
+        <v>0.58897869670000003</v>
+      </c>
+      <c r="J38">
+        <v>0.43464973280000002</v>
+      </c>
+      <c r="K38">
+        <v>0.35459340249999999</v>
+      </c>
+      <c r="L38">
+        <v>0.31231409710000002</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.96645266330000001</v>
+      </c>
+      <c r="E39">
+        <v>-9.0964764700000006E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.88330051870000004</v>
+      </c>
+      <c r="G39">
+        <v>0.50178489410000005</v>
+      </c>
+      <c r="H39">
+        <v>0.39822581639999999</v>
+      </c>
+      <c r="I39">
+        <v>0.8621018117</v>
+      </c>
+      <c r="J39">
+        <v>0.86025718330000001</v>
+      </c>
+      <c r="K39">
+        <v>0.58562764609999995</v>
+      </c>
+      <c r="L39">
+        <v>0.52747442700000002</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.11254E-11</v>
+      </c>
+      <c r="E40">
+        <v>0.96203064559999996</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9.5507899999999994E-6</v>
+      </c>
+      <c r="G40">
+        <v>0.67477969029999996</v>
+      </c>
+      <c r="H40">
+        <v>0.87428284369999998</v>
+      </c>
+      <c r="I40">
+        <v>0.4252864811</v>
+      </c>
+      <c r="J40">
+        <v>0.80846063940000001</v>
+      </c>
+      <c r="K40">
+        <v>0.98633889860000001</v>
+      </c>
+      <c r="L40">
+        <v>0.18435797579999999</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0.3091740442</v>
+      </c>
+      <c r="E41">
+        <v>0.34743101809999999</v>
+      </c>
+      <c r="F41">
+        <v>0.15034316170000001</v>
+      </c>
+      <c r="G41">
+        <v>0.1850756284</v>
+      </c>
+      <c r="H41">
+        <v>0.80656143930000002</v>
+      </c>
+      <c r="I41">
+        <v>0.52206118010000002</v>
+      </c>
+      <c r="J41">
+        <v>0.83362877300000005</v>
+      </c>
+      <c r="K41">
+        <v>0.9903793971</v>
+      </c>
+      <c r="L41">
+        <v>0.1842759145</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>0.84471679079999995</v>
+      </c>
+      <c r="E42">
+        <v>0.50012680949999999</v>
+      </c>
+      <c r="F42">
+        <v>0.61413374320000003</v>
+      </c>
+      <c r="G42">
+        <v>0.64270618260000001</v>
+      </c>
+      <c r="H42">
+        <v>0.80124303330000002</v>
+      </c>
+      <c r="I42">
+        <v>0.35895594130000003</v>
+      </c>
+      <c r="J42">
+        <v>0.8863173942</v>
+      </c>
+      <c r="K42">
+        <v>0.72338089090000002</v>
+      </c>
+      <c r="L42">
+        <v>0.77173910619999997</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>0.67970003189999995</v>
+      </c>
+      <c r="E43">
+        <v>0.65369733799999996</v>
+      </c>
+      <c r="F43">
+        <v>0.63800531500000002</v>
+      </c>
+      <c r="G43">
+        <v>0.55796196210000004</v>
+      </c>
+      <c r="H43">
+        <v>0.68623434169999997</v>
+      </c>
+      <c r="I43">
+        <v>0.16282949199999999</v>
+      </c>
+      <c r="J43">
+        <v>0.77282482880000003</v>
+      </c>
+      <c r="K43">
+        <v>0.76112645379999999</v>
+      </c>
+      <c r="L43">
+        <v>0.49134971599999999</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>2.6632639999999999E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.39985036029999999</v>
+      </c>
+      <c r="F44">
+        <v>0.44581172270000002</v>
+      </c>
+      <c r="G44">
+        <v>0.64446927310000002</v>
+      </c>
+      <c r="H44">
+        <v>0.85197887039999998</v>
+      </c>
+      <c r="I44">
+        <v>0.45075431269999999</v>
+      </c>
+      <c r="J44">
+        <v>0.82809879289999999</v>
+      </c>
+      <c r="K44">
+        <v>0.96335348180000002</v>
+      </c>
+      <c r="L44">
+        <v>0.80329658940000004</v>
+      </c>
+      <c r="M44" t="s">
         <v>1</v>
       </c>
     </row>

--- a/LaborShortage/pq selection result.xlsx
+++ b/LaborShortage/pq selection result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3129A6E-ABD4-4FDC-8613-8619B0F5776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698140E-0623-4199-8D60-F7420977CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="13">
   <si>
     <t>.</t>
   </si>
@@ -4511,7 +4511,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4561,6 +4561,15 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.10362812790000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -29682,13 +29691,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67403BA8-0158-4245-A44A-59EC51C4A95A}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29750,16 +29759,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1.6309818300000001E-2</v>
+        <v>2.7496400000000002E-6</v>
       </c>
       <c r="E3">
-        <v>-0.1248057375</v>
+        <v>-1.7751999099999999E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>0.75432897050000003</v>
+        <v>0.91840102820000002</v>
       </c>
       <c r="G3" s="1">
-        <v>1.7991799999999999E-11</v>
+        <v>9.8030399999999996E-5</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -29771,7 +29780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -29791,16 +29800,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>6.0892773099999999E-2</v>
+        <v>1.39674E-10</v>
       </c>
       <c r="E4">
-        <v>-1.46816407E-2</v>
+        <v>0.10362812790000001</v>
       </c>
       <c r="F4" s="1">
-        <v>0.98047353260000003</v>
+        <v>0.42451005650000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1.6683725E-3</v>
+        <v>0.93150604029999995</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -29812,7 +29821,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
@@ -29832,16 +29841,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1.0822504199999999E-2</v>
+        <v>0.74866481330000001</v>
       </c>
       <c r="E5">
-        <v>0.40922172340000001</v>
+        <v>-0.30832190790000003</v>
       </c>
       <c r="F5" s="1">
-        <v>0.46750298629999998</v>
-      </c>
-      <c r="G5">
-        <v>2.3674416999999999E-3</v>
+        <v>0.70267712550000005</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.8469200000000003E-8</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -29853,7 +29862,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
@@ -29873,16 +29882,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>5.3980909999999996E-4</v>
+        <v>5.6999000000000001E-5</v>
       </c>
       <c r="E6">
-        <v>-0.1732087021</v>
+        <v>0.70220961569999996</v>
       </c>
       <c r="F6" s="1">
-        <v>0.3733727825</v>
+        <v>4.3407815299999999E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.77924609909999998</v>
+        <v>0.88431296260000003</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -29894,7 +29903,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
@@ -29914,16 +29923,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.99886105700000005</v>
+        <v>0.82875544739999996</v>
       </c>
       <c r="E7">
-        <v>-0.22208936939999999</v>
+        <v>-0.27125616050000001</v>
       </c>
       <c r="F7" s="1">
-        <v>0.56926541480000004</v>
+        <v>0.81631017859999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.90641746889999997</v>
+        <v>1.1221E-104</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -29935,7 +29944,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
@@ -29955,16 +29964,16 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.99801872660000002</v>
+        <v>0.72007714349999996</v>
       </c>
       <c r="E8">
-        <v>-0.74538349589999997</v>
+        <v>-0.7637636203</v>
       </c>
       <c r="F8" s="1">
-        <v>0.29906551139999998</v>
+        <v>0.41723134899999997</v>
       </c>
       <c r="G8" s="1">
-        <v>4.8075426400000003E-2</v>
+        <v>3.00945E-6</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -29976,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
@@ -29996,16 +30005,16 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0.75611282849999994</v>
+        <v>0.89603056660000002</v>
       </c>
       <c r="E9">
-        <v>-0.57373357229999999</v>
+        <v>-0.60501619600000001</v>
       </c>
       <c r="F9">
-        <v>0.50367090410000004</v>
+        <v>0.46503861229999999</v>
       </c>
       <c r="G9" s="1">
-        <v>1.07512E-11</v>
+        <v>2.01067E-29</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -30017,7 +30026,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
@@ -30037,19 +30046,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>2.6523685200000001E-2</v>
+        <v>1.297076E-4</v>
       </c>
       <c r="E10">
-        <v>-0.1225112313</v>
+        <v>-8.1819125600000001E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>0.77317177920000002</v>
+        <v>0.66081714380000001</v>
       </c>
       <c r="G10" s="1">
-        <v>2.2395107599999999E-2</v>
+        <v>0.18064164890000001</v>
       </c>
       <c r="H10">
-        <v>0.77200985499999997</v>
+        <v>0.42680308569999997</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -30058,7 +30067,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
@@ -30077,20 +30086,20 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0.89557034729999996</v>
+      <c r="D11" s="1">
+        <v>1.4877800000000001E-7</v>
       </c>
       <c r="E11">
-        <v>0.75114780079999999</v>
+        <v>0.12036959530000001</v>
       </c>
       <c r="F11" s="1">
-        <v>0.96382843839999999</v>
+        <v>0.52202444169999995</v>
       </c>
       <c r="G11">
-        <v>0.97912311549999997</v>
+        <v>0.86453187929999997</v>
       </c>
       <c r="H11">
-        <v>0.99725686319999995</v>
+        <v>0.8450614689</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -30099,7 +30108,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
@@ -30119,19 +30128,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1.2147713100000001E-2</v>
+        <v>0.1947301655</v>
       </c>
       <c r="E12">
-        <v>0.3350401294</v>
+        <v>0.32317626160000001</v>
       </c>
       <c r="F12" s="1">
-        <v>0.55328437740000003</v>
+        <v>0.57623461669999998</v>
       </c>
       <c r="G12">
-        <v>0.73285450969999999</v>
+        <v>2.7467273100000002E-2</v>
       </c>
       <c r="H12">
-        <v>0.93604048169999998</v>
+        <v>0.22077575520000001</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -30140,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
@@ -30160,19 +30169,19 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>9.7706550999999992E-3</v>
+        <v>4.3787964399999997E-2</v>
       </c>
       <c r="E13">
-        <v>-0.159417472</v>
+        <v>0.1034305125</v>
       </c>
       <c r="F13" s="1">
-        <v>0.51049377809999996</v>
+        <v>0.75981007430000003</v>
       </c>
       <c r="G13">
-        <v>0.83816765790000003</v>
+        <v>6.3557319400000006E-2</v>
       </c>
       <c r="H13">
-        <v>0.91499881090000001</v>
+        <v>0.32486896520000003</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -30181,7 +30190,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
@@ -30201,19 +30210,19 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.4931968558</v>
+        <v>0.92050101120000005</v>
       </c>
       <c r="E14">
-        <v>-0.65512235240000005</v>
+        <v>-0.73173175489999998</v>
       </c>
       <c r="F14" s="1">
-        <v>0.33278773309999998</v>
+        <v>0.58443452949999997</v>
       </c>
       <c r="G14">
-        <v>0.57577307990000004</v>
+        <v>7.9124779699999995E-2</v>
       </c>
       <c r="H14">
-        <v>0.5062434925</v>
+        <v>0.83179329179999995</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -30222,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
@@ -30242,19 +30251,19 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>0.98477656849999995</v>
+        <v>0.45029658020000002</v>
       </c>
       <c r="E15">
-        <v>-0.82441250519999998</v>
+        <v>-0.53722313239999997</v>
       </c>
       <c r="F15" s="1">
-        <v>0.45030750590000002</v>
+        <v>0.30666696160000001</v>
       </c>
       <c r="G15">
-        <v>0.4465965543</v>
+        <v>0.79045602940000004</v>
       </c>
       <c r="H15">
-        <v>0.95142330500000005</v>
+        <v>0.72831878539999995</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -30263,7 +30272,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>0</v>
@@ -30283,19 +30292,19 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0.18144716690000001</v>
+        <v>2.91874149E-2</v>
       </c>
       <c r="E16">
-        <v>-0.20736700599999999</v>
+        <v>0.34084184960000002</v>
       </c>
       <c r="F16">
-        <v>0.4011605587</v>
+        <v>0.31308649109999998</v>
       </c>
       <c r="G16">
-        <v>0.7855620499</v>
+        <v>1.55200236E-2</v>
       </c>
       <c r="H16">
-        <v>0.52465900840000002</v>
+        <v>0.1014306074</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -30304,7 +30313,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>0</v>
@@ -30323,29 +30332,29 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>2.4306231399999999E-2</v>
+      <c r="D17" s="1">
+        <v>8.2441500000000002E-12</v>
       </c>
       <c r="E17">
-        <v>-0.12927662640000001</v>
+        <v>0.10624381250000001</v>
       </c>
       <c r="F17" s="1">
-        <v>0.74454792349999999</v>
+        <v>7.5028853300000004E-2</v>
       </c>
       <c r="G17">
-        <v>1.8176889500000001E-2</v>
+        <v>0.35970828939999999</v>
       </c>
       <c r="H17">
-        <v>0.75770647700000004</v>
+        <v>0.68538171039999995</v>
       </c>
       <c r="I17" s="1">
-        <v>0.82430123399999999</v>
+        <v>0.41871360400000002</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>0</v>
@@ -30365,28 +30374,28 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>3.3383085100000001E-2</v>
+        <v>0.68180772109999999</v>
       </c>
       <c r="E18">
-        <v>0.30937245250000001</v>
+        <v>0.34084411850000002</v>
       </c>
       <c r="F18" s="1">
-        <v>0.58884862019999995</v>
+        <v>0.48012768839999997</v>
       </c>
       <c r="G18">
-        <v>0.42275066430000002</v>
+        <v>0.56953158530000003</v>
       </c>
       <c r="H18">
-        <v>0.76056950150000002</v>
+        <v>0.7943180031</v>
       </c>
       <c r="I18" s="1">
-        <v>0.91485054300000002</v>
+        <v>0.89383608299999995</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>0</v>
@@ -30406,28 +30415,28 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>2.4825905E-3</v>
+        <v>0.48767651090000003</v>
       </c>
       <c r="E19">
-        <v>-4.74073245E-2</v>
+        <v>0.16785567870000001</v>
       </c>
       <c r="F19" s="1">
-        <v>0.8659826155</v>
+        <v>0.95444556120000001</v>
       </c>
       <c r="G19">
-        <v>0.87656393430000001</v>
+        <v>0.98520438099999996</v>
       </c>
       <c r="H19">
-        <v>0.83988194380000003</v>
+        <v>0.99370186959999995</v>
       </c>
       <c r="I19">
-        <v>0.79555023049999996</v>
+        <v>0.99074696230000003</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>0</v>
@@ -30447,28 +30456,28 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>8.1888073000000006E-2</v>
+        <v>0.65338407089999995</v>
       </c>
       <c r="E20">
-        <v>-0.23290760569999999</v>
+        <v>-0.16413968130000001</v>
       </c>
       <c r="F20" s="1">
-        <v>0.46947191240000002</v>
+        <v>0.89708043079999999</v>
       </c>
       <c r="G20">
-        <v>0.85099503379999997</v>
+        <v>0.96751287809999997</v>
       </c>
       <c r="H20">
-        <v>0.52860996039999997</v>
+        <v>0.86766803209999999</v>
       </c>
       <c r="I20">
-        <v>0.50906307819999996</v>
+        <v>0.83678155279999999</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>0</v>
@@ -30488,28 +30497,28 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.7899185366</v>
+        <v>0.63226349920000002</v>
       </c>
       <c r="E21">
-        <v>-0.44425527100000001</v>
+        <v>-0.80326007269999999</v>
       </c>
       <c r="F21" s="1">
-        <v>0.66086724969999999</v>
+        <v>0.20345140680000001</v>
       </c>
       <c r="G21">
-        <v>0.3450061713</v>
+        <v>0.36504298769999999</v>
       </c>
       <c r="H21">
-        <v>0.88289168579999999</v>
+        <v>0.97157434750000005</v>
       </c>
       <c r="I21">
-        <v>0.87780086830000004</v>
+        <v>0.92528460030000004</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>0</v>
@@ -30529,28 +30538,28 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>5.9881244000000002E-3</v>
+        <v>0.98615662100000001</v>
       </c>
       <c r="E22">
-        <v>-0.1043904329</v>
+        <v>-0.53913683970000004</v>
       </c>
       <c r="F22" s="1">
-        <v>0.69784740420000002</v>
+        <v>0.90545916810000004</v>
       </c>
       <c r="G22">
-        <v>0.61044595810000002</v>
+        <v>0.64695916360000005</v>
       </c>
       <c r="H22">
-        <v>0.41731460819999999</v>
+        <v>0.76458949639999996</v>
       </c>
       <c r="I22">
-        <v>0.9142046962</v>
+        <v>0.79252387800000001</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>0</v>
@@ -30570,28 +30579,28 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>0.36651189699999998</v>
+        <v>0.84524332769999999</v>
       </c>
       <c r="E23">
-        <v>4.4902649500000003E-2</v>
+        <v>-7.8373618500000006E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>0.94666977389999996</v>
+        <v>0.87076078440000004</v>
       </c>
       <c r="G23">
-        <v>0.45329807039999997</v>
+        <v>0.57803954000000002</v>
       </c>
       <c r="H23">
-        <v>0.15976888089999999</v>
+        <v>0.36154289610000001</v>
       </c>
       <c r="I23">
-        <v>0.4098130317</v>
+        <v>0.31905868500000001</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>0</v>
@@ -30610,29 +30619,29 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>7.23523217E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.24862282860000001</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.2383589918</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1.4647661500000001E-2</v>
-      </c>
-      <c r="H24">
-        <v>0.92127790620000005</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.65687927099999999</v>
-      </c>
-      <c r="J24">
-        <v>0.34407051919999998</v>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>0</v>
@@ -30652,28 +30661,28 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.72415894130000003</v>
+        <v>3.8027782000000002E-3</v>
       </c>
       <c r="E25">
-        <v>3.86784077E-2</v>
+        <v>0.27148536769999998</v>
       </c>
       <c r="F25" s="1">
-        <v>0.78197433910000003</v>
+        <v>0.29031327779999999</v>
       </c>
       <c r="G25">
-        <v>0.46250963569999998</v>
+        <v>0.24430983119999999</v>
       </c>
       <c r="H25">
-        <v>0.64861909240000004</v>
+        <v>0.70637321750000004</v>
       </c>
       <c r="I25">
-        <v>0.71527466380000004</v>
+        <v>0.5590909798</v>
       </c>
       <c r="J25">
-        <v>0.85337157630000005</v>
+        <v>0.45293842350000002</v>
       </c>
       <c r="K25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>0</v>
@@ -30693,28 +30702,28 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>0.9534822812</v>
+        <v>1.7087640000000001E-4</v>
       </c>
       <c r="E26">
-        <v>-0.16743967160000001</v>
+        <v>0.2149565098</v>
       </c>
       <c r="F26" s="1">
-        <v>0.64960199610000002</v>
+        <v>0.53288922270000005</v>
       </c>
       <c r="G26">
-        <v>0.96927195880000006</v>
+        <v>0.70336498609999998</v>
       </c>
       <c r="H26">
-        <v>0.49413011820000002</v>
+        <v>0.68021225350000003</v>
       </c>
       <c r="I26">
-        <v>0.80629483020000003</v>
+        <v>0.63577623969999997</v>
       </c>
       <c r="J26">
-        <v>0.54465794599999995</v>
+        <v>0.95639786849999997</v>
       </c>
       <c r="K26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>0</v>
@@ -30734,28 +30743,28 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4620930586</v>
+        <v>0.62358194060000005</v>
       </c>
       <c r="E27">
-        <v>-0.47032046719999998</v>
+        <v>-0.48844320930000001</v>
       </c>
       <c r="F27" s="1">
-        <v>7.0812712999999999E-2</v>
+        <v>5.9657700199999997E-2</v>
       </c>
       <c r="G27">
-        <v>0.85933557760000001</v>
+        <v>0.50241214619999996</v>
       </c>
       <c r="H27">
-        <v>0.64498831160000003</v>
+        <v>0.67850175820000003</v>
       </c>
       <c r="I27">
-        <v>0.6501152912</v>
+        <v>0.82103394220000003</v>
       </c>
       <c r="J27">
-        <v>0.37803664809999998</v>
+        <v>0.40564218959999998</v>
       </c>
       <c r="K27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>0</v>
@@ -30775,28 +30784,28 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>9.2999840799999997E-2</v>
+        <v>5.5838496799999998E-2</v>
       </c>
       <c r="E28">
-        <v>-0.37767251169999999</v>
+        <v>-0.32771186149999998</v>
       </c>
       <c r="F28" s="1">
-        <v>9.6546523300000006E-2</v>
+        <v>8.4997098600000001E-2</v>
       </c>
       <c r="G28">
-        <v>0.61917805940000004</v>
+        <v>0.63431094850000003</v>
       </c>
       <c r="H28">
-        <v>0.86322268759999998</v>
+        <v>0.80117317590000003</v>
       </c>
       <c r="I28">
-        <v>0.40846797639999999</v>
+        <v>0.4054615802</v>
       </c>
       <c r="J28">
-        <v>0.39189054639999998</v>
+        <v>0.29849944639999998</v>
       </c>
       <c r="K28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>0</v>
@@ -30816,654 +30825,39 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>6.5267774000000002E-3</v>
+        <v>0.75479687689999997</v>
       </c>
       <c r="E29">
-        <v>-0.20674174819999999</v>
+        <v>-9.9362779999999998E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>0.34972988510000003</v>
+        <v>0.89990309950000003</v>
       </c>
       <c r="G29">
-        <v>0.58740638020000002</v>
+        <v>0.59464179989999999</v>
       </c>
       <c r="H29">
-        <v>0.2172574146</v>
+        <v>0.52196906489999995</v>
       </c>
       <c r="I29">
-        <v>0.44652523770000002</v>
+        <v>0.46987262759999998</v>
       </c>
       <c r="J29">
-        <v>0.3903452375</v>
+        <v>0.77334842400000003</v>
       </c>
       <c r="K29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>2.42461889E-2</v>
-      </c>
-      <c r="E30">
-        <v>-0.14939178829999999</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.4971382875</v>
-      </c>
-      <c r="G30">
-        <v>0.67096438120000002</v>
-      </c>
-      <c r="H30">
-        <v>0.38904955149999998</v>
-      </c>
-      <c r="I30">
-        <v>0.63622761179999998</v>
-      </c>
-      <c r="J30">
-        <v>0.99748992390000002</v>
-      </c>
-      <c r="K30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.51174939190000002</v>
-      </c>
-      <c r="E31">
-        <v>0.2456277077</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.48076829859999998</v>
-      </c>
-      <c r="G31">
-        <v>1.26698999E-2</v>
-      </c>
-      <c r="H31">
-        <v>0.84873790959999995</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.78078377109999997</v>
-      </c>
-      <c r="J31">
-        <v>0.82141762640000004</v>
-      </c>
-      <c r="K31">
-        <v>0.62874747129999997</v>
-      </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0.83321910369999996</v>
-      </c>
-      <c r="E32">
-        <v>0.2171777872</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.3015386055</v>
-      </c>
-      <c r="G32">
-        <v>0.68436865000000002</v>
-      </c>
-      <c r="H32">
-        <v>0.58876246379999997</v>
-      </c>
-      <c r="I32">
-        <v>0.86120072250000002</v>
-      </c>
-      <c r="J32">
-        <v>0.89566173900000001</v>
-      </c>
-      <c r="K32">
-        <v>0.59577430730000003</v>
-      </c>
-      <c r="L32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>0.58638752220000001</v>
-      </c>
-      <c r="E33">
-        <v>2.9583201E-2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.80346116010000002</v>
-      </c>
-      <c r="G33">
-        <v>0.5208814074</v>
-      </c>
-      <c r="H33">
-        <v>0.69698800270000005</v>
-      </c>
-      <c r="I33">
-        <v>0.91104192740000001</v>
-      </c>
-      <c r="J33">
-        <v>0.65202546949999995</v>
-      </c>
-      <c r="K33">
-        <v>0.97107597499999998</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.2472832381</v>
-      </c>
-      <c r="E34">
-        <v>-0.30471326399999998</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.2349972921</v>
-      </c>
-      <c r="G34">
-        <v>0.64366411980000005</v>
-      </c>
-      <c r="H34">
-        <v>0.79173833709999997</v>
-      </c>
-      <c r="I34">
-        <v>0.44125827820000002</v>
-      </c>
-      <c r="J34">
-        <v>0.43218090879999999</v>
-      </c>
-      <c r="K34">
-        <v>0.65203149309999997</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>0.79871661220000001</v>
-      </c>
-      <c r="E35">
-        <v>-0.78205970020000004</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.68080919849999999</v>
-      </c>
-      <c r="G35">
-        <v>0.34669339290000001</v>
-      </c>
-      <c r="H35">
-        <v>0.99898507700000005</v>
-      </c>
-      <c r="I35">
-        <v>0.93286688129999995</v>
-      </c>
-      <c r="J35">
-        <v>0.77691275390000003</v>
-      </c>
-      <c r="K35">
-        <v>0.74008416960000001</v>
-      </c>
-      <c r="L35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>1.3134254600000001E-2</v>
-      </c>
-      <c r="E36">
-        <v>-0.1179797583</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.71798175590000002</v>
-      </c>
-      <c r="G36">
-        <v>0.3986673026</v>
-      </c>
-      <c r="H36">
-        <v>0.32168297359999998</v>
-      </c>
-      <c r="I36">
-        <v>0.6132678238</v>
-      </c>
-      <c r="J36">
-        <v>0.39593459879999998</v>
-      </c>
-      <c r="K36">
-        <v>0.42943278540000002</v>
-      </c>
-      <c r="L36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>7.1905328899999996E-2</v>
-      </c>
-      <c r="E37">
-        <v>-0.1041480684</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.82410916899999997</v>
-      </c>
-      <c r="G37">
-        <v>0.25361584749999999</v>
-      </c>
-      <c r="H37">
-        <v>0.17539490769999999</v>
-      </c>
-      <c r="I37">
-        <v>0.49870734750000001</v>
-      </c>
-      <c r="J37">
-        <v>0.20472302119999999</v>
-      </c>
-      <c r="K37">
-        <v>0.19477196120000001</v>
-      </c>
-      <c r="L37" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0.98886221870000002</v>
-      </c>
-      <c r="E38">
-        <v>7.62860437E-2</v>
-      </c>
-      <c r="F38">
-        <v>0.7979738757</v>
-      </c>
-      <c r="G38">
-        <v>0.94248629699999997</v>
-      </c>
-      <c r="H38">
-        <v>0.98425742810000005</v>
-      </c>
-      <c r="I38">
-        <v>0.94988842529999995</v>
-      </c>
-      <c r="J38">
-        <v>0.92492179630000004</v>
-      </c>
-      <c r="K38">
-        <v>0.85667239719999999</v>
-      </c>
-      <c r="L38">
-        <v>0.95029898859999995</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0.88381549059999998</v>
-      </c>
-      <c r="E39">
-        <v>0.1359128631</v>
-      </c>
-      <c r="F39">
-        <v>0.66480127870000005</v>
-      </c>
-      <c r="G39">
-        <v>0.68289995449999996</v>
-      </c>
-      <c r="H39">
-        <v>0.89690991519999996</v>
-      </c>
-      <c r="I39">
-        <v>0.63125821199999999</v>
-      </c>
-      <c r="J39">
-        <v>0.66516496540000003</v>
-      </c>
-      <c r="K39">
-        <v>0.84548294859999995</v>
-      </c>
-      <c r="L39">
-        <v>0.69471439840000004</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>3.3165453999999999E-3</v>
-      </c>
-      <c r="E40">
-        <v>-0.16783403650000001</v>
-      </c>
-      <c r="F40">
-        <v>0.41322177560000001</v>
-      </c>
-      <c r="G40">
-        <v>0.7447580962</v>
-      </c>
-      <c r="H40">
-        <v>0.46784343699999997</v>
-      </c>
-      <c r="I40">
-        <v>0.27792457459999997</v>
-      </c>
-      <c r="J40">
-        <v>0.82087510159999999</v>
-      </c>
-      <c r="K40">
-        <v>0.6370689799</v>
-      </c>
-      <c r="L40">
-        <v>0.4511359915</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>1.26837467E-2</v>
-      </c>
-      <c r="E41">
-        <v>-0.1031606771</v>
-      </c>
-      <c r="F41">
-        <v>0.65234565420000001</v>
-      </c>
-      <c r="G41">
-        <v>0.60826884319999996</v>
-      </c>
-      <c r="H41">
-        <v>0.2009889809</v>
-      </c>
-      <c r="I41">
-        <v>0.41131526400000001</v>
-      </c>
-      <c r="J41">
-        <v>0.67439871399999995</v>
-      </c>
-      <c r="K41">
-        <v>0.61516897800000003</v>
-      </c>
-      <c r="L41">
-        <v>0.47445933680000002</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>0.19742180400000001</v>
-      </c>
-      <c r="E42">
-        <v>3.5835495600000003E-2</v>
-      </c>
-      <c r="F42">
-        <v>0.77985803750000005</v>
-      </c>
-      <c r="G42">
-        <v>0.4474696621</v>
-      </c>
-      <c r="H42">
-        <v>0.32138982269999999</v>
-      </c>
-      <c r="I42">
-        <v>0.53545274259999998</v>
-      </c>
-      <c r="J42">
-        <v>0.51673181459999995</v>
-      </c>
-      <c r="K42">
-        <v>0.39799472289999999</v>
-      </c>
-      <c r="L42">
-        <v>0.56645049039999995</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>0.9504336873</v>
-      </c>
-      <c r="E43">
-        <v>-3.9953462699999998E-2</v>
-      </c>
-      <c r="F43">
-        <v>0.96168000399999998</v>
-      </c>
-      <c r="G43">
-        <v>0.31876139990000002</v>
-      </c>
-      <c r="H43">
-        <v>0.4926820033</v>
-      </c>
-      <c r="I43">
-        <v>0.57781570920000003</v>
-      </c>
-      <c r="J43">
-        <v>0.50099159159999995</v>
-      </c>
-      <c r="K43">
-        <v>0.47153416110000002</v>
-      </c>
-      <c r="L43">
-        <v>0.47877300499999997</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>9.5688955699999995E-2</v>
-      </c>
-      <c r="E44">
-        <v>-2.2266171000000002E-3</v>
-      </c>
-      <c r="F44">
-        <v>0.99807478969999996</v>
-      </c>
-      <c r="G44">
-        <v>0.5843616895</v>
-      </c>
-      <c r="H44">
-        <v>0.43525962750000002</v>
-      </c>
-      <c r="I44">
-        <v>0.8562678668</v>
-      </c>
-      <c r="J44">
-        <v>0.19755958700000001</v>
-      </c>
-      <c r="K44">
-        <v>0.94219546740000004</v>
-      </c>
-      <c r="L44">
-        <v>0.85359158639999999</v>
-      </c>
-      <c r="M44" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G3:K37">
+  <conditionalFormatting sqref="G3:K29">
     <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
